--- a/out/equity/history/INE081A01020-Tata Steel Ltd.xlsx
+++ b/out/equity/history/INE081A01020-Tata Steel Ltd.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M865"/>
+  <dimension ref="A1:M869"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       <c r="H2" t="n">
         <v>125294625</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="I2" s="2" t="n">
         <v>44774</v>
       </c>
       <c r="J2" t="inlineStr">
@@ -589,7 +589,7 @@
       <c r="H3" t="n">
         <v>64912337</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="2" t="n">
         <v>44775</v>
       </c>
       <c r="J3" t="inlineStr">
@@ -642,7 +642,7 @@
       <c r="H4" t="n">
         <v>61382265</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="2" t="n">
         <v>44776</v>
       </c>
       <c r="J4" t="inlineStr">
@@ -695,7 +695,7 @@
       <c r="H5" t="n">
         <v>79503914</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="2" t="n">
         <v>44777</v>
       </c>
       <c r="J5" t="inlineStr">
@@ -748,7 +748,7 @@
       <c r="H6" t="n">
         <v>54440524</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="2" t="n">
         <v>44778</v>
       </c>
       <c r="J6" t="inlineStr">
@@ -801,7 +801,7 @@
       <c r="H7" t="n">
         <v>41367236</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="2" t="n">
         <v>44781</v>
       </c>
       <c r="J7" t="inlineStr">
@@ -854,7 +854,7 @@
       <c r="H8" t="n">
         <v>73840031</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="2" t="n">
         <v>44783</v>
       </c>
       <c r="J8" t="inlineStr">
@@ -907,7 +907,7 @@
       <c r="H9" t="n">
         <v>75301995</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="2" t="n">
         <v>44784</v>
       </c>
       <c r="J9" t="inlineStr">
@@ -960,7 +960,7 @@
       <c r="H10" t="n">
         <v>95880249</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="2" t="n">
         <v>44785</v>
       </c>
       <c r="J10" t="inlineStr">
@@ -1013,7 +1013,7 @@
       <c r="H11" t="n">
         <v>69177741</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="2" t="n">
         <v>44789</v>
       </c>
       <c r="J11" t="inlineStr">
@@ -1066,7 +1066,7 @@
       <c r="H12" t="n">
         <v>53967439</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>44790</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1119,7 +1119,7 @@
       <c r="H13" t="n">
         <v>49359677</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>44791</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1172,7 +1172,7 @@
       <c r="H14" t="n">
         <v>57089158</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>44792</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1225,7 +1225,7 @@
       <c r="H15" t="n">
         <v>74015274</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>44795</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1278,7 +1278,7 @@
       <c r="H16" t="n">
         <v>70521437</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>44796</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1331,7 +1331,7 @@
       <c r="H17" t="n">
         <v>55645361</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>44797</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1384,7 +1384,7 @@
       <c r="H18" t="n">
         <v>42145365</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>44798</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1437,7 +1437,7 @@
       <c r="H19" t="n">
         <v>71228324</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>44799</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1490,7 +1490,7 @@
       <c r="H20" t="n">
         <v>59878830</v>
       </c>
-      <c r="I20" s="3" t="n">
+      <c r="I20" s="2" t="n">
         <v>44802</v>
       </c>
       <c r="J20" t="inlineStr">
@@ -1543,7 +1543,7 @@
       <c r="H21" t="n">
         <v>67350822</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>44803</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1596,7 +1596,7 @@
       <c r="H22" t="n">
         <v>52445847</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>44805</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1649,7 +1649,7 @@
       <c r="H23" t="n">
         <v>45558128</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>44806</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1702,7 +1702,7 @@
       <c r="H24" t="n">
         <v>40323931</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>44809</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1755,7 +1755,7 @@
       <c r="H25" t="n">
         <v>59474358</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>44810</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="H26" t="n">
         <v>43902817</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>44811</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1861,7 +1861,7 @@
       <c r="H27" t="n">
         <v>71206231</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>44812</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1914,7 +1914,7 @@
       <c r="H28" t="n">
         <v>63622125</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>44813</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -1967,7 +1967,7 @@
       <c r="H29" t="n">
         <v>40787584</v>
       </c>
-      <c r="I29" s="3" t="n">
+      <c r="I29" s="2" t="n">
         <v>44816</v>
       </c>
       <c r="J29" t="inlineStr">
@@ -2020,7 +2020,7 @@
       <c r="H30" t="n">
         <v>44156891</v>
       </c>
-      <c r="I30" s="3" t="n">
+      <c r="I30" s="2" t="n">
         <v>44817</v>
       </c>
       <c r="J30" t="inlineStr">
@@ -2073,7 +2073,7 @@
       <c r="H31" t="n">
         <v>86350957</v>
       </c>
-      <c r="I31" s="3" t="n">
+      <c r="I31" s="2" t="n">
         <v>44818</v>
       </c>
       <c r="J31" t="inlineStr">
@@ -2126,7 +2126,7 @@
       <c r="H32" t="n">
         <v>62901946</v>
       </c>
-      <c r="I32" s="3" t="n">
+      <c r="I32" s="2" t="n">
         <v>44819</v>
       </c>
       <c r="J32" t="inlineStr">
@@ -2179,7 +2179,7 @@
       <c r="H33" t="n">
         <v>107928622</v>
       </c>
-      <c r="I33" s="3" t="n">
+      <c r="I33" s="2" t="n">
         <v>44820</v>
       </c>
       <c r="J33" t="inlineStr">
@@ -2232,7 +2232,7 @@
       <c r="H34" t="n">
         <v>51122056</v>
       </c>
-      <c r="I34" s="3" t="n">
+      <c r="I34" s="2" t="n">
         <v>44823</v>
       </c>
       <c r="J34" t="inlineStr">
@@ -2285,7 +2285,7 @@
       <c r="H35" t="n">
         <v>52127346</v>
       </c>
-      <c r="I35" s="3" t="n">
+      <c r="I35" s="2" t="n">
         <v>44824</v>
       </c>
       <c r="J35" t="inlineStr">
@@ -2338,7 +2338,7 @@
       <c r="H36" t="n">
         <v>46115965</v>
       </c>
-      <c r="I36" s="3" t="n">
+      <c r="I36" s="2" t="n">
         <v>44825</v>
       </c>
       <c r="J36" t="inlineStr">
@@ -2391,7 +2391,7 @@
       <c r="H37" t="n">
         <v>61339138</v>
       </c>
-      <c r="I37" s="3" t="n">
+      <c r="I37" s="2" t="n">
         <v>44826</v>
       </c>
       <c r="J37" t="inlineStr">
@@ -2444,7 +2444,7 @@
       <c r="H38" t="n">
         <v>109630869</v>
       </c>
-      <c r="I38" s="3" t="n">
+      <c r="I38" s="2" t="n">
         <v>44827</v>
       </c>
       <c r="J38" t="inlineStr">
@@ -2497,7 +2497,7 @@
       <c r="H39" t="n">
         <v>101229316</v>
       </c>
-      <c r="I39" s="3" t="n">
+      <c r="I39" s="2" t="n">
         <v>44830</v>
       </c>
       <c r="J39" t="inlineStr">
@@ -2550,7 +2550,7 @@
       <c r="H40" t="n">
         <v>104928946</v>
       </c>
-      <c r="I40" s="3" t="n">
+      <c r="I40" s="2" t="n">
         <v>44831</v>
       </c>
       <c r="J40" t="inlineStr">
@@ -2603,7 +2603,7 @@
       <c r="H41" t="n">
         <v>71667212</v>
       </c>
-      <c r="I41" s="3" t="n">
+      <c r="I41" s="2" t="n">
         <v>44832</v>
       </c>
       <c r="J41" t="inlineStr">
@@ -2656,7 +2656,7 @@
       <c r="H42" t="n">
         <v>60862598</v>
       </c>
-      <c r="I42" s="3" t="n">
+      <c r="I42" s="2" t="n">
         <v>44833</v>
       </c>
       <c r="J42" t="inlineStr">
@@ -2709,7 +2709,7 @@
       <c r="H43" t="n">
         <v>66413963</v>
       </c>
-      <c r="I43" s="3" t="n">
+      <c r="I43" s="2" t="n">
         <v>44834</v>
       </c>
       <c r="J43" t="inlineStr">
@@ -2762,7 +2762,7 @@
       <c r="H44" t="n">
         <v>37271979</v>
       </c>
-      <c r="I44" s="3" t="n">
+      <c r="I44" s="2" t="n">
         <v>44837</v>
       </c>
       <c r="J44" t="inlineStr">
@@ -2815,7 +2815,7 @@
       <c r="H45" t="n">
         <v>40137482</v>
       </c>
-      <c r="I45" s="3" t="n">
+      <c r="I45" s="2" t="n">
         <v>44838</v>
       </c>
       <c r="J45" t="inlineStr">
@@ -2868,7 +2868,7 @@
       <c r="H46" t="n">
         <v>48125984</v>
       </c>
-      <c r="I46" s="3" t="n">
+      <c r="I46" s="2" t="n">
         <v>44840</v>
       </c>
       <c r="J46" t="inlineStr">
@@ -2921,7 +2921,7 @@
       <c r="H47" t="n">
         <v>36063680</v>
       </c>
-      <c r="I47" s="3" t="n">
+      <c r="I47" s="2" t="n">
         <v>44841</v>
       </c>
       <c r="J47" t="inlineStr">
@@ -2974,7 +2974,7 @@
       <c r="H48" t="n">
         <v>36628345</v>
       </c>
-      <c r="I48" s="3" t="n">
+      <c r="I48" s="2" t="n">
         <v>44844</v>
       </c>
       <c r="J48" t="inlineStr">
@@ -3027,7 +3027,7 @@
       <c r="H49" t="n">
         <v>41068849</v>
       </c>
-      <c r="I49" s="3" t="n">
+      <c r="I49" s="2" t="n">
         <v>44845</v>
       </c>
       <c r="J49" t="inlineStr">
@@ -3080,7 +3080,7 @@
       <c r="H50" t="n">
         <v>41340510</v>
       </c>
-      <c r="I50" s="3" t="n">
+      <c r="I50" s="2" t="n">
         <v>44846</v>
       </c>
       <c r="J50" t="inlineStr">
@@ -3133,7 +3133,7 @@
       <c r="H51" t="n">
         <v>34649489</v>
       </c>
-      <c r="I51" s="3" t="n">
+      <c r="I51" s="2" t="n">
         <v>44847</v>
       </c>
       <c r="J51" t="inlineStr">
@@ -3186,7 +3186,7 @@
       <c r="H52" t="n">
         <v>32445365</v>
       </c>
-      <c r="I52" s="3" t="n">
+      <c r="I52" s="2" t="n">
         <v>44848</v>
       </c>
       <c r="J52" t="inlineStr">
@@ -3239,7 +3239,7 @@
       <c r="H53" t="n">
         <v>37568783</v>
       </c>
-      <c r="I53" s="3" t="n">
+      <c r="I53" s="2" t="n">
         <v>44851</v>
       </c>
       <c r="J53" t="inlineStr">
@@ -3292,7 +3292,7 @@
       <c r="H54" t="n">
         <v>30702114</v>
       </c>
-      <c r="I54" s="3" t="n">
+      <c r="I54" s="2" t="n">
         <v>44852</v>
       </c>
       <c r="J54" t="inlineStr">
@@ -3345,7 +3345,7 @@
       <c r="H55" t="n">
         <v>38756301</v>
       </c>
-      <c r="I55" s="3" t="n">
+      <c r="I55" s="2" t="n">
         <v>44853</v>
       </c>
       <c r="J55" t="inlineStr">
@@ -3398,7 +3398,7 @@
       <c r="H56" t="n">
         <v>38079576</v>
       </c>
-      <c r="I56" s="3" t="n">
+      <c r="I56" s="2" t="n">
         <v>44854</v>
       </c>
       <c r="J56" t="inlineStr">
@@ -3451,7 +3451,7 @@
       <c r="H57" t="n">
         <v>30943244</v>
       </c>
-      <c r="I57" s="3" t="n">
+      <c r="I57" s="2" t="n">
         <v>44855</v>
       </c>
       <c r="J57" t="inlineStr">
@@ -3504,7 +3504,7 @@
       <c r="H58" t="n">
         <v>7480281</v>
       </c>
-      <c r="I58" s="3" t="n">
+      <c r="I58" s="2" t="n">
         <v>44858</v>
       </c>
       <c r="J58" t="inlineStr">
@@ -3557,7 +3557,7 @@
       <c r="H59" t="n">
         <v>37131766</v>
       </c>
-      <c r="I59" s="3" t="n">
+      <c r="I59" s="2" t="n">
         <v>44859</v>
       </c>
       <c r="J59" t="inlineStr">
@@ -3610,7 +3610,7 @@
       <c r="H60" t="n">
         <v>74318647</v>
       </c>
-      <c r="I60" s="3" t="n">
+      <c r="I60" s="2" t="n">
         <v>44861</v>
       </c>
       <c r="J60" t="inlineStr">
@@ -3663,7 +3663,7 @@
       <c r="H61" t="n">
         <v>50976572</v>
       </c>
-      <c r="I61" s="3" t="n">
+      <c r="I61" s="2" t="n">
         <v>44862</v>
       </c>
       <c r="J61" t="inlineStr">
@@ -3716,7 +3716,7 @@
       <c r="H62" t="n">
         <v>38687155</v>
       </c>
-      <c r="I62" s="3" t="n">
+      <c r="I62" s="2" t="n">
         <v>44865</v>
       </c>
       <c r="J62" t="inlineStr">
@@ -3769,7 +3769,7 @@
       <c r="H63" t="n">
         <v>69031178</v>
       </c>
-      <c r="I63" s="3" t="n">
+      <c r="I63" s="2" t="n">
         <v>44866</v>
       </c>
       <c r="J63" t="inlineStr">
@@ -3822,7 +3822,7 @@
       <c r="H64" t="n">
         <v>42292275</v>
       </c>
-      <c r="I64" s="3" t="n">
+      <c r="I64" s="2" t="n">
         <v>44867</v>
       </c>
       <c r="J64" t="inlineStr">
@@ -3875,7 +3875,7 @@
       <c r="H65" t="n">
         <v>39093657</v>
       </c>
-      <c r="I65" s="3" t="n">
+      <c r="I65" s="2" t="n">
         <v>44868</v>
       </c>
       <c r="J65" t="inlineStr">
@@ -3928,7 +3928,7 @@
       <c r="H66" t="n">
         <v>70254334</v>
       </c>
-      <c r="I66" s="3" t="n">
+      <c r="I66" s="2" t="n">
         <v>44869</v>
       </c>
       <c r="J66" t="inlineStr">
@@ -3981,7 +3981,7 @@
       <c r="H67" t="n">
         <v>74403453</v>
       </c>
-      <c r="I67" s="3" t="n">
+      <c r="I67" s="2" t="n">
         <v>44872</v>
       </c>
       <c r="J67" t="inlineStr">
@@ -4034,7 +4034,7 @@
       <c r="H68" t="n">
         <v>38286751</v>
       </c>
-      <c r="I68" s="3" t="n">
+      <c r="I68" s="2" t="n">
         <v>44874</v>
       </c>
       <c r="J68" t="inlineStr">
@@ -4087,7 +4087,7 @@
       <c r="H69" t="n">
         <v>27847434</v>
       </c>
-      <c r="I69" s="3" t="n">
+      <c r="I69" s="2" t="n">
         <v>44875</v>
       </c>
       <c r="J69" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="H70" t="n">
         <v>77933417</v>
       </c>
-      <c r="I70" s="3" t="n">
+      <c r="I70" s="2" t="n">
         <v>44876</v>
       </c>
       <c r="J70" t="inlineStr">
@@ -4193,7 +4193,7 @@
       <c r="H71" t="n">
         <v>55460643</v>
       </c>
-      <c r="I71" s="3" t="n">
+      <c r="I71" s="2" t="n">
         <v>44879</v>
       </c>
       <c r="J71" t="inlineStr">
@@ -4246,7 +4246,7 @@
       <c r="H72" t="n">
         <v>34991353</v>
       </c>
-      <c r="I72" s="3" t="n">
+      <c r="I72" s="2" t="n">
         <v>44880</v>
       </c>
       <c r="J72" t="inlineStr">
@@ -4299,7 +4299,7 @@
       <c r="H73" t="n">
         <v>40394866</v>
       </c>
-      <c r="I73" s="3" t="n">
+      <c r="I73" s="2" t="n">
         <v>44881</v>
       </c>
       <c r="J73" t="inlineStr">
@@ -4352,7 +4352,7 @@
       <c r="H74" t="n">
         <v>32873063</v>
       </c>
-      <c r="I74" s="3" t="n">
+      <c r="I74" s="2" t="n">
         <v>44882</v>
       </c>
       <c r="J74" t="inlineStr">
@@ -4405,7 +4405,7 @@
       <c r="H75" t="n">
         <v>28977142</v>
       </c>
-      <c r="I75" s="3" t="n">
+      <c r="I75" s="2" t="n">
         <v>44883</v>
       </c>
       <c r="J75" t="inlineStr">
@@ -4458,7 +4458,7 @@
       <c r="H76" t="n">
         <v>58360369</v>
       </c>
-      <c r="I76" s="3" t="n">
+      <c r="I76" s="2" t="n">
         <v>44886</v>
       </c>
       <c r="J76" t="inlineStr">
@@ -4511,7 +4511,7 @@
       <c r="H77" t="n">
         <v>27827518</v>
       </c>
-      <c r="I77" s="3" t="n">
+      <c r="I77" s="2" t="n">
         <v>44887</v>
       </c>
       <c r="J77" t="inlineStr">
@@ -4564,7 +4564,7 @@
       <c r="H78" t="n">
         <v>22809651</v>
       </c>
-      <c r="I78" s="3" t="n">
+      <c r="I78" s="2" t="n">
         <v>44888</v>
       </c>
       <c r="J78" t="inlineStr">
@@ -4617,7 +4617,7 @@
       <c r="H79" t="n">
         <v>23737867</v>
       </c>
-      <c r="I79" s="3" t="n">
+      <c r="I79" s="2" t="n">
         <v>44889</v>
       </c>
       <c r="J79" t="inlineStr">
@@ -4670,7 +4670,7 @@
       <c r="H80" t="n">
         <v>27355122</v>
       </c>
-      <c r="I80" s="3" t="n">
+      <c r="I80" s="2" t="n">
         <v>44890</v>
       </c>
       <c r="J80" t="inlineStr">
@@ -4723,7 +4723,7 @@
       <c r="H81" t="n">
         <v>33516118</v>
       </c>
-      <c r="I81" s="3" t="n">
+      <c r="I81" s="2" t="n">
         <v>44893</v>
       </c>
       <c r="J81" t="inlineStr">
@@ -4776,7 +4776,7 @@
       <c r="H82" t="n">
         <v>40634807</v>
       </c>
-      <c r="I82" s="3" t="n">
+      <c r="I82" s="2" t="n">
         <v>44894</v>
       </c>
       <c r="J82" t="inlineStr">
@@ -4829,7 +4829,7 @@
       <c r="H83" t="n">
         <v>61127403</v>
       </c>
-      <c r="I83" s="3" t="n">
+      <c r="I83" s="2" t="n">
         <v>44895</v>
       </c>
       <c r="J83" t="inlineStr">
@@ -4882,7 +4882,7 @@
       <c r="H84" t="n">
         <v>91685925</v>
       </c>
-      <c r="I84" s="3" t="n">
+      <c r="I84" s="2" t="n">
         <v>44896</v>
       </c>
       <c r="J84" t="inlineStr">
@@ -4935,7 +4935,7 @@
       <c r="H85" t="n">
         <v>70514015</v>
       </c>
-      <c r="I85" s="3" t="n">
+      <c r="I85" s="2" t="n">
         <v>44897</v>
       </c>
       <c r="J85" t="inlineStr">
@@ -4988,7 +4988,7 @@
       <c r="H86" t="n">
         <v>96405582</v>
       </c>
-      <c r="I86" s="3" t="n">
+      <c r="I86" s="2" t="n">
         <v>44900</v>
       </c>
       <c r="J86" t="inlineStr">
@@ -5041,7 +5041,7 @@
       <c r="H87" t="n">
         <v>50581245</v>
       </c>
-      <c r="I87" s="3" t="n">
+      <c r="I87" s="2" t="n">
         <v>44901</v>
       </c>
       <c r="J87" t="inlineStr">
@@ -5094,7 +5094,7 @@
       <c r="H88" t="n">
         <v>39494279</v>
       </c>
-      <c r="I88" s="3" t="n">
+      <c r="I88" s="2" t="n">
         <v>44902</v>
       </c>
       <c r="J88" t="inlineStr">
@@ -5147,7 +5147,7 @@
       <c r="H89" t="n">
         <v>32406808</v>
       </c>
-      <c r="I89" s="3" t="n">
+      <c r="I89" s="2" t="n">
         <v>44903</v>
       </c>
       <c r="J89" t="inlineStr">
@@ -5200,7 +5200,7 @@
       <c r="H90" t="n">
         <v>35639805</v>
       </c>
-      <c r="I90" s="3" t="n">
+      <c r="I90" s="2" t="n">
         <v>44904</v>
       </c>
       <c r="J90" t="inlineStr">
@@ -5253,7 +5253,7 @@
       <c r="H91" t="n">
         <v>37070835</v>
       </c>
-      <c r="I91" s="3" t="n">
+      <c r="I91" s="2" t="n">
         <v>44907</v>
       </c>
       <c r="J91" t="inlineStr">
@@ -5306,7 +5306,7 @@
       <c r="H92" t="n">
         <v>32249668</v>
       </c>
-      <c r="I92" s="3" t="n">
+      <c r="I92" s="2" t="n">
         <v>44908</v>
       </c>
       <c r="J92" t="inlineStr">
@@ -5359,7 +5359,7 @@
       <c r="H93" t="n">
         <v>38579195</v>
       </c>
-      <c r="I93" s="3" t="n">
+      <c r="I93" s="2" t="n">
         <v>44909</v>
       </c>
       <c r="J93" t="inlineStr">
@@ -5412,7 +5412,7 @@
       <c r="H94" t="n">
         <v>34346380</v>
       </c>
-      <c r="I94" s="3" t="n">
+      <c r="I94" s="2" t="n">
         <v>44910</v>
       </c>
       <c r="J94" t="inlineStr">
@@ -5465,7 +5465,7 @@
       <c r="H95" t="n">
         <v>34712889</v>
       </c>
-      <c r="I95" s="3" t="n">
+      <c r="I95" s="2" t="n">
         <v>44911</v>
       </c>
       <c r="J95" t="inlineStr">
@@ -5518,7 +5518,7 @@
       <c r="H96" t="n">
         <v>17272635</v>
       </c>
-      <c r="I96" s="3" t="n">
+      <c r="I96" s="2" t="n">
         <v>44914</v>
       </c>
       <c r="J96" t="inlineStr">
@@ -5571,7 +5571,7 @@
       <c r="H97" t="n">
         <v>34809963</v>
       </c>
-      <c r="I97" s="3" t="n">
+      <c r="I97" s="2" t="n">
         <v>44915</v>
       </c>
       <c r="J97" t="inlineStr">
@@ -5624,7 +5624,7 @@
       <c r="H98" t="n">
         <v>32303565</v>
       </c>
-      <c r="I98" s="3" t="n">
+      <c r="I98" s="2" t="n">
         <v>44916</v>
       </c>
       <c r="J98" t="inlineStr">
@@ -5677,7 +5677,7 @@
       <c r="H99" t="n">
         <v>39628769</v>
       </c>
-      <c r="I99" s="3" t="n">
+      <c r="I99" s="2" t="n">
         <v>44917</v>
       </c>
       <c r="J99" t="inlineStr">
@@ -5730,7 +5730,7 @@
       <c r="H100" t="n">
         <v>46736240</v>
       </c>
-      <c r="I100" s="3" t="n">
+      <c r="I100" s="2" t="n">
         <v>44918</v>
       </c>
       <c r="J100" t="inlineStr">
@@ -5783,7 +5783,7 @@
       <c r="H101" t="n">
         <v>33979900</v>
       </c>
-      <c r="I101" s="3" t="n">
+      <c r="I101" s="2" t="n">
         <v>44921</v>
       </c>
       <c r="J101" t="inlineStr">
@@ -5836,7 +5836,7 @@
       <c r="H102" t="n">
         <v>76033410</v>
       </c>
-      <c r="I102" s="3" t="n">
+      <c r="I102" s="2" t="n">
         <v>44922</v>
       </c>
       <c r="J102" t="inlineStr">
@@ -5889,7 +5889,7 @@
       <c r="H103" t="n">
         <v>50638339</v>
       </c>
-      <c r="I103" s="3" t="n">
+      <c r="I103" s="2" t="n">
         <v>44923</v>
       </c>
       <c r="J103" t="inlineStr">
@@ -5942,7 +5942,7 @@
       <c r="H104" t="n">
         <v>51739577</v>
       </c>
-      <c r="I104" s="3" t="n">
+      <c r="I104" s="2" t="n">
         <v>44924</v>
       </c>
       <c r="J104" t="inlineStr">
@@ -5995,7 +5995,7 @@
       <c r="H105" t="n">
         <v>56032184</v>
       </c>
-      <c r="I105" s="3" t="n">
+      <c r="I105" s="2" t="n">
         <v>44925</v>
       </c>
       <c r="J105" t="inlineStr">
@@ -6048,7 +6048,7 @@
       <c r="H106" t="n">
         <v>143444095</v>
       </c>
-      <c r="I106" s="3" t="n">
+      <c r="I106" s="2" t="n">
         <v>44928</v>
       </c>
       <c r="J106" t="inlineStr">
@@ -6101,7 +6101,7 @@
       <c r="H107" t="n">
         <v>74419090</v>
       </c>
-      <c r="I107" s="3" t="n">
+      <c r="I107" s="2" t="n">
         <v>44929</v>
       </c>
       <c r="J107" t="inlineStr">
@@ -6154,7 +6154,7 @@
       <c r="H108" t="n">
         <v>55609098</v>
       </c>
-      <c r="I108" s="3" t="n">
+      <c r="I108" s="2" t="n">
         <v>44930</v>
       </c>
       <c r="J108" t="inlineStr">
@@ -6207,7 +6207,7 @@
       <c r="H109" t="n">
         <v>58806907</v>
       </c>
-      <c r="I109" s="3" t="n">
+      <c r="I109" s="2" t="n">
         <v>44931</v>
       </c>
       <c r="J109" t="inlineStr">
@@ -6260,7 +6260,7 @@
       <c r="H110" t="n">
         <v>58528685</v>
       </c>
-      <c r="I110" s="3" t="n">
+      <c r="I110" s="2" t="n">
         <v>44932</v>
       </c>
       <c r="J110" t="inlineStr">
@@ -6313,7 +6313,7 @@
       <c r="H111" t="n">
         <v>37745149</v>
       </c>
-      <c r="I111" s="3" t="n">
+      <c r="I111" s="2" t="n">
         <v>44935</v>
       </c>
       <c r="J111" t="inlineStr">
@@ -6366,7 +6366,7 @@
       <c r="H112" t="n">
         <v>56750710</v>
       </c>
-      <c r="I112" s="3" t="n">
+      <c r="I112" s="2" t="n">
         <v>44936</v>
       </c>
       <c r="J112" t="inlineStr">
@@ -6419,7 +6419,7 @@
       <c r="H113" t="n">
         <v>49321252</v>
       </c>
-      <c r="I113" s="3" t="n">
+      <c r="I113" s="2" t="n">
         <v>44937</v>
       </c>
       <c r="J113" t="inlineStr">
@@ -6472,7 +6472,7 @@
       <c r="H114" t="n">
         <v>33737139</v>
       </c>
-      <c r="I114" s="3" t="n">
+      <c r="I114" s="2" t="n">
         <v>44938</v>
       </c>
       <c r="J114" t="inlineStr">
@@ -6525,7 +6525,7 @@
       <c r="H115" t="n">
         <v>68853200</v>
       </c>
-      <c r="I115" s="3" t="n">
+      <c r="I115" s="2" t="n">
         <v>44939</v>
       </c>
       <c r="J115" t="inlineStr">
@@ -6578,7 +6578,7 @@
       <c r="H116" t="n">
         <v>44337048</v>
       </c>
-      <c r="I116" s="3" t="n">
+      <c r="I116" s="2" t="n">
         <v>44942</v>
       </c>
       <c r="J116" t="inlineStr">
@@ -6631,7 +6631,7 @@
       <c r="H117" t="n">
         <v>27862371</v>
       </c>
-      <c r="I117" s="3" t="n">
+      <c r="I117" s="2" t="n">
         <v>44943</v>
       </c>
       <c r="J117" t="inlineStr">
@@ -6684,7 +6684,7 @@
       <c r="H118" t="n">
         <v>64729951</v>
       </c>
-      <c r="I118" s="3" t="n">
+      <c r="I118" s="2" t="n">
         <v>44944</v>
       </c>
       <c r="J118" t="inlineStr">
@@ -6737,7 +6737,7 @@
       <c r="H119" t="n">
         <v>53564076</v>
       </c>
-      <c r="I119" s="3" t="n">
+      <c r="I119" s="2" t="n">
         <v>44945</v>
       </c>
       <c r="J119" t="inlineStr">
@@ -6790,7 +6790,7 @@
       <c r="H120" t="n">
         <v>37778688</v>
       </c>
-      <c r="I120" s="3" t="n">
+      <c r="I120" s="2" t="n">
         <v>44946</v>
       </c>
       <c r="J120" t="inlineStr">
@@ -6843,7 +6843,7 @@
       <c r="H121" t="n">
         <v>28591909</v>
       </c>
-      <c r="I121" s="3" t="n">
+      <c r="I121" s="2" t="n">
         <v>44949</v>
       </c>
       <c r="J121" t="inlineStr">
@@ -6896,7 +6896,7 @@
       <c r="H122" t="n">
         <v>27678481</v>
       </c>
-      <c r="I122" s="3" t="n">
+      <c r="I122" s="2" t="n">
         <v>44950</v>
       </c>
       <c r="J122" t="inlineStr">
@@ -6949,7 +6949,7 @@
       <c r="H123" t="n">
         <v>46522102</v>
       </c>
-      <c r="I123" s="3" t="n">
+      <c r="I123" s="2" t="n">
         <v>44951</v>
       </c>
       <c r="J123" t="inlineStr">
@@ -7002,7 +7002,7 @@
       <c r="H124" t="n">
         <v>58744130</v>
       </c>
-      <c r="I124" s="3" t="n">
+      <c r="I124" s="2" t="n">
         <v>44953</v>
       </c>
       <c r="J124" t="inlineStr">
@@ -7055,7 +7055,7 @@
       <c r="H125" t="n">
         <v>46551837</v>
       </c>
-      <c r="I125" s="3" t="n">
+      <c r="I125" s="2" t="n">
         <v>44956</v>
       </c>
       <c r="J125" t="inlineStr">
@@ -7108,7 +7108,7 @@
       <c r="H126" t="n">
         <v>43986769</v>
       </c>
-      <c r="I126" s="3" t="n">
+      <c r="I126" s="2" t="n">
         <v>44957</v>
       </c>
       <c r="J126" t="inlineStr">
@@ -7161,7 +7161,7 @@
       <c r="H127" t="n">
         <v>72807899</v>
       </c>
-      <c r="I127" s="3" t="n">
+      <c r="I127" s="2" t="n">
         <v>44958</v>
       </c>
       <c r="J127" t="inlineStr">
@@ -7214,7 +7214,7 @@
       <c r="H128" t="n">
         <v>38644641</v>
       </c>
-      <c r="I128" s="3" t="n">
+      <c r="I128" s="2" t="n">
         <v>44959</v>
       </c>
       <c r="J128" t="inlineStr">
@@ -7267,7 +7267,7 @@
       <c r="H129" t="n">
         <v>46887339</v>
       </c>
-      <c r="I129" s="3" t="n">
+      <c r="I129" s="2" t="n">
         <v>44960</v>
       </c>
       <c r="J129" t="inlineStr">
@@ -7320,7 +7320,7 @@
       <c r="H130" t="n">
         <v>49396561</v>
       </c>
-      <c r="I130" s="3" t="n">
+      <c r="I130" s="2" t="n">
         <v>44963</v>
       </c>
       <c r="J130" t="inlineStr">
@@ -7373,7 +7373,7 @@
       <c r="H131" t="n">
         <v>110054382</v>
       </c>
-      <c r="I131" s="3" t="n">
+      <c r="I131" s="2" t="n">
         <v>44964</v>
       </c>
       <c r="J131" t="inlineStr">
@@ -7426,7 +7426,7 @@
       <c r="H132" t="n">
         <v>66259091</v>
       </c>
-      <c r="I132" s="3" t="n">
+      <c r="I132" s="2" t="n">
         <v>44965</v>
       </c>
       <c r="J132" t="inlineStr">
@@ -7479,7 +7479,7 @@
       <c r="H133" t="n">
         <v>64543343</v>
       </c>
-      <c r="I133" s="3" t="n">
+      <c r="I133" s="2" t="n">
         <v>44966</v>
       </c>
       <c r="J133" t="inlineStr">
@@ -7532,7 +7532,7 @@
       <c r="H134" t="n">
         <v>60666975</v>
       </c>
-      <c r="I134" s="3" t="n">
+      <c r="I134" s="2" t="n">
         <v>44967</v>
       </c>
       <c r="J134" t="inlineStr">
@@ -7585,7 +7585,7 @@
       <c r="H135" t="n">
         <v>55975414</v>
       </c>
-      <c r="I135" s="3" t="n">
+      <c r="I135" s="2" t="n">
         <v>44970</v>
       </c>
       <c r="J135" t="inlineStr">
@@ -7638,7 +7638,7 @@
       <c r="H136" t="n">
         <v>31044797</v>
       </c>
-      <c r="I136" s="3" t="n">
+      <c r="I136" s="2" t="n">
         <v>44971</v>
       </c>
       <c r="J136" t="inlineStr">
@@ -7691,7 +7691,7 @@
       <c r="H137" t="n">
         <v>35413007</v>
       </c>
-      <c r="I137" s="3" t="n">
+      <c r="I137" s="2" t="n">
         <v>44972</v>
       </c>
       <c r="J137" t="inlineStr">
@@ -7744,7 +7744,7 @@
       <c r="H138" t="n">
         <v>30852355</v>
       </c>
-      <c r="I138" s="3" t="n">
+      <c r="I138" s="2" t="n">
         <v>44973</v>
       </c>
       <c r="J138" t="inlineStr">
@@ -7797,7 +7797,7 @@
       <c r="H139" t="n">
         <v>33994459</v>
       </c>
-      <c r="I139" s="3" t="n">
+      <c r="I139" s="2" t="n">
         <v>44974</v>
       </c>
       <c r="J139" t="inlineStr">
@@ -7850,7 +7850,7 @@
       <c r="H140" t="n">
         <v>19815583</v>
       </c>
-      <c r="I140" s="3" t="n">
+      <c r="I140" s="2" t="n">
         <v>44977</v>
       </c>
       <c r="J140" t="inlineStr">
@@ -7903,7 +7903,7 @@
       <c r="H141" t="n">
         <v>29717678</v>
       </c>
-      <c r="I141" s="3" t="n">
+      <c r="I141" s="2" t="n">
         <v>44978</v>
       </c>
       <c r="J141" t="inlineStr">
@@ -7956,7 +7956,7 @@
       <c r="H142" t="n">
         <v>24297048</v>
       </c>
-      <c r="I142" s="3" t="n">
+      <c r="I142" s="2" t="n">
         <v>44979</v>
       </c>
       <c r="J142" t="inlineStr">
@@ -8009,7 +8009,7 @@
       <c r="H143" t="n">
         <v>30830009</v>
       </c>
-      <c r="I143" s="3" t="n">
+      <c r="I143" s="2" t="n">
         <v>44980</v>
       </c>
       <c r="J143" t="inlineStr">
@@ -8062,7 +8062,7 @@
       <c r="H144" t="n">
         <v>34245901</v>
       </c>
-      <c r="I144" s="3" t="n">
+      <c r="I144" s="2" t="n">
         <v>44981</v>
       </c>
       <c r="J144" t="inlineStr">
@@ -8115,7 +8115,7 @@
       <c r="H145" t="n">
         <v>56107732</v>
       </c>
-      <c r="I145" s="3" t="n">
+      <c r="I145" s="2" t="n">
         <v>44984</v>
       </c>
       <c r="J145" t="inlineStr">
@@ -8168,7 +8168,7 @@
       <c r="H146" t="n">
         <v>76410709</v>
       </c>
-      <c r="I146" s="3" t="n">
+      <c r="I146" s="2" t="n">
         <v>44985</v>
       </c>
       <c r="J146" t="inlineStr">
@@ -8221,7 +8221,7 @@
       <c r="H147" t="n">
         <v>75964152</v>
       </c>
-      <c r="I147" s="3" t="n">
+      <c r="I147" s="2" t="n">
         <v>44986</v>
       </c>
       <c r="J147" t="inlineStr">
@@ -8274,7 +8274,7 @@
       <c r="H148" t="n">
         <v>55120458</v>
       </c>
-      <c r="I148" s="3" t="n">
+      <c r="I148" s="2" t="n">
         <v>44987</v>
       </c>
       <c r="J148" t="inlineStr">
@@ -8327,7 +8327,7 @@
       <c r="H149" t="n">
         <v>116878079</v>
       </c>
-      <c r="I149" s="3" t="n">
+      <c r="I149" s="2" t="n">
         <v>44988</v>
       </c>
       <c r="J149" t="inlineStr">
@@ -8380,7 +8380,7 @@
       <c r="H150" t="n">
         <v>106671534</v>
       </c>
-      <c r="I150" s="3" t="n">
+      <c r="I150" s="2" t="n">
         <v>44991</v>
       </c>
       <c r="J150" t="inlineStr">
@@ -8433,7 +8433,7 @@
       <c r="H151" t="n">
         <v>43507438</v>
       </c>
-      <c r="I151" s="3" t="n">
+      <c r="I151" s="2" t="n">
         <v>44993</v>
       </c>
       <c r="J151" t="inlineStr">
@@ -8486,7 +8486,7 @@
       <c r="H152" t="n">
         <v>51504210</v>
       </c>
-      <c r="I152" s="3" t="n">
+      <c r="I152" s="2" t="n">
         <v>44994</v>
       </c>
       <c r="J152" t="inlineStr">
@@ -8539,7 +8539,7 @@
       <c r="H153" t="n">
         <v>47465362</v>
       </c>
-      <c r="I153" s="3" t="n">
+      <c r="I153" s="2" t="n">
         <v>44995</v>
       </c>
       <c r="J153" t="inlineStr">
@@ -8592,7 +8592,7 @@
       <c r="H154" t="n">
         <v>34389969</v>
       </c>
-      <c r="I154" s="3" t="n">
+      <c r="I154" s="2" t="n">
         <v>44998</v>
       </c>
       <c r="J154" t="inlineStr">
@@ -8645,7 +8645,7 @@
       <c r="H155" t="n">
         <v>41418749</v>
       </c>
-      <c r="I155" s="3" t="n">
+      <c r="I155" s="2" t="n">
         <v>44999</v>
       </c>
       <c r="J155" t="inlineStr">
@@ -8698,7 +8698,7 @@
       <c r="H156" t="n">
         <v>38778698</v>
       </c>
-      <c r="I156" s="3" t="n">
+      <c r="I156" s="2" t="n">
         <v>45000</v>
       </c>
       <c r="J156" t="inlineStr">
@@ -8751,7 +8751,7 @@
       <c r="H157" t="n">
         <v>80834508</v>
       </c>
-      <c r="I157" s="3" t="n">
+      <c r="I157" s="2" t="n">
         <v>45001</v>
       </c>
       <c r="J157" t="inlineStr">
@@ -8804,7 +8804,7 @@
       <c r="H158" t="n">
         <v>48799246</v>
       </c>
-      <c r="I158" s="3" t="n">
+      <c r="I158" s="2" t="n">
         <v>45002</v>
       </c>
       <c r="J158" t="inlineStr">
@@ -8857,7 +8857,7 @@
       <c r="H159" t="n">
         <v>41548453</v>
       </c>
-      <c r="I159" s="3" t="n">
+      <c r="I159" s="2" t="n">
         <v>45005</v>
       </c>
       <c r="J159" t="inlineStr">
@@ -8910,7 +8910,7 @@
       <c r="H160" t="n">
         <v>26285597</v>
       </c>
-      <c r="I160" s="3" t="n">
+      <c r="I160" s="2" t="n">
         <v>45006</v>
       </c>
       <c r="J160" t="inlineStr">
@@ -8963,7 +8963,7 @@
       <c r="H161" t="n">
         <v>25789757</v>
       </c>
-      <c r="I161" s="3" t="n">
+      <c r="I161" s="2" t="n">
         <v>45007</v>
       </c>
       <c r="J161" t="inlineStr">
@@ -9016,7 +9016,7 @@
       <c r="H162" t="n">
         <v>20767270</v>
       </c>
-      <c r="I162" s="3" t="n">
+      <c r="I162" s="2" t="n">
         <v>45008</v>
       </c>
       <c r="J162" t="inlineStr">
@@ -9069,7 +9069,7 @@
       <c r="H163" t="n">
         <v>38897470</v>
       </c>
-      <c r="I163" s="3" t="n">
+      <c r="I163" s="2" t="n">
         <v>45009</v>
       </c>
       <c r="J163" t="inlineStr">
@@ -9122,7 +9122,7 @@
       <c r="H164" t="n">
         <v>24642904</v>
       </c>
-      <c r="I164" s="3" t="n">
+      <c r="I164" s="2" t="n">
         <v>45012</v>
       </c>
       <c r="J164" t="inlineStr">
@@ -9175,7 +9175,7 @@
       <c r="H165" t="n">
         <v>18615928</v>
       </c>
-      <c r="I165" s="3" t="n">
+      <c r="I165" s="2" t="n">
         <v>45013</v>
       </c>
       <c r="J165" t="inlineStr">
@@ -9228,7 +9228,7 @@
       <c r="H166" t="n">
         <v>37124724</v>
       </c>
-      <c r="I166" s="3" t="n">
+      <c r="I166" s="2" t="n">
         <v>45014</v>
       </c>
       <c r="J166" t="inlineStr">
@@ -9281,7 +9281,7 @@
       <c r="H167" t="n">
         <v>34161584</v>
       </c>
-      <c r="I167" s="3" t="n">
+      <c r="I167" s="2" t="n">
         <v>45016</v>
       </c>
       <c r="J167" t="inlineStr">
@@ -9334,7 +9334,7 @@
       <c r="H168" t="n">
         <v>21731773</v>
       </c>
-      <c r="I168" s="3" t="n">
+      <c r="I168" s="2" t="n">
         <v>45019</v>
       </c>
       <c r="J168" t="inlineStr">
@@ -9387,7 +9387,7 @@
       <c r="H169" t="n">
         <v>25023961</v>
       </c>
-      <c r="I169" s="3" t="n">
+      <c r="I169" s="2" t="n">
         <v>45021</v>
       </c>
       <c r="J169" t="inlineStr">
@@ -9440,7 +9440,7 @@
       <c r="H170" t="n">
         <v>20926338</v>
       </c>
-      <c r="I170" s="3" t="n">
+      <c r="I170" s="2" t="n">
         <v>45022</v>
       </c>
       <c r="J170" t="inlineStr">
@@ -9493,7 +9493,7 @@
       <c r="H171" t="n">
         <v>19894045</v>
       </c>
-      <c r="I171" s="3" t="n">
+      <c r="I171" s="2" t="n">
         <v>45026</v>
       </c>
       <c r="J171" t="inlineStr">
@@ -9546,7 +9546,7 @@
       <c r="H172" t="n">
         <v>49140929</v>
       </c>
-      <c r="I172" s="3" t="n">
+      <c r="I172" s="2" t="n">
         <v>45027</v>
       </c>
       <c r="J172" t="inlineStr">
@@ -9599,7 +9599,7 @@
       <c r="H173" t="n">
         <v>27164736</v>
       </c>
-      <c r="I173" s="3" t="n">
+      <c r="I173" s="2" t="n">
         <v>45028</v>
       </c>
       <c r="J173" t="inlineStr">
@@ -9652,7 +9652,7 @@
       <c r="H174" t="n">
         <v>34786489</v>
       </c>
-      <c r="I174" s="3" t="n">
+      <c r="I174" s="2" t="n">
         <v>45029</v>
       </c>
       <c r="J174" t="inlineStr">
@@ -9705,7 +9705,7 @@
       <c r="H175" t="n">
         <v>24485939</v>
       </c>
-      <c r="I175" s="3" t="n">
+      <c r="I175" s="2" t="n">
         <v>45033</v>
       </c>
       <c r="J175" t="inlineStr">
@@ -9758,7 +9758,7 @@
       <c r="H176" t="n">
         <v>25398349</v>
       </c>
-      <c r="I176" s="3" t="n">
+      <c r="I176" s="2" t="n">
         <v>45034</v>
       </c>
       <c r="J176" t="inlineStr">
@@ -9811,7 +9811,7 @@
       <c r="H177" t="n">
         <v>61943879</v>
       </c>
-      <c r="I177" s="3" t="n">
+      <c r="I177" s="2" t="n">
         <v>45035</v>
       </c>
       <c r="J177" t="inlineStr">
@@ -9864,7 +9864,7 @@
       <c r="H178" t="n">
         <v>18209592</v>
       </c>
-      <c r="I178" s="3" t="n">
+      <c r="I178" s="2" t="n">
         <v>45036</v>
       </c>
       <c r="J178" t="inlineStr">
@@ -9917,7 +9917,7 @@
       <c r="H179" t="n">
         <v>37555638</v>
       </c>
-      <c r="I179" s="3" t="n">
+      <c r="I179" s="2" t="n">
         <v>45037</v>
       </c>
       <c r="J179" t="inlineStr">
@@ -9970,7 +9970,7 @@
       <c r="H180" t="n">
         <v>23335810</v>
       </c>
-      <c r="I180" s="3" t="n">
+      <c r="I180" s="2" t="n">
         <v>45040</v>
       </c>
       <c r="J180" t="inlineStr">
@@ -10023,7 +10023,7 @@
       <c r="H181" t="n">
         <v>23266706</v>
       </c>
-      <c r="I181" s="3" t="n">
+      <c r="I181" s="2" t="n">
         <v>45041</v>
       </c>
       <c r="J181" t="inlineStr">
@@ -10076,7 +10076,7 @@
       <c r="H182" t="n">
         <v>23463775</v>
       </c>
-      <c r="I182" s="3" t="n">
+      <c r="I182" s="2" t="n">
         <v>45042</v>
       </c>
       <c r="J182" t="inlineStr">
@@ -10129,7 +10129,7 @@
       <c r="H183" t="n">
         <v>22262373</v>
       </c>
-      <c r="I183" s="3" t="n">
+      <c r="I183" s="2" t="n">
         <v>45043</v>
       </c>
       <c r="J183" t="inlineStr">
@@ -10182,7 +10182,7 @@
       <c r="H184" t="n">
         <v>29970563</v>
       </c>
-      <c r="I184" s="3" t="n">
+      <c r="I184" s="2" t="n">
         <v>45044</v>
       </c>
       <c r="J184" t="inlineStr">
@@ -10235,7 +10235,7 @@
       <c r="H185" t="n">
         <v>52625441</v>
       </c>
-      <c r="I185" s="3" t="n">
+      <c r="I185" s="2" t="n">
         <v>45048</v>
       </c>
       <c r="J185" t="inlineStr">
@@ -10288,7 +10288,7 @@
       <c r="H186" t="n">
         <v>50108035</v>
       </c>
-      <c r="I186" s="3" t="n">
+      <c r="I186" s="2" t="n">
         <v>45049</v>
       </c>
       <c r="J186" t="inlineStr">
@@ -10341,7 +10341,7 @@
       <c r="H187" t="n">
         <v>38501334</v>
       </c>
-      <c r="I187" s="3" t="n">
+      <c r="I187" s="2" t="n">
         <v>45050</v>
       </c>
       <c r="J187" t="inlineStr">
@@ -10394,7 +10394,7 @@
       <c r="H188" t="n">
         <v>32835822</v>
       </c>
-      <c r="I188" s="3" t="n">
+      <c r="I188" s="2" t="n">
         <v>45051</v>
       </c>
       <c r="J188" t="inlineStr">
@@ -10447,7 +10447,7 @@
       <c r="H189" t="n">
         <v>23048647</v>
       </c>
-      <c r="I189" s="3" t="n">
+      <c r="I189" s="2" t="n">
         <v>45054</v>
       </c>
       <c r="J189" t="inlineStr">
@@ -10500,7 +10500,7 @@
       <c r="H190" t="n">
         <v>27923684</v>
       </c>
-      <c r="I190" s="3" t="n">
+      <c r="I190" s="2" t="n">
         <v>45055</v>
       </c>
       <c r="J190" t="inlineStr">
@@ -10553,7 +10553,7 @@
       <c r="H191" t="n">
         <v>19100938</v>
       </c>
-      <c r="I191" s="3" t="n">
+      <c r="I191" s="2" t="n">
         <v>45056</v>
       </c>
       <c r="J191" t="inlineStr">
@@ -10606,7 +10606,7 @@
       <c r="H192" t="n">
         <v>19719099</v>
       </c>
-      <c r="I192" s="3" t="n">
+      <c r="I192" s="2" t="n">
         <v>45057</v>
       </c>
       <c r="J192" t="inlineStr">
@@ -10659,7 +10659,7 @@
       <c r="H193" t="n">
         <v>36684232</v>
       </c>
-      <c r="I193" s="3" t="n">
+      <c r="I193" s="2" t="n">
         <v>45058</v>
       </c>
       <c r="J193" t="inlineStr">
@@ -10712,7 +10712,7 @@
       <c r="H194" t="n">
         <v>22002277</v>
       </c>
-      <c r="I194" s="3" t="n">
+      <c r="I194" s="2" t="n">
         <v>45061</v>
       </c>
       <c r="J194" t="inlineStr">
@@ -10765,7 +10765,7 @@
       <c r="H195" t="n">
         <v>18492357</v>
       </c>
-      <c r="I195" s="3" t="n">
+      <c r="I195" s="2" t="n">
         <v>45062</v>
       </c>
       <c r="J195" t="inlineStr">
@@ -10818,7 +10818,7 @@
       <c r="H196" t="n">
         <v>28811877</v>
       </c>
-      <c r="I196" s="3" t="n">
+      <c r="I196" s="2" t="n">
         <v>45063</v>
       </c>
       <c r="J196" t="inlineStr">
@@ -10871,7 +10871,7 @@
       <c r="H197" t="n">
         <v>24088368</v>
       </c>
-      <c r="I197" s="3" t="n">
+      <c r="I197" s="2" t="n">
         <v>45064</v>
       </c>
       <c r="J197" t="inlineStr">
@@ -10924,7 +10924,7 @@
       <c r="H198" t="n">
         <v>29774276</v>
       </c>
-      <c r="I198" s="3" t="n">
+      <c r="I198" s="2" t="n">
         <v>45065</v>
       </c>
       <c r="J198" t="inlineStr">
@@ -10977,7 +10977,7 @@
       <c r="H199" t="n">
         <v>21494776</v>
       </c>
-      <c r="I199" s="3" t="n">
+      <c r="I199" s="2" t="n">
         <v>45068</v>
       </c>
       <c r="J199" t="inlineStr">
@@ -11030,7 +11030,7 @@
       <c r="H200" t="n">
         <v>21219380</v>
       </c>
-      <c r="I200" s="3" t="n">
+      <c r="I200" s="2" t="n">
         <v>45069</v>
       </c>
       <c r="J200" t="inlineStr">
@@ -11083,7 +11083,7 @@
       <c r="H201" t="n">
         <v>28376303</v>
       </c>
-      <c r="I201" s="3" t="n">
+      <c r="I201" s="2" t="n">
         <v>45070</v>
       </c>
       <c r="J201" t="inlineStr">
@@ -11136,7 +11136,7 @@
       <c r="H202" t="n">
         <v>25769057</v>
       </c>
-      <c r="I202" s="3" t="n">
+      <c r="I202" s="2" t="n">
         <v>45071</v>
       </c>
       <c r="J202" t="inlineStr">
@@ -11189,7 +11189,7 @@
       <c r="H203" t="n">
         <v>28285633</v>
       </c>
-      <c r="I203" s="3" t="n">
+      <c r="I203" s="2" t="n">
         <v>45072</v>
       </c>
       <c r="J203" t="inlineStr">
@@ -11242,7 +11242,7 @@
       <c r="H204" t="n">
         <v>40880923</v>
       </c>
-      <c r="I204" s="3" t="n">
+      <c r="I204" s="2" t="n">
         <v>45075</v>
       </c>
       <c r="J204" t="inlineStr">
@@ -11295,7 +11295,7 @@
       <c r="H205" t="n">
         <v>33301458</v>
       </c>
-      <c r="I205" s="3" t="n">
+      <c r="I205" s="2" t="n">
         <v>45076</v>
       </c>
       <c r="J205" t="inlineStr">
@@ -11348,7 +11348,7 @@
       <c r="H206" t="n">
         <v>41106126</v>
       </c>
-      <c r="I206" s="3" t="n">
+      <c r="I206" s="2" t="n">
         <v>45077</v>
       </c>
       <c r="J206" t="inlineStr">
@@ -11401,7 +11401,7 @@
       <c r="H207" t="n">
         <v>21129064</v>
       </c>
-      <c r="I207" s="3" t="n">
+      <c r="I207" s="2" t="n">
         <v>45078</v>
       </c>
       <c r="J207" t="inlineStr">
@@ -11454,7 +11454,7 @@
       <c r="H208" t="n">
         <v>46543869</v>
       </c>
-      <c r="I208" s="3" t="n">
+      <c r="I208" s="2" t="n">
         <v>45079</v>
       </c>
       <c r="J208" t="inlineStr">
@@ -11507,7 +11507,7 @@
       <c r="H209" t="n">
         <v>39445955</v>
       </c>
-      <c r="I209" s="3" t="n">
+      <c r="I209" s="2" t="n">
         <v>45082</v>
       </c>
       <c r="J209" t="inlineStr">
@@ -11560,7 +11560,7 @@
       <c r="H210" t="n">
         <v>26622274</v>
       </c>
-      <c r="I210" s="3" t="n">
+      <c r="I210" s="2" t="n">
         <v>45083</v>
       </c>
       <c r="J210" t="inlineStr">
@@ -11613,7 +11613,7 @@
       <c r="H211" t="n">
         <v>45013219</v>
       </c>
-      <c r="I211" s="3" t="n">
+      <c r="I211" s="2" t="n">
         <v>45084</v>
       </c>
       <c r="J211" t="inlineStr">
@@ -11666,7 +11666,7 @@
       <c r="H212" t="n">
         <v>46117388</v>
       </c>
-      <c r="I212" s="3" t="n">
+      <c r="I212" s="2" t="n">
         <v>45085</v>
       </c>
       <c r="J212" t="inlineStr">
@@ -11719,7 +11719,7 @@
       <c r="H213" t="n">
         <v>36306219</v>
       </c>
-      <c r="I213" s="3" t="n">
+      <c r="I213" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="J213" t="inlineStr">
@@ -11772,7 +11772,7 @@
       <c r="H214" t="n">
         <v>23241092</v>
       </c>
-      <c r="I214" s="3" t="n">
+      <c r="I214" s="2" t="n">
         <v>45089</v>
       </c>
       <c r="J214" t="inlineStr">
@@ -11825,7 +11825,7 @@
       <c r="H215" t="n">
         <v>29928808</v>
       </c>
-      <c r="I215" s="3" t="n">
+      <c r="I215" s="2" t="n">
         <v>45090</v>
       </c>
       <c r="J215" t="inlineStr">
@@ -11878,7 +11878,7 @@
       <c r="H216" t="n">
         <v>66313424</v>
       </c>
-      <c r="I216" s="3" t="n">
+      <c r="I216" s="2" t="n">
         <v>45091</v>
       </c>
       <c r="J216" t="inlineStr">
@@ -11931,7 +11931,7 @@
       <c r="H217" t="n">
         <v>39239050</v>
       </c>
-      <c r="I217" s="3" t="n">
+      <c r="I217" s="2" t="n">
         <v>45092</v>
       </c>
       <c r="J217" t="inlineStr">
@@ -11984,7 +11984,7 @@
       <c r="H218" t="n">
         <v>31574248</v>
       </c>
-      <c r="I218" s="3" t="n">
+      <c r="I218" s="2" t="n">
         <v>45093</v>
       </c>
       <c r="J218" t="inlineStr">
@@ -12037,7 +12037,7 @@
       <c r="H219" t="n">
         <v>33209671</v>
       </c>
-      <c r="I219" s="3" t="n">
+      <c r="I219" s="2" t="n">
         <v>45096</v>
       </c>
       <c r="J219" t="inlineStr">
@@ -12090,7 +12090,7 @@
       <c r="H220" t="n">
         <v>30225529</v>
       </c>
-      <c r="I220" s="3" t="n">
+      <c r="I220" s="2" t="n">
         <v>45097</v>
       </c>
       <c r="J220" t="inlineStr">
@@ -12143,7 +12143,7 @@
       <c r="H221" t="n">
         <v>35458677</v>
       </c>
-      <c r="I221" s="3" t="n">
+      <c r="I221" s="2" t="n">
         <v>45098</v>
       </c>
       <c r="J221" t="inlineStr">
@@ -12196,7 +12196,7 @@
       <c r="H222" t="n">
         <v>34364997</v>
       </c>
-      <c r="I222" s="3" t="n">
+      <c r="I222" s="2" t="n">
         <v>45099</v>
       </c>
       <c r="J222" t="inlineStr">
@@ -12249,7 +12249,7 @@
       <c r="H223" t="n">
         <v>21937784</v>
       </c>
-      <c r="I223" s="3" t="n">
+      <c r="I223" s="2" t="n">
         <v>45100</v>
       </c>
       <c r="J223" t="inlineStr">
@@ -12302,7 +12302,7 @@
       <c r="H224" t="n">
         <v>25304289</v>
       </c>
-      <c r="I224" s="3" t="n">
+      <c r="I224" s="2" t="n">
         <v>45103</v>
       </c>
       <c r="J224" t="inlineStr">
@@ -12355,7 +12355,7 @@
       <c r="H225" t="n">
         <v>24027853</v>
       </c>
-      <c r="I225" s="3" t="n">
+      <c r="I225" s="2" t="n">
         <v>45104</v>
       </c>
       <c r="J225" t="inlineStr">
@@ -12408,7 +12408,7 @@
       <c r="H226" t="n">
         <v>23776014</v>
       </c>
-      <c r="I226" s="3" t="n">
+      <c r="I226" s="2" t="n">
         <v>45105</v>
       </c>
       <c r="J226" t="inlineStr">
@@ -12461,7 +12461,7 @@
       <c r="H227" t="n">
         <v>26579655</v>
       </c>
-      <c r="I227" s="3" t="n">
+      <c r="I227" s="2" t="n">
         <v>45107</v>
       </c>
       <c r="J227" t="inlineStr">
@@ -12514,7 +12514,7 @@
       <c r="H228" t="n">
         <v>30945645</v>
       </c>
-      <c r="I228" s="3" t="n">
+      <c r="I228" s="2" t="n">
         <v>45110</v>
       </c>
       <c r="J228" t="inlineStr">
@@ -12567,7 +12567,7 @@
       <c r="H229" t="n">
         <v>24989717</v>
       </c>
-      <c r="I229" s="3" t="n">
+      <c r="I229" s="2" t="n">
         <v>45111</v>
       </c>
       <c r="J229" t="inlineStr">
@@ -12620,7 +12620,7 @@
       <c r="H230" t="n">
         <v>27813255</v>
       </c>
-      <c r="I230" s="3" t="n">
+      <c r="I230" s="2" t="n">
         <v>45112</v>
       </c>
       <c r="J230" t="inlineStr">
@@ -12673,7 +12673,7 @@
       <c r="H231" t="n">
         <v>34080901</v>
       </c>
-      <c r="I231" s="3" t="n">
+      <c r="I231" s="2" t="n">
         <v>45113</v>
       </c>
       <c r="J231" t="inlineStr">
@@ -12726,7 +12726,7 @@
       <c r="H232" t="n">
         <v>29751070</v>
       </c>
-      <c r="I232" s="3" t="n">
+      <c r="I232" s="2" t="n">
         <v>45114</v>
       </c>
       <c r="J232" t="inlineStr">
@@ -12779,7 +12779,7 @@
       <c r="H233" t="n">
         <v>60537972</v>
       </c>
-      <c r="I233" s="3" t="n">
+      <c r="I233" s="2" t="n">
         <v>45117</v>
       </c>
       <c r="J233" t="inlineStr">
@@ -12832,7 +12832,7 @@
       <c r="H234" t="n">
         <v>37731607</v>
       </c>
-      <c r="I234" s="3" t="n">
+      <c r="I234" s="2" t="n">
         <v>45118</v>
       </c>
       <c r="J234" t="inlineStr">
@@ -12885,7 +12885,7 @@
       <c r="H235" t="n">
         <v>32656279</v>
       </c>
-      <c r="I235" s="3" t="n">
+      <c r="I235" s="2" t="n">
         <v>45119</v>
       </c>
       <c r="J235" t="inlineStr">
@@ -12938,7 +12938,7 @@
       <c r="H236" t="n">
         <v>44500139</v>
       </c>
-      <c r="I236" s="3" t="n">
+      <c r="I236" s="2" t="n">
         <v>45120</v>
       </c>
       <c r="J236" t="inlineStr">
@@ -12991,7 +12991,7 @@
       <c r="H237" t="n">
         <v>34374876</v>
       </c>
-      <c r="I237" s="3" t="n">
+      <c r="I237" s="2" t="n">
         <v>45121</v>
       </c>
       <c r="J237" t="inlineStr">
@@ -13044,7 +13044,7 @@
       <c r="H238" t="n">
         <v>48900285</v>
       </c>
-      <c r="I238" s="3" t="n">
+      <c r="I238" s="2" t="n">
         <v>45124</v>
       </c>
       <c r="J238" t="inlineStr">
@@ -13097,7 +13097,7 @@
       <c r="H239" t="n">
         <v>23282780</v>
       </c>
-      <c r="I239" s="3" t="n">
+      <c r="I239" s="2" t="n">
         <v>45125</v>
       </c>
       <c r="J239" t="inlineStr">
@@ -13150,7 +13150,7 @@
       <c r="H240" t="n">
         <v>17156299</v>
       </c>
-      <c r="I240" s="3" t="n">
+      <c r="I240" s="2" t="n">
         <v>45126</v>
       </c>
       <c r="J240" t="inlineStr">
@@ -13203,7 +13203,7 @@
       <c r="H241" t="n">
         <v>22249926</v>
       </c>
-      <c r="I241" s="3" t="n">
+      <c r="I241" s="2" t="n">
         <v>45127</v>
       </c>
       <c r="J241" t="inlineStr">
@@ -13256,7 +13256,7 @@
       <c r="H242" t="n">
         <v>31464880</v>
       </c>
-      <c r="I242" s="3" t="n">
+      <c r="I242" s="2" t="n">
         <v>45128</v>
       </c>
       <c r="J242" t="inlineStr">
@@ -13309,7 +13309,7 @@
       <c r="H243" t="n">
         <v>38004107</v>
       </c>
-      <c r="I243" s="3" t="n">
+      <c r="I243" s="2" t="n">
         <v>45131</v>
       </c>
       <c r="J243" t="inlineStr">
@@ -13362,7 +13362,7 @@
       <c r="H244" t="n">
         <v>88003199</v>
       </c>
-      <c r="I244" s="3" t="n">
+      <c r="I244" s="2" t="n">
         <v>45132</v>
       </c>
       <c r="J244" t="inlineStr">
@@ -13415,7 +13415,7 @@
       <c r="H245" t="n">
         <v>29545622</v>
       </c>
-      <c r="I245" s="3" t="n">
+      <c r="I245" s="2" t="n">
         <v>45133</v>
       </c>
       <c r="J245" t="inlineStr">
@@ -13468,7 +13468,7 @@
       <c r="H246" t="n">
         <v>39596686</v>
       </c>
-      <c r="I246" s="3" t="n">
+      <c r="I246" s="2" t="n">
         <v>45134</v>
       </c>
       <c r="J246" t="inlineStr">
@@ -13521,7 +13521,7 @@
       <c r="H247" t="n">
         <v>33914135</v>
       </c>
-      <c r="I247" s="3" t="n">
+      <c r="I247" s="2" t="n">
         <v>45135</v>
       </c>
       <c r="J247" t="inlineStr">
@@ -13574,7 +13574,7 @@
       <c r="H248" t="n">
         <v>52190800</v>
       </c>
-      <c r="I248" s="3" t="n">
+      <c r="I248" s="2" t="n">
         <v>45138</v>
       </c>
       <c r="J248" t="inlineStr">
@@ -13627,7 +13627,7 @@
       <c r="H249" t="n">
         <v>27839074</v>
       </c>
-      <c r="I249" s="3" t="n">
+      <c r="I249" s="2" t="n">
         <v>45139</v>
       </c>
       <c r="J249" t="inlineStr">
@@ -13680,7 +13680,7 @@
       <c r="H250" t="n">
         <v>54809330</v>
       </c>
-      <c r="I250" s="3" t="n">
+      <c r="I250" s="2" t="n">
         <v>45140</v>
       </c>
       <c r="J250" t="inlineStr">
@@ -13733,7 +13733,7 @@
       <c r="H251" t="n">
         <v>34496071</v>
       </c>
-      <c r="I251" s="3" t="n">
+      <c r="I251" s="2" t="n">
         <v>45141</v>
       </c>
       <c r="J251" t="inlineStr">
@@ -13786,7 +13786,7 @@
       <c r="H252" t="n">
         <v>22233795</v>
       </c>
-      <c r="I252" s="3" t="n">
+      <c r="I252" s="2" t="n">
         <v>45142</v>
       </c>
       <c r="J252" t="inlineStr">
@@ -13839,7 +13839,7 @@
       <c r="H253" t="n">
         <v>20629248</v>
       </c>
-      <c r="I253" s="3" t="n">
+      <c r="I253" s="2" t="n">
         <v>45145</v>
       </c>
       <c r="J253" t="inlineStr">
@@ -13892,7 +13892,7 @@
       <c r="H254" t="n">
         <v>21229767</v>
       </c>
-      <c r="I254" s="3" t="n">
+      <c r="I254" s="2" t="n">
         <v>45146</v>
       </c>
       <c r="J254" t="inlineStr">
@@ -13945,7 +13945,7 @@
       <c r="H255" t="n">
         <v>34098240</v>
       </c>
-      <c r="I255" s="3" t="n">
+      <c r="I255" s="2" t="n">
         <v>45147</v>
       </c>
       <c r="J255" t="inlineStr">
@@ -13998,7 +13998,7 @@
       <c r="H256" t="n">
         <v>24310488</v>
       </c>
-      <c r="I256" s="3" t="n">
+      <c r="I256" s="2" t="n">
         <v>45148</v>
       </c>
       <c r="J256" t="inlineStr">
@@ -14051,7 +14051,7 @@
       <c r="H257" t="n">
         <v>26278808</v>
       </c>
-      <c r="I257" s="3" t="n">
+      <c r="I257" s="2" t="n">
         <v>45149</v>
       </c>
       <c r="J257" t="inlineStr">
@@ -14104,7 +14104,7 @@
       <c r="H258" t="n">
         <v>32993734</v>
       </c>
-      <c r="I258" s="3" t="n">
+      <c r="I258" s="2" t="n">
         <v>45152</v>
       </c>
       <c r="J258" t="inlineStr">
@@ -14157,7 +14157,7 @@
       <c r="H259" t="n">
         <v>31126095</v>
       </c>
-      <c r="I259" s="3" t="n">
+      <c r="I259" s="2" t="n">
         <v>45154</v>
       </c>
       <c r="J259" t="inlineStr">
@@ -14210,7 +14210,7 @@
       <c r="H260" t="n">
         <v>28366404</v>
       </c>
-      <c r="I260" s="3" t="n">
+      <c r="I260" s="2" t="n">
         <v>45155</v>
       </c>
       <c r="J260" t="inlineStr">
@@ -14263,7 +14263,7 @@
       <c r="H261" t="n">
         <v>30321988</v>
       </c>
-      <c r="I261" s="3" t="n">
+      <c r="I261" s="2" t="n">
         <v>45156</v>
       </c>
       <c r="J261" t="inlineStr">
@@ -14316,7 +14316,7 @@
       <c r="H262" t="n">
         <v>22533758</v>
       </c>
-      <c r="I262" s="3" t="n">
+      <c r="I262" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="J262" t="inlineStr">
@@ -14369,7 +14369,7 @@
       <c r="H263" t="n">
         <v>17278683</v>
       </c>
-      <c r="I263" s="3" t="n">
+      <c r="I263" s="2" t="n">
         <v>45160</v>
       </c>
       <c r="J263" t="inlineStr">
@@ -14422,7 +14422,7 @@
       <c r="H264" t="n">
         <v>43653303</v>
       </c>
-      <c r="I264" s="3" t="n">
+      <c r="I264" s="2" t="n">
         <v>45161</v>
       </c>
       <c r="J264" t="inlineStr">
@@ -14475,7 +14475,7 @@
       <c r="H265" t="n">
         <v>27022343</v>
       </c>
-      <c r="I265" s="3" t="n">
+      <c r="I265" s="2" t="n">
         <v>45162</v>
       </c>
       <c r="J265" t="inlineStr">
@@ -14528,7 +14528,7 @@
       <c r="H266" t="n">
         <v>23597830</v>
       </c>
-      <c r="I266" s="3" t="n">
+      <c r="I266" s="2" t="n">
         <v>45163</v>
       </c>
       <c r="J266" t="inlineStr">
@@ -14581,7 +14581,7 @@
       <c r="H267" t="n">
         <v>19093958</v>
       </c>
-      <c r="I267" s="3" t="n">
+      <c r="I267" s="2" t="n">
         <v>45166</v>
       </c>
       <c r="J267" t="inlineStr">
@@ -14634,7 +14634,7 @@
       <c r="H268" t="n">
         <v>35933927</v>
       </c>
-      <c r="I268" s="3" t="n">
+      <c r="I268" s="2" t="n">
         <v>45167</v>
       </c>
       <c r="J268" t="inlineStr">
@@ -14687,7 +14687,7 @@
       <c r="H269" t="n">
         <v>51318717</v>
       </c>
-      <c r="I269" s="3" t="n">
+      <c r="I269" s="2" t="n">
         <v>45168</v>
       </c>
       <c r="J269" t="inlineStr">
@@ -14740,7 +14740,7 @@
       <c r="H270" t="n">
         <v>60293849</v>
       </c>
-      <c r="I270" s="3" t="n">
+      <c r="I270" s="2" t="n">
         <v>45169</v>
       </c>
       <c r="J270" t="inlineStr">
@@ -14793,7 +14793,7 @@
       <c r="H271" t="n">
         <v>76421310</v>
       </c>
-      <c r="I271" s="3" t="n">
+      <c r="I271" s="2" t="n">
         <v>45170</v>
       </c>
       <c r="J271" t="inlineStr">
@@ -14846,7 +14846,7 @@
       <c r="H272" t="n">
         <v>68197297</v>
       </c>
-      <c r="I272" s="3" t="n">
+      <c r="I272" s="2" t="n">
         <v>45173</v>
       </c>
       <c r="J272" t="inlineStr">
@@ -14899,7 +14899,7 @@
       <c r="H273" t="n">
         <v>36181040</v>
       </c>
-      <c r="I273" s="3" t="n">
+      <c r="I273" s="2" t="n">
         <v>45174</v>
       </c>
       <c r="J273" t="inlineStr">
@@ -14952,7 +14952,7 @@
       <c r="H274" t="n">
         <v>35902011</v>
       </c>
-      <c r="I274" s="3" t="n">
+      <c r="I274" s="2" t="n">
         <v>45175</v>
       </c>
       <c r="J274" t="inlineStr">
@@ -15005,7 +15005,7 @@
       <c r="H275" t="n">
         <v>30123965</v>
       </c>
-      <c r="I275" s="3" t="n">
+      <c r="I275" s="2" t="n">
         <v>45176</v>
       </c>
       <c r="J275" t="inlineStr">
@@ -15058,7 +15058,7 @@
       <c r="H276" t="n">
         <v>34168256</v>
       </c>
-      <c r="I276" s="3" t="n">
+      <c r="I276" s="2" t="n">
         <v>45177</v>
       </c>
       <c r="J276" t="inlineStr">
@@ -15111,7 +15111,7 @@
       <c r="H277" t="n">
         <v>33197078</v>
       </c>
-      <c r="I277" s="3" t="n">
+      <c r="I277" s="2" t="n">
         <v>45180</v>
       </c>
       <c r="J277" t="inlineStr">
@@ -15164,7 +15164,7 @@
       <c r="H278" t="n">
         <v>37784585</v>
       </c>
-      <c r="I278" s="3" t="n">
+      <c r="I278" s="2" t="n">
         <v>45181</v>
       </c>
       <c r="J278" t="inlineStr">
@@ -15217,7 +15217,7 @@
       <c r="H279" t="n">
         <v>23292251</v>
       </c>
-      <c r="I279" s="3" t="n">
+      <c r="I279" s="2" t="n">
         <v>45182</v>
       </c>
       <c r="J279" t="inlineStr">
@@ -15270,7 +15270,7 @@
       <c r="H280" t="n">
         <v>58648237</v>
       </c>
-      <c r="I280" s="3" t="n">
+      <c r="I280" s="2" t="n">
         <v>45183</v>
       </c>
       <c r="J280" t="inlineStr">
@@ -15323,7 +15323,7 @@
       <c r="H281" t="n">
         <v>84742126</v>
       </c>
-      <c r="I281" s="3" t="n">
+      <c r="I281" s="2" t="n">
         <v>45184</v>
       </c>
       <c r="J281" t="inlineStr">
@@ -15376,7 +15376,7 @@
       <c r="H282" t="n">
         <v>61117406</v>
       </c>
-      <c r="I282" s="3" t="n">
+      <c r="I282" s="2" t="n">
         <v>45187</v>
       </c>
       <c r="J282" t="inlineStr">
@@ -15429,7 +15429,7 @@
       <c r="H283" t="n">
         <v>43312816</v>
       </c>
-      <c r="I283" s="3" t="n">
+      <c r="I283" s="2" t="n">
         <v>45189</v>
       </c>
       <c r="J283" t="inlineStr">
@@ -15482,7 +15482,7 @@
       <c r="H284" t="n">
         <v>29576115</v>
       </c>
-      <c r="I284" s="3" t="n">
+      <c r="I284" s="2" t="n">
         <v>45190</v>
       </c>
       <c r="J284" t="inlineStr">
@@ -15535,7 +15535,7 @@
       <c r="H285" t="n">
         <v>33899777</v>
       </c>
-      <c r="I285" s="3" t="n">
+      <c r="I285" s="2" t="n">
         <v>45191</v>
       </c>
       <c r="J285" t="inlineStr">
@@ -15588,7 +15588,7 @@
       <c r="H286" t="n">
         <v>23457755</v>
       </c>
-      <c r="I286" s="3" t="n">
+      <c r="I286" s="2" t="n">
         <v>45194</v>
       </c>
       <c r="J286" t="inlineStr">
@@ -15641,7 +15641,7 @@
       <c r="H287" t="n">
         <v>48567274</v>
       </c>
-      <c r="I287" s="3" t="n">
+      <c r="I287" s="2" t="n">
         <v>45195</v>
       </c>
       <c r="J287" t="inlineStr">
@@ -15694,7 +15694,7 @@
       <c r="H288" t="n">
         <v>33079558</v>
       </c>
-      <c r="I288" s="3" t="n">
+      <c r="I288" s="2" t="n">
         <v>45196</v>
       </c>
       <c r="J288" t="inlineStr">
@@ -15747,7 +15747,7 @@
       <c r="H289" t="n">
         <v>29898375</v>
       </c>
-      <c r="I289" s="3" t="n">
+      <c r="I289" s="2" t="n">
         <v>45197</v>
       </c>
       <c r="J289" t="inlineStr">
@@ -15800,7 +15800,7 @@
       <c r="H290" t="n">
         <v>28296002</v>
       </c>
-      <c r="I290" s="3" t="n">
+      <c r="I290" s="2" t="n">
         <v>45198</v>
       </c>
       <c r="J290" t="inlineStr">
@@ -15853,7 +15853,7 @@
       <c r="H291" t="n">
         <v>18583947</v>
       </c>
-      <c r="I291" s="3" t="n">
+      <c r="I291" s="2" t="n">
         <v>45202</v>
       </c>
       <c r="J291" t="inlineStr">
@@ -15906,7 +15906,7 @@
       <c r="H292" t="n">
         <v>33114739</v>
       </c>
-      <c r="I292" s="3" t="n">
+      <c r="I292" s="2" t="n">
         <v>45203</v>
       </c>
       <c r="J292" t="inlineStr">
@@ -15959,7 +15959,7 @@
       <c r="H293" t="n">
         <v>26985154</v>
       </c>
-      <c r="I293" s="3" t="n">
+      <c r="I293" s="2" t="n">
         <v>45204</v>
       </c>
       <c r="J293" t="inlineStr">
@@ -16012,7 +16012,7 @@
       <c r="H294" t="n">
         <v>21729012</v>
       </c>
-      <c r="I294" s="3" t="n">
+      <c r="I294" s="2" t="n">
         <v>45205</v>
       </c>
       <c r="J294" t="inlineStr">
@@ -16065,7 +16065,7 @@
       <c r="H295" t="n">
         <v>21315813</v>
       </c>
-      <c r="I295" s="3" t="n">
+      <c r="I295" s="2" t="n">
         <v>45208</v>
       </c>
       <c r="J295" t="inlineStr">
@@ -16118,7 +16118,7 @@
       <c r="H296" t="n">
         <v>28590610</v>
       </c>
-      <c r="I296" s="3" t="n">
+      <c r="I296" s="2" t="n">
         <v>45209</v>
       </c>
       <c r="J296" t="inlineStr">
@@ -16171,7 +16171,7 @@
       <c r="H297" t="n">
         <v>24343576</v>
       </c>
-      <c r="I297" s="3" t="n">
+      <c r="I297" s="2" t="n">
         <v>45210</v>
       </c>
       <c r="J297" t="inlineStr">
@@ -16224,7 +16224,7 @@
       <c r="H298" t="n">
         <v>19293561</v>
       </c>
-      <c r="I298" s="3" t="n">
+      <c r="I298" s="2" t="n">
         <v>45211</v>
       </c>
       <c r="J298" t="inlineStr">
@@ -16277,7 +16277,7 @@
       <c r="H299" t="n">
         <v>26757682</v>
       </c>
-      <c r="I299" s="3" t="n">
+      <c r="I299" s="2" t="n">
         <v>45212</v>
       </c>
       <c r="J299" t="inlineStr">
@@ -16330,7 +16330,7 @@
       <c r="H300" t="n">
         <v>23755517</v>
       </c>
-      <c r="I300" s="3" t="n">
+      <c r="I300" s="2" t="n">
         <v>45215</v>
       </c>
       <c r="J300" t="inlineStr">
@@ -16383,7 +16383,7 @@
       <c r="H301" t="n">
         <v>24055993</v>
       </c>
-      <c r="I301" s="3" t="n">
+      <c r="I301" s="2" t="n">
         <v>45216</v>
       </c>
       <c r="J301" t="inlineStr">
@@ -16436,7 +16436,7 @@
       <c r="H302" t="n">
         <v>20863434</v>
       </c>
-      <c r="I302" s="3" t="n">
+      <c r="I302" s="2" t="n">
         <v>45217</v>
       </c>
       <c r="J302" t="inlineStr">
@@ -16489,7 +16489,7 @@
       <c r="H303" t="n">
         <v>30759146</v>
       </c>
-      <c r="I303" s="3" t="n">
+      <c r="I303" s="2" t="n">
         <v>45218</v>
       </c>
       <c r="J303" t="inlineStr">
@@ -16542,7 +16542,7 @@
       <c r="H304" t="n">
         <v>30644023</v>
       </c>
-      <c r="I304" s="3" t="n">
+      <c r="I304" s="2" t="n">
         <v>45219</v>
       </c>
       <c r="J304" t="inlineStr">
@@ -16595,7 +16595,7 @@
       <c r="H305" t="n">
         <v>30582507</v>
       </c>
-      <c r="I305" s="3" t="n">
+      <c r="I305" s="2" t="n">
         <v>45222</v>
       </c>
       <c r="J305" t="inlineStr">
@@ -16648,7 +16648,7 @@
       <c r="H306" t="n">
         <v>27193522</v>
       </c>
-      <c r="I306" s="3" t="n">
+      <c r="I306" s="2" t="n">
         <v>45224</v>
       </c>
       <c r="J306" t="inlineStr">
@@ -16701,7 +16701,7 @@
       <c r="H307" t="n">
         <v>36151620</v>
       </c>
-      <c r="I307" s="3" t="n">
+      <c r="I307" s="2" t="n">
         <v>45225</v>
       </c>
       <c r="J307" t="inlineStr">
@@ -16754,7 +16754,7 @@
       <c r="H308" t="n">
         <v>28366660</v>
       </c>
-      <c r="I308" s="3" t="n">
+      <c r="I308" s="2" t="n">
         <v>45226</v>
       </c>
       <c r="J308" t="inlineStr">
@@ -16807,7 +16807,7 @@
       <c r="H309" t="n">
         <v>18676185</v>
       </c>
-      <c r="I309" s="3" t="n">
+      <c r="I309" s="2" t="n">
         <v>45229</v>
       </c>
       <c r="J309" t="inlineStr">
@@ -16860,7 +16860,7 @@
       <c r="H310" t="n">
         <v>22241849</v>
       </c>
-      <c r="I310" s="3" t="n">
+      <c r="I310" s="2" t="n">
         <v>45230</v>
       </c>
       <c r="J310" t="inlineStr">
@@ -16913,7 +16913,7 @@
       <c r="H311" t="n">
         <v>24703970</v>
       </c>
-      <c r="I311" s="3" t="n">
+      <c r="I311" s="2" t="n">
         <v>45231</v>
       </c>
       <c r="J311" t="inlineStr">
@@ -16966,7 +16966,7 @@
       <c r="H312" t="n">
         <v>71662238</v>
       </c>
-      <c r="I312" s="3" t="n">
+      <c r="I312" s="2" t="n">
         <v>45232</v>
       </c>
       <c r="J312" t="inlineStr">
@@ -17019,7 +17019,7 @@
       <c r="H313" t="n">
         <v>31543590</v>
       </c>
-      <c r="I313" s="3" t="n">
+      <c r="I313" s="2" t="n">
         <v>45233</v>
       </c>
       <c r="J313" t="inlineStr">
@@ -17072,7 +17072,7 @@
       <c r="H314" t="n">
         <v>27692930</v>
       </c>
-      <c r="I314" s="3" t="n">
+      <c r="I314" s="2" t="n">
         <v>45236</v>
       </c>
       <c r="J314" t="inlineStr">
@@ -17125,7 +17125,7 @@
       <c r="H315" t="n">
         <v>25721966</v>
       </c>
-      <c r="I315" s="3" t="n">
+      <c r="I315" s="2" t="n">
         <v>45237</v>
       </c>
       <c r="J315" t="inlineStr">
@@ -17178,7 +17178,7 @@
       <c r="H316" t="n">
         <v>22458041</v>
       </c>
-      <c r="I316" s="3" t="n">
+      <c r="I316" s="2" t="n">
         <v>45238</v>
       </c>
       <c r="J316" t="inlineStr">
@@ -17231,7 +17231,7 @@
       <c r="H317" t="n">
         <v>22938515</v>
       </c>
-      <c r="I317" s="3" t="n">
+      <c r="I317" s="2" t="n">
         <v>45239</v>
       </c>
       <c r="J317" t="inlineStr">
@@ -17284,7 +17284,7 @@
       <c r="H318" t="n">
         <v>23529714</v>
       </c>
-      <c r="I318" s="3" t="n">
+      <c r="I318" s="2" t="n">
         <v>45240</v>
       </c>
       <c r="J318" t="inlineStr">
@@ -17337,7 +17337,7 @@
       <c r="H319" t="n">
         <v>3831854</v>
       </c>
-      <c r="I319" s="3" t="n">
+      <c r="I319" s="2" t="n">
         <v>45242</v>
       </c>
       <c r="J319" t="inlineStr">
@@ -17390,7 +17390,7 @@
       <c r="H320" t="n">
         <v>17913252</v>
       </c>
-      <c r="I320" s="3" t="n">
+      <c r="I320" s="2" t="n">
         <v>45243</v>
       </c>
       <c r="J320" t="inlineStr">
@@ -17443,7 +17443,7 @@
       <c r="H321" t="n">
         <v>38135769</v>
       </c>
-      <c r="I321" s="3" t="n">
+      <c r="I321" s="2" t="n">
         <v>45245</v>
       </c>
       <c r="J321" t="inlineStr">
@@ -17496,7 +17496,7 @@
       <c r="H322" t="n">
         <v>30738362</v>
       </c>
-      <c r="I322" s="3" t="n">
+      <c r="I322" s="2" t="n">
         <v>45246</v>
       </c>
       <c r="J322" t="inlineStr">
@@ -17549,7 +17549,7 @@
       <c r="H323" t="n">
         <v>23196349</v>
       </c>
-      <c r="I323" s="3" t="n">
+      <c r="I323" s="2" t="n">
         <v>45247</v>
       </c>
       <c r="J323" t="inlineStr">
@@ -17602,7 +17602,7 @@
       <c r="H324" t="n">
         <v>18672059</v>
       </c>
-      <c r="I324" s="3" t="n">
+      <c r="I324" s="2" t="n">
         <v>45250</v>
       </c>
       <c r="J324" t="inlineStr">
@@ -17655,7 +17655,7 @@
       <c r="H325" t="n">
         <v>29523247</v>
       </c>
-      <c r="I325" s="3" t="n">
+      <c r="I325" s="2" t="n">
         <v>45251</v>
       </c>
       <c r="J325" t="inlineStr">
@@ -17708,7 +17708,7 @@
       <c r="H326" t="n">
         <v>19540166</v>
       </c>
-      <c r="I326" s="3" t="n">
+      <c r="I326" s="2" t="n">
         <v>45252</v>
       </c>
       <c r="J326" t="inlineStr">
@@ -17761,7 +17761,7 @@
       <c r="H327" t="n">
         <v>30690938</v>
       </c>
-      <c r="I327" s="3" t="n">
+      <c r="I327" s="2" t="n">
         <v>45253</v>
       </c>
       <c r="J327" t="inlineStr">
@@ -17814,7 +17814,7 @@
       <c r="H328" t="n">
         <v>14686172</v>
       </c>
-      <c r="I328" s="3" t="n">
+      <c r="I328" s="2" t="n">
         <v>45254</v>
       </c>
       <c r="J328" t="inlineStr">
@@ -17867,7 +17867,7 @@
       <c r="H329" t="n">
         <v>18187576</v>
       </c>
-      <c r="I329" s="3" t="n">
+      <c r="I329" s="2" t="n">
         <v>45258</v>
       </c>
       <c r="J329" t="inlineStr">
@@ -17920,7 +17920,7 @@
       <c r="H330" t="n">
         <v>22971136</v>
       </c>
-      <c r="I330" s="3" t="n">
+      <c r="I330" s="2" t="n">
         <v>45259</v>
       </c>
       <c r="J330" t="inlineStr">
@@ -17973,7 +17973,7 @@
       <c r="H331" t="n">
         <v>40051145</v>
       </c>
-      <c r="I331" s="3" t="n">
+      <c r="I331" s="2" t="n">
         <v>45260</v>
       </c>
       <c r="J331" t="inlineStr">
@@ -18026,7 +18026,7 @@
       <c r="H332" t="n">
         <v>31181061</v>
       </c>
-      <c r="I332" s="3" t="n">
+      <c r="I332" s="2" t="n">
         <v>45261</v>
       </c>
       <c r="J332" t="inlineStr">
@@ -18079,7 +18079,7 @@
       <c r="H333" t="n">
         <v>40805841</v>
       </c>
-      <c r="I333" s="3" t="n">
+      <c r="I333" s="2" t="n">
         <v>45264</v>
       </c>
       <c r="J333" t="inlineStr">
@@ -18132,7 +18132,7 @@
       <c r="H334" t="n">
         <v>35003355</v>
       </c>
-      <c r="I334" s="3" t="n">
+      <c r="I334" s="2" t="n">
         <v>45265</v>
       </c>
       <c r="J334" t="inlineStr">
@@ -18185,7 +18185,7 @@
       <c r="H335" t="n">
         <v>40643123</v>
       </c>
-      <c r="I335" s="3" t="n">
+      <c r="I335" s="2" t="n">
         <v>45266</v>
       </c>
       <c r="J335" t="inlineStr">
@@ -18238,7 +18238,7 @@
       <c r="H336" t="n">
         <v>34575604</v>
       </c>
-      <c r="I336" s="3" t="n">
+      <c r="I336" s="2" t="n">
         <v>45267</v>
       </c>
       <c r="J336" t="inlineStr">
@@ -18291,7 +18291,7 @@
       <c r="H337" t="n">
         <v>34315285</v>
       </c>
-      <c r="I337" s="3" t="n">
+      <c r="I337" s="2" t="n">
         <v>45268</v>
       </c>
       <c r="J337" t="inlineStr">
@@ -18344,7 +18344,7 @@
       <c r="H338" t="n">
         <v>23928121</v>
       </c>
-      <c r="I338" s="3" t="n">
+      <c r="I338" s="2" t="n">
         <v>45271</v>
       </c>
       <c r="J338" t="inlineStr">
@@ -18397,7 +18397,7 @@
       <c r="H339" t="n">
         <v>30584937</v>
       </c>
-      <c r="I339" s="3" t="n">
+      <c r="I339" s="2" t="n">
         <v>45272</v>
       </c>
       <c r="J339" t="inlineStr">
@@ -18450,7 +18450,7 @@
       <c r="H340" t="n">
         <v>22650552</v>
       </c>
-      <c r="I340" s="3" t="n">
+      <c r="I340" s="2" t="n">
         <v>45273</v>
       </c>
       <c r="J340" t="inlineStr">
@@ -18503,7 +18503,7 @@
       <c r="H341" t="n">
         <v>43051860</v>
       </c>
-      <c r="I341" s="3" t="n">
+      <c r="I341" s="2" t="n">
         <v>45274</v>
       </c>
       <c r="J341" t="inlineStr">
@@ -18556,7 +18556,7 @@
       <c r="H342" t="n">
         <v>77129062</v>
       </c>
-      <c r="I342" s="3" t="n">
+      <c r="I342" s="2" t="n">
         <v>45275</v>
       </c>
       <c r="J342" t="inlineStr">
@@ -18609,7 +18609,7 @@
       <c r="H343" t="n">
         <v>38184202</v>
       </c>
-      <c r="I343" s="3" t="n">
+      <c r="I343" s="2" t="n">
         <v>45278</v>
       </c>
       <c r="J343" t="inlineStr">
@@ -18662,7 +18662,7 @@
       <c r="H344" t="n">
         <v>27636827</v>
       </c>
-      <c r="I344" s="3" t="n">
+      <c r="I344" s="2" t="n">
         <v>45279</v>
       </c>
       <c r="J344" t="inlineStr">
@@ -18715,7 +18715,7 @@
       <c r="H345" t="n">
         <v>39376114</v>
       </c>
-      <c r="I345" s="3" t="n">
+      <c r="I345" s="2" t="n">
         <v>45280</v>
       </c>
       <c r="J345" t="inlineStr">
@@ -18768,7 +18768,7 @@
       <c r="H346" t="n">
         <v>34768674</v>
       </c>
-      <c r="I346" s="3" t="n">
+      <c r="I346" s="2" t="n">
         <v>45281</v>
       </c>
       <c r="J346" t="inlineStr">
@@ -18821,7 +18821,7 @@
       <c r="H347" t="n">
         <v>37251376</v>
       </c>
-      <c r="I347" s="3" t="n">
+      <c r="I347" s="2" t="n">
         <v>45282</v>
       </c>
       <c r="J347" t="inlineStr">
@@ -18874,7 +18874,7 @@
       <c r="H348" t="n">
         <v>25735043</v>
       </c>
-      <c r="I348" s="3" t="n">
+      <c r="I348" s="2" t="n">
         <v>45286</v>
       </c>
       <c r="J348" t="inlineStr">
@@ -18927,7 +18927,7 @@
       <c r="H349" t="n">
         <v>47999669</v>
       </c>
-      <c r="I349" s="3" t="n">
+      <c r="I349" s="2" t="n">
         <v>45287</v>
       </c>
       <c r="J349" t="inlineStr">
@@ -18980,7 +18980,7 @@
       <c r="H350" t="n">
         <v>34558674</v>
       </c>
-      <c r="I350" s="3" t="n">
+      <c r="I350" s="2" t="n">
         <v>45288</v>
       </c>
       <c r="J350" t="inlineStr">
@@ -19033,7 +19033,7 @@
       <c r="H351" t="n">
         <v>45775838</v>
       </c>
-      <c r="I351" s="3" t="n">
+      <c r="I351" s="2" t="n">
         <v>45289</v>
       </c>
       <c r="J351" t="inlineStr">
@@ -19086,7 +19086,7 @@
       <c r="H352" t="n">
         <v>19475908</v>
       </c>
-      <c r="I352" s="3" t="n">
+      <c r="I352" s="2" t="n">
         <v>45292</v>
       </c>
       <c r="J352" t="inlineStr">
@@ -19139,7 +19139,7 @@
       <c r="H353" t="n">
         <v>27671204</v>
       </c>
-      <c r="I353" s="3" t="n">
+      <c r="I353" s="2" t="n">
         <v>45293</v>
       </c>
       <c r="J353" t="inlineStr">
@@ -19192,7 +19192,7 @@
       <c r="H354" t="n">
         <v>45062999</v>
       </c>
-      <c r="I354" s="3" t="n">
+      <c r="I354" s="2" t="n">
         <v>45294</v>
       </c>
       <c r="J354" t="inlineStr">
@@ -19245,7 +19245,7 @@
       <c r="H355" t="n">
         <v>43803623</v>
       </c>
-      <c r="I355" s="3" t="n">
+      <c r="I355" s="2" t="n">
         <v>45295</v>
       </c>
       <c r="J355" t="inlineStr">
@@ -19298,7 +19298,7 @@
       <c r="H356" t="n">
         <v>68689100</v>
       </c>
-      <c r="I356" s="3" t="n">
+      <c r="I356" s="2" t="n">
         <v>45296</v>
       </c>
       <c r="J356" t="inlineStr">
@@ -19351,7 +19351,7 @@
       <c r="H357" t="n">
         <v>39193488</v>
       </c>
-      <c r="I357" s="3" t="n">
+      <c r="I357" s="2" t="n">
         <v>45299</v>
       </c>
       <c r="J357" t="inlineStr">
@@ -19404,7 +19404,7 @@
       <c r="H358" t="n">
         <v>30626140</v>
       </c>
-      <c r="I358" s="3" t="n">
+      <c r="I358" s="2" t="n">
         <v>45300</v>
       </c>
       <c r="J358" t="inlineStr">
@@ -19457,7 +19457,7 @@
       <c r="H359" t="n">
         <v>27044412</v>
       </c>
-      <c r="I359" s="3" t="n">
+      <c r="I359" s="2" t="n">
         <v>45301</v>
       </c>
       <c r="J359" t="inlineStr">
@@ -19510,7 +19510,7 @@
       <c r="H360" t="n">
         <v>22984105</v>
       </c>
-      <c r="I360" s="3" t="n">
+      <c r="I360" s="2" t="n">
         <v>45302</v>
       </c>
       <c r="J360" t="inlineStr">
@@ -19563,7 +19563,7 @@
       <c r="H361" t="n">
         <v>32779345</v>
       </c>
-      <c r="I361" s="3" t="n">
+      <c r="I361" s="2" t="n">
         <v>45303</v>
       </c>
       <c r="J361" t="inlineStr">
@@ -19616,7 +19616,7 @@
       <c r="H362" t="n">
         <v>34051691</v>
       </c>
-      <c r="I362" s="3" t="n">
+      <c r="I362" s="2" t="n">
         <v>45306</v>
       </c>
       <c r="J362" t="inlineStr">
@@ -19669,7 +19669,7 @@
       <c r="H363" t="n">
         <v>56229347</v>
       </c>
-      <c r="I363" s="3" t="n">
+      <c r="I363" s="2" t="n">
         <v>45307</v>
       </c>
       <c r="J363" t="inlineStr">
@@ -19722,7 +19722,7 @@
       <c r="H364" t="n">
         <v>58688951</v>
       </c>
-      <c r="I364" s="3" t="n">
+      <c r="I364" s="2" t="n">
         <v>45308</v>
       </c>
       <c r="J364" t="inlineStr">
@@ -19775,7 +19775,7 @@
       <c r="H365" t="n">
         <v>45062198</v>
       </c>
-      <c r="I365" s="3" t="n">
+      <c r="I365" s="2" t="n">
         <v>45309</v>
       </c>
       <c r="J365" t="inlineStr">
@@ -19828,7 +19828,7 @@
       <c r="H366" t="n">
         <v>32512399</v>
       </c>
-      <c r="I366" s="3" t="n">
+      <c r="I366" s="2" t="n">
         <v>45310</v>
       </c>
       <c r="J366" t="inlineStr">
@@ -19881,7 +19881,7 @@
       <c r="H367" t="n">
         <v>16465193</v>
       </c>
-      <c r="I367" s="3" t="n">
+      <c r="I367" s="2" t="n">
         <v>45311</v>
       </c>
       <c r="J367" t="inlineStr">
@@ -19934,7 +19934,7 @@
       <c r="H368" t="n">
         <v>35251466</v>
       </c>
-      <c r="I368" s="3" t="n">
+      <c r="I368" s="2" t="n">
         <v>45314</v>
       </c>
       <c r="J368" t="inlineStr">
@@ -19987,7 +19987,7 @@
       <c r="H369" t="n">
         <v>39215604</v>
       </c>
-      <c r="I369" s="3" t="n">
+      <c r="I369" s="2" t="n">
         <v>45315</v>
       </c>
       <c r="J369" t="inlineStr">
@@ -20040,7 +20040,7 @@
       <c r="H370" t="n">
         <v>60837955</v>
       </c>
-      <c r="I370" s="3" t="n">
+      <c r="I370" s="2" t="n">
         <v>45316</v>
       </c>
       <c r="J370" t="inlineStr">
@@ -20093,7 +20093,7 @@
       <c r="H371" t="n">
         <v>29568477</v>
       </c>
-      <c r="I371" s="3" t="n">
+      <c r="I371" s="2" t="n">
         <v>45320</v>
       </c>
       <c r="J371" t="inlineStr">
@@ -20146,7 +20146,7 @@
       <c r="H372" t="n">
         <v>35637405</v>
       </c>
-      <c r="I372" s="3" t="n">
+      <c r="I372" s="2" t="n">
         <v>45321</v>
       </c>
       <c r="J372" t="inlineStr">
@@ -20199,7 +20199,7 @@
       <c r="H373" t="n">
         <v>35963253</v>
       </c>
-      <c r="I373" s="3" t="n">
+      <c r="I373" s="2" t="n">
         <v>45322</v>
       </c>
       <c r="J373" t="inlineStr">
@@ -20252,7 +20252,7 @@
       <c r="H374" t="n">
         <v>31677165</v>
       </c>
-      <c r="I374" s="3" t="n">
+      <c r="I374" s="2" t="n">
         <v>45323</v>
       </c>
       <c r="J374" t="inlineStr">
@@ -20305,7 +20305,7 @@
       <c r="H375" t="n">
         <v>69161844</v>
       </c>
-      <c r="I375" s="3" t="n">
+      <c r="I375" s="2" t="n">
         <v>45324</v>
       </c>
       <c r="J375" t="inlineStr">
@@ -20358,7 +20358,7 @@
       <c r="H376" t="n">
         <v>80398453</v>
       </c>
-      <c r="I376" s="3" t="n">
+      <c r="I376" s="2" t="n">
         <v>45327</v>
       </c>
       <c r="J376" t="inlineStr">
@@ -20411,7 +20411,7 @@
       <c r="H377" t="n">
         <v>52909144</v>
       </c>
-      <c r="I377" s="3" t="n">
+      <c r="I377" s="2" t="n">
         <v>45328</v>
       </c>
       <c r="J377" t="inlineStr">
@@ -20464,7 +20464,7 @@
       <c r="H378" t="n">
         <v>60952133</v>
       </c>
-      <c r="I378" s="3" t="n">
+      <c r="I378" s="2" t="n">
         <v>45329</v>
       </c>
       <c r="J378" t="inlineStr">
@@ -20517,7 +20517,7 @@
       <c r="H379" t="n">
         <v>38837189</v>
       </c>
-      <c r="I379" s="3" t="n">
+      <c r="I379" s="2" t="n">
         <v>45330</v>
       </c>
       <c r="J379" t="inlineStr">
@@ -20570,7 +20570,7 @@
       <c r="H380" t="n">
         <v>35846387</v>
       </c>
-      <c r="I380" s="3" t="n">
+      <c r="I380" s="2" t="n">
         <v>45331</v>
       </c>
       <c r="J380" t="inlineStr">
@@ -20623,7 +20623,7 @@
       <c r="H381" t="n">
         <v>36381149</v>
       </c>
-      <c r="I381" s="3" t="n">
+      <c r="I381" s="2" t="n">
         <v>45334</v>
       </c>
       <c r="J381" t="inlineStr">
@@ -20676,7 +20676,7 @@
       <c r="H382" t="n">
         <v>39066087</v>
       </c>
-      <c r="I382" s="3" t="n">
+      <c r="I382" s="2" t="n">
         <v>45335</v>
       </c>
       <c r="J382" t="inlineStr">
@@ -20729,7 +20729,7 @@
       <c r="H383" t="n">
         <v>28982650</v>
       </c>
-      <c r="I383" s="3" t="n">
+      <c r="I383" s="2" t="n">
         <v>45336</v>
       </c>
       <c r="J383" t="inlineStr">
@@ -20782,7 +20782,7 @@
       <c r="H384" t="n">
         <v>31467001</v>
       </c>
-      <c r="I384" s="3" t="n">
+      <c r="I384" s="2" t="n">
         <v>45337</v>
       </c>
       <c r="J384" t="inlineStr">
@@ -20835,7 +20835,7 @@
       <c r="H385" t="n">
         <v>22226506</v>
       </c>
-      <c r="I385" s="3" t="n">
+      <c r="I385" s="2" t="n">
         <v>45338</v>
       </c>
       <c r="J385" t="inlineStr">
@@ -20888,7 +20888,7 @@
       <c r="H386" t="n">
         <v>16860307</v>
       </c>
-      <c r="I386" s="3" t="n">
+      <c r="I386" s="2" t="n">
         <v>45341</v>
       </c>
       <c r="J386" t="inlineStr">
@@ -20941,7 +20941,7 @@
       <c r="H387" t="n">
         <v>24209841</v>
       </c>
-      <c r="I387" s="3" t="n">
+      <c r="I387" s="2" t="n">
         <v>45342</v>
       </c>
       <c r="J387" t="inlineStr">
@@ -20994,7 +20994,7 @@
       <c r="H388" t="n">
         <v>87923874</v>
       </c>
-      <c r="I388" s="3" t="n">
+      <c r="I388" s="2" t="n">
         <v>45343</v>
       </c>
       <c r="J388" t="inlineStr">
@@ -21047,7 +21047,7 @@
       <c r="H389" t="n">
         <v>46490646</v>
       </c>
-      <c r="I389" s="3" t="n">
+      <c r="I389" s="2" t="n">
         <v>45344</v>
       </c>
       <c r="J389" t="inlineStr">
@@ -21100,7 +21100,7 @@
       <c r="H390" t="n">
         <v>28315507</v>
       </c>
-      <c r="I390" s="3" t="n">
+      <c r="I390" s="2" t="n">
         <v>45345</v>
       </c>
       <c r="J390" t="inlineStr">
@@ -21153,7 +21153,7 @@
       <c r="H391" t="n">
         <v>22474507</v>
       </c>
-      <c r="I391" s="3" t="n">
+      <c r="I391" s="2" t="n">
         <v>45348</v>
       </c>
       <c r="J391" t="inlineStr">
@@ -21206,7 +21206,7 @@
       <c r="H392" t="n">
         <v>24001838</v>
       </c>
-      <c r="I392" s="3" t="n">
+      <c r="I392" s="2" t="n">
         <v>45349</v>
       </c>
       <c r="J392" t="inlineStr">
@@ -21259,7 +21259,7 @@
       <c r="H393" t="n">
         <v>20620002</v>
       </c>
-      <c r="I393" s="3" t="n">
+      <c r="I393" s="2" t="n">
         <v>45350</v>
       </c>
       <c r="J393" t="inlineStr">
@@ -21312,7 +21312,7 @@
       <c r="H394" t="n">
         <v>31955514</v>
       </c>
-      <c r="I394" s="3" t="n">
+      <c r="I394" s="2" t="n">
         <v>45351</v>
       </c>
       <c r="J394" t="inlineStr">
@@ -21365,7 +21365,7 @@
       <c r="H395" t="n">
         <v>123671359</v>
       </c>
-      <c r="I395" s="3" t="n">
+      <c r="I395" s="2" t="n">
         <v>45352</v>
       </c>
       <c r="J395" t="inlineStr">
@@ -21418,7 +21418,7 @@
       <c r="H396" t="n">
         <v>21280564</v>
       </c>
-      <c r="I396" s="3" t="n">
+      <c r="I396" s="2" t="n">
         <v>45353</v>
       </c>
       <c r="J396" t="inlineStr">
@@ -21471,7 +21471,7 @@
       <c r="H397" t="n">
         <v>66824243</v>
       </c>
-      <c r="I397" s="3" t="n">
+      <c r="I397" s="2" t="n">
         <v>45355</v>
       </c>
       <c r="J397" t="inlineStr">
@@ -21524,7 +21524,7 @@
       <c r="H398" t="n">
         <v>37007584</v>
       </c>
-      <c r="I398" s="3" t="n">
+      <c r="I398" s="2" t="n">
         <v>45356</v>
       </c>
       <c r="J398" t="inlineStr">
@@ -21577,7 +21577,7 @@
       <c r="H399" t="n">
         <v>51586221</v>
       </c>
-      <c r="I399" s="3" t="n">
+      <c r="I399" s="2" t="n">
         <v>45357</v>
       </c>
       <c r="J399" t="inlineStr">
@@ -21630,7 +21630,7 @@
       <c r="H400" t="n">
         <v>124646206</v>
       </c>
-      <c r="I400" s="3" t="n">
+      <c r="I400" s="2" t="n">
         <v>45358</v>
       </c>
       <c r="J400" t="inlineStr">
@@ -21683,7 +21683,7 @@
       <c r="H401" t="n">
         <v>54021372</v>
       </c>
-      <c r="I401" s="3" t="n">
+      <c r="I401" s="2" t="n">
         <v>45362</v>
       </c>
       <c r="J401" t="inlineStr">
@@ -21736,7 +21736,7 @@
       <c r="H402" t="n">
         <v>34805553</v>
       </c>
-      <c r="I402" s="3" t="n">
+      <c r="I402" s="2" t="n">
         <v>45363</v>
       </c>
       <c r="J402" t="inlineStr">
@@ -21789,7 +21789,7 @@
       <c r="H403" t="n">
         <v>70845949</v>
       </c>
-      <c r="I403" s="3" t="n">
+      <c r="I403" s="2" t="n">
         <v>45364</v>
       </c>
       <c r="J403" t="inlineStr">
@@ -21842,7 +21842,7 @@
       <c r="H404" t="n">
         <v>91693749</v>
       </c>
-      <c r="I404" s="3" t="n">
+      <c r="I404" s="2" t="n">
         <v>45365</v>
       </c>
       <c r="J404" t="inlineStr">
@@ -21895,7 +21895,7 @@
       <c r="H405" t="n">
         <v>68211745</v>
       </c>
-      <c r="I405" s="3" t="n">
+      <c r="I405" s="2" t="n">
         <v>45366</v>
       </c>
       <c r="J405" t="inlineStr">
@@ -21948,7 +21948,7 @@
       <c r="H406" t="n">
         <v>166748034</v>
       </c>
-      <c r="I406" s="3" t="n">
+      <c r="I406" s="2" t="n">
         <v>45369</v>
       </c>
       <c r="J406" t="inlineStr">
@@ -22001,7 +22001,7 @@
       <c r="H407" t="n">
         <v>104581928</v>
       </c>
-      <c r="I407" s="3" t="n">
+      <c r="I407" s="2" t="n">
         <v>45370</v>
       </c>
       <c r="J407" t="inlineStr">
@@ -22054,7 +22054,7 @@
       <c r="H408" t="n">
         <v>77311292</v>
       </c>
-      <c r="I408" s="3" t="n">
+      <c r="I408" s="2" t="n">
         <v>45371</v>
       </c>
       <c r="J408" t="inlineStr">
@@ -22107,7 +22107,7 @@
       <c r="H409" t="n">
         <v>83976621</v>
       </c>
-      <c r="I409" s="3" t="n">
+      <c r="I409" s="2" t="n">
         <v>45372</v>
       </c>
       <c r="J409" t="inlineStr">
@@ -22160,7 +22160,7 @@
       <c r="H410" t="n">
         <v>68046588</v>
       </c>
-      <c r="I410" s="3" t="n">
+      <c r="I410" s="2" t="n">
         <v>45373</v>
       </c>
       <c r="J410" t="inlineStr">
@@ -22213,7 +22213,7 @@
       <c r="H411" t="n">
         <v>52503620</v>
       </c>
-      <c r="I411" s="3" t="n">
+      <c r="I411" s="2" t="n">
         <v>45377</v>
       </c>
       <c r="J411" t="inlineStr">
@@ -22266,7 +22266,7 @@
       <c r="H412" t="n">
         <v>35229399</v>
       </c>
-      <c r="I412" s="3" t="n">
+      <c r="I412" s="2" t="n">
         <v>45378</v>
       </c>
       <c r="J412" t="inlineStr">
@@ -22319,7 +22319,7 @@
       <c r="H413" t="n">
         <v>62321018</v>
       </c>
-      <c r="I413" s="3" t="n">
+      <c r="I413" s="2" t="n">
         <v>45379</v>
       </c>
       <c r="J413" t="inlineStr">
@@ -22372,7 +22372,7 @@
       <c r="H414" t="n">
         <v>84539457</v>
       </c>
-      <c r="I414" s="3" t="n">
+      <c r="I414" s="2" t="n">
         <v>45383</v>
       </c>
       <c r="J414" t="inlineStr">
@@ -22425,7 +22425,7 @@
       <c r="H415" t="n">
         <v>69207522</v>
       </c>
-      <c r="I415" s="3" t="n">
+      <c r="I415" s="2" t="n">
         <v>45384</v>
       </c>
       <c r="J415" t="inlineStr">
@@ -22478,7 +22478,7 @@
       <c r="H416" t="n">
         <v>50670289</v>
       </c>
-      <c r="I416" s="3" t="n">
+      <c r="I416" s="2" t="n">
         <v>45385</v>
       </c>
       <c r="J416" t="inlineStr">
@@ -22531,7 +22531,7 @@
       <c r="H417" t="n">
         <v>60891796</v>
       </c>
-      <c r="I417" s="3" t="n">
+      <c r="I417" s="2" t="n">
         <v>45386</v>
       </c>
       <c r="J417" t="inlineStr">
@@ -22584,7 +22584,7 @@
       <c r="H418" t="n">
         <v>44483950</v>
       </c>
-      <c r="I418" s="3" t="n">
+      <c r="I418" s="2" t="n">
         <v>45387</v>
       </c>
       <c r="J418" t="inlineStr">
@@ -22637,7 +22637,7 @@
       <c r="H419" t="n">
         <v>47748522</v>
       </c>
-      <c r="I419" s="3" t="n">
+      <c r="I419" s="2" t="n">
         <v>45390</v>
       </c>
       <c r="J419" t="inlineStr">
@@ -22690,7 +22690,7 @@
       <c r="H420" t="n">
         <v>63660617</v>
       </c>
-      <c r="I420" s="3" t="n">
+      <c r="I420" s="2" t="n">
         <v>45391</v>
       </c>
       <c r="J420" t="inlineStr">
@@ -22743,7 +22743,7 @@
       <c r="H421" t="n">
         <v>63760008</v>
       </c>
-      <c r="I421" s="3" t="n">
+      <c r="I421" s="2" t="n">
         <v>45392</v>
       </c>
       <c r="J421" t="inlineStr">
@@ -22796,7 +22796,7 @@
       <c r="H422" t="n">
         <v>55008486</v>
       </c>
-      <c r="I422" s="3" t="n">
+      <c r="I422" s="2" t="n">
         <v>45394</v>
       </c>
       <c r="J422" t="inlineStr">
@@ -22849,7 +22849,7 @@
       <c r="H423" t="n">
         <v>66080143</v>
       </c>
-      <c r="I423" s="3" t="n">
+      <c r="I423" s="2" t="n">
         <v>45397</v>
       </c>
       <c r="J423" t="inlineStr">
@@ -22902,7 +22902,7 @@
       <c r="H424" t="n">
         <v>41141156</v>
       </c>
-      <c r="I424" s="3" t="n">
+      <c r="I424" s="2" t="n">
         <v>45398</v>
       </c>
       <c r="J424" t="inlineStr">
@@ -22955,7 +22955,7 @@
       <c r="H425" t="n">
         <v>65468311</v>
       </c>
-      <c r="I425" s="3" t="n">
+      <c r="I425" s="2" t="n">
         <v>45400</v>
       </c>
       <c r="J425" t="inlineStr">
@@ -23008,7 +23008,7 @@
       <c r="H426" t="n">
         <v>50763561</v>
       </c>
-      <c r="I426" s="3" t="n">
+      <c r="I426" s="2" t="n">
         <v>45401</v>
       </c>
       <c r="J426" t="inlineStr">
@@ -23061,7 +23061,7 @@
       <c r="H427" t="n">
         <v>39050020</v>
       </c>
-      <c r="I427" s="3" t="n">
+      <c r="I427" s="2" t="n">
         <v>45404</v>
       </c>
       <c r="J427" t="inlineStr">
@@ -23114,7 +23114,7 @@
       <c r="H428" t="n">
         <v>30078206</v>
       </c>
-      <c r="I428" s="3" t="n">
+      <c r="I428" s="2" t="n">
         <v>45405</v>
       </c>
       <c r="J428" t="inlineStr">
@@ -23167,7 +23167,7 @@
       <c r="H429" t="n">
         <v>59516674</v>
       </c>
-      <c r="I429" s="3" t="n">
+      <c r="I429" s="2" t="n">
         <v>45406</v>
       </c>
       <c r="J429" t="inlineStr">
@@ -23220,7 +23220,7 @@
       <c r="H430" t="n">
         <v>49937642</v>
       </c>
-      <c r="I430" s="3" t="n">
+      <c r="I430" s="2" t="n">
         <v>45407</v>
       </c>
       <c r="J430" t="inlineStr">
@@ -23273,7 +23273,7 @@
       <c r="H431" t="n">
         <v>65028134</v>
       </c>
-      <c r="I431" s="3" t="n">
+      <c r="I431" s="2" t="n">
         <v>45408</v>
       </c>
       <c r="J431" t="inlineStr">
@@ -23326,7 +23326,7 @@
       <c r="H432" t="n">
         <v>44594747</v>
       </c>
-      <c r="I432" s="3" t="n">
+      <c r="I432" s="2" t="n">
         <v>45411</v>
       </c>
       <c r="J432" t="inlineStr">
@@ -23379,7 +23379,7 @@
       <c r="H433" t="n">
         <v>54896524</v>
       </c>
-      <c r="I433" s="3" t="n">
+      <c r="I433" s="2" t="n">
         <v>45412</v>
       </c>
       <c r="J433" t="inlineStr">
@@ -23432,7 +23432,7 @@
       <c r="H434" t="n">
         <v>69299864</v>
       </c>
-      <c r="I434" s="3" t="n">
+      <c r="I434" s="2" t="n">
         <v>45414</v>
       </c>
       <c r="J434" t="inlineStr">
@@ -23485,7 +23485,7 @@
       <c r="H435" t="n">
         <v>62380126</v>
       </c>
-      <c r="I435" s="3" t="n">
+      <c r="I435" s="2" t="n">
         <v>45415</v>
       </c>
       <c r="J435" t="inlineStr">
@@ -23538,7 +23538,7 @@
       <c r="H436" t="n">
         <v>37430796</v>
       </c>
-      <c r="I436" s="3" t="n">
+      <c r="I436" s="2" t="n">
         <v>45418</v>
       </c>
       <c r="J436" t="inlineStr">
@@ -23591,7 +23591,7 @@
       <c r="H437" t="n">
         <v>43491503</v>
       </c>
-      <c r="I437" s="3" t="n">
+      <c r="I437" s="2" t="n">
         <v>45419</v>
       </c>
       <c r="J437" t="inlineStr">
@@ -23644,7 +23644,7 @@
       <c r="H438" t="n">
         <v>30034748</v>
       </c>
-      <c r="I438" s="3" t="n">
+      <c r="I438" s="2" t="n">
         <v>45420</v>
       </c>
       <c r="J438" t="inlineStr">
@@ -23697,7 +23697,7 @@
       <c r="H439" t="n">
         <v>30119485</v>
       </c>
-      <c r="I439" s="3" t="n">
+      <c r="I439" s="2" t="n">
         <v>45421</v>
       </c>
       <c r="J439" t="inlineStr">
@@ -23750,7 +23750,7 @@
       <c r="H440" t="n">
         <v>31347870</v>
       </c>
-      <c r="I440" s="3" t="n">
+      <c r="I440" s="2" t="n">
         <v>45422</v>
       </c>
       <c r="J440" t="inlineStr">
@@ -23803,7 +23803,7 @@
       <c r="H441" t="n">
         <v>36471352</v>
       </c>
-      <c r="I441" s="3" t="n">
+      <c r="I441" s="2" t="n">
         <v>45425</v>
       </c>
       <c r="J441" t="inlineStr">
@@ -23856,7 +23856,7 @@
       <c r="H442" t="n">
         <v>46139896</v>
       </c>
-      <c r="I442" s="3" t="n">
+      <c r="I442" s="2" t="n">
         <v>45426</v>
       </c>
       <c r="J442" t="inlineStr">
@@ -23909,7 +23909,7 @@
       <c r="H443" t="n">
         <v>29455286</v>
       </c>
-      <c r="I443" s="3" t="n">
+      <c r="I443" s="2" t="n">
         <v>45427</v>
       </c>
       <c r="J443" t="inlineStr">
@@ -23962,7 +23962,7 @@
       <c r="H444" t="n">
         <v>40975444</v>
       </c>
-      <c r="I444" s="3" t="n">
+      <c r="I444" s="2" t="n">
         <v>45428</v>
       </c>
       <c r="J444" t="inlineStr">
@@ -24015,7 +24015,7 @@
       <c r="H445" t="n">
         <v>39101049</v>
       </c>
-      <c r="I445" s="3" t="n">
+      <c r="I445" s="2" t="n">
         <v>45429</v>
       </c>
       <c r="J445" t="inlineStr">
@@ -24068,7 +24068,7 @@
       <c r="H446" t="n">
         <v>3552029</v>
       </c>
-      <c r="I446" s="3" t="n">
+      <c r="I446" s="2" t="n">
         <v>45430</v>
       </c>
       <c r="J446" t="inlineStr">
@@ -24121,7 +24121,7 @@
       <c r="H447" t="n">
         <v>84637264</v>
       </c>
-      <c r="I447" s="3" t="n">
+      <c r="I447" s="2" t="n">
         <v>45433</v>
       </c>
       <c r="J447" t="inlineStr">
@@ -24174,7 +24174,7 @@
       <c r="H448" t="n">
         <v>42607665</v>
       </c>
-      <c r="I448" s="3" t="n">
+      <c r="I448" s="2" t="n">
         <v>45434</v>
       </c>
       <c r="J448" t="inlineStr">
@@ -24227,7 +24227,7 @@
       <c r="H449" t="n">
         <v>49196822</v>
       </c>
-      <c r="I449" s="3" t="n">
+      <c r="I449" s="2" t="n">
         <v>45435</v>
       </c>
       <c r="J449" t="inlineStr">
@@ -24280,7 +24280,7 @@
       <c r="H450" t="n">
         <v>38497396</v>
       </c>
-      <c r="I450" s="3" t="n">
+      <c r="I450" s="2" t="n">
         <v>45436</v>
       </c>
       <c r="J450" t="inlineStr">
@@ -24333,7 +24333,7 @@
       <c r="H451" t="n">
         <v>29956666</v>
       </c>
-      <c r="I451" s="3" t="n">
+      <c r="I451" s="2" t="n">
         <v>45439</v>
       </c>
       <c r="J451" t="inlineStr">
@@ -24386,7 +24386,7 @@
       <c r="H452" t="n">
         <v>39109208</v>
       </c>
-      <c r="I452" s="3" t="n">
+      <c r="I452" s="2" t="n">
         <v>45440</v>
       </c>
       <c r="J452" t="inlineStr">
@@ -24439,7 +24439,7 @@
       <c r="H453" t="n">
         <v>36418457</v>
       </c>
-      <c r="I453" s="3" t="n">
+      <c r="I453" s="2" t="n">
         <v>45441</v>
       </c>
       <c r="J453" t="inlineStr">
@@ -24492,7 +24492,7 @@
       <c r="H454" t="n">
         <v>108212615</v>
       </c>
-      <c r="I454" s="3" t="n">
+      <c r="I454" s="2" t="n">
         <v>45442</v>
       </c>
       <c r="J454" t="inlineStr">
@@ -24545,7 +24545,7 @@
       <c r="H455" t="n">
         <v>83378048</v>
       </c>
-      <c r="I455" s="3" t="n">
+      <c r="I455" s="2" t="n">
         <v>45443</v>
       </c>
       <c r="J455" t="inlineStr">
@@ -24598,7 +24598,7 @@
       <c r="H456" t="n">
         <v>85981619</v>
       </c>
-      <c r="I456" s="3" t="n">
+      <c r="I456" s="2" t="n">
         <v>45446</v>
       </c>
       <c r="J456" t="inlineStr">
@@ -24651,7 +24651,7 @@
       <c r="H457" t="n">
         <v>124609337</v>
       </c>
-      <c r="I457" s="3" t="n">
+      <c r="I457" s="2" t="n">
         <v>45447</v>
       </c>
       <c r="J457" t="inlineStr">
@@ -24704,7 +24704,7 @@
       <c r="H458" t="n">
         <v>59905145</v>
       </c>
-      <c r="I458" s="3" t="n">
+      <c r="I458" s="2" t="n">
         <v>45448</v>
       </c>
       <c r="J458" t="inlineStr">
@@ -24757,7 +24757,7 @@
       <c r="H459" t="n">
         <v>57612137</v>
       </c>
-      <c r="I459" s="3" t="n">
+      <c r="I459" s="2" t="n">
         <v>45449</v>
       </c>
       <c r="J459" t="inlineStr">
@@ -24810,7 +24810,7 @@
       <c r="H460" t="n">
         <v>84181120</v>
       </c>
-      <c r="I460" s="3" t="n">
+      <c r="I460" s="2" t="n">
         <v>45450</v>
       </c>
       <c r="J460" t="inlineStr">
@@ -24863,7 +24863,7 @@
       <c r="H461" t="n">
         <v>73959777</v>
       </c>
-      <c r="I461" s="3" t="n">
+      <c r="I461" s="2" t="n">
         <v>45453</v>
       </c>
       <c r="J461" t="inlineStr">
@@ -24916,7 +24916,7 @@
       <c r="H462" t="n">
         <v>55441539</v>
       </c>
-      <c r="I462" s="3" t="n">
+      <c r="I462" s="2" t="n">
         <v>45454</v>
       </c>
       <c r="J462" t="inlineStr">
@@ -24969,7 +24969,7 @@
       <c r="H463" t="n">
         <v>33165885</v>
       </c>
-      <c r="I463" s="3" t="n">
+      <c r="I463" s="2" t="n">
         <v>45455</v>
       </c>
       <c r="J463" t="inlineStr">
@@ -25022,7 +25022,7 @@
       <c r="H464" t="n">
         <v>36467007</v>
       </c>
-      <c r="I464" s="3" t="n">
+      <c r="I464" s="2" t="n">
         <v>45456</v>
       </c>
       <c r="J464" t="inlineStr">
@@ -25075,7 +25075,7 @@
       <c r="H465" t="n">
         <v>28427176</v>
       </c>
-      <c r="I465" s="3" t="n">
+      <c r="I465" s="2" t="n">
         <v>45457</v>
       </c>
       <c r="J465" t="inlineStr">
@@ -25128,7 +25128,7 @@
       <c r="H466" t="n">
         <v>34889700</v>
       </c>
-      <c r="I466" s="3" t="n">
+      <c r="I466" s="2" t="n">
         <v>45461</v>
       </c>
       <c r="J466" t="inlineStr">
@@ -25181,7 +25181,7 @@
       <c r="H467" t="n">
         <v>27319978</v>
       </c>
-      <c r="I467" s="3" t="n">
+      <c r="I467" s="2" t="n">
         <v>45462</v>
       </c>
       <c r="J467" t="inlineStr">
@@ -25234,7 +25234,7 @@
       <c r="H468" t="n">
         <v>38666038</v>
       </c>
-      <c r="I468" s="3" t="n">
+      <c r="I468" s="2" t="n">
         <v>45463</v>
       </c>
       <c r="J468" t="inlineStr">
@@ -25287,7 +25287,7 @@
       <c r="H469" t="n">
         <v>65105969</v>
       </c>
-      <c r="I469" s="3" t="n">
+      <c r="I469" s="2" t="n">
         <v>45464</v>
       </c>
       <c r="J469" t="inlineStr">
@@ -25340,7 +25340,7 @@
       <c r="H470" t="n">
         <v>47331903</v>
       </c>
-      <c r="I470" s="3" t="n">
+      <c r="I470" s="2" t="n">
         <v>45467</v>
       </c>
       <c r="J470" t="inlineStr">
@@ -25393,7 +25393,7 @@
       <c r="H471" t="n">
         <v>30521300</v>
       </c>
-      <c r="I471" s="3" t="n">
+      <c r="I471" s="2" t="n">
         <v>45468</v>
       </c>
       <c r="J471" t="inlineStr">
@@ -25446,7 +25446,7 @@
       <c r="H472" t="n">
         <v>43902896</v>
       </c>
-      <c r="I472" s="3" t="n">
+      <c r="I472" s="2" t="n">
         <v>45469</v>
       </c>
       <c r="J472" t="inlineStr">
@@ -25499,7 +25499,7 @@
       <c r="H473" t="n">
         <v>49570251</v>
       </c>
-      <c r="I473" s="3" t="n">
+      <c r="I473" s="2" t="n">
         <v>45470</v>
       </c>
       <c r="J473" t="inlineStr">
@@ -25552,7 +25552,7 @@
       <c r="H474" t="n">
         <v>37413685</v>
       </c>
-      <c r="I474" s="3" t="n">
+      <c r="I474" s="2" t="n">
         <v>45471</v>
       </c>
       <c r="J474" t="inlineStr">
@@ -25605,7 +25605,7 @@
       <c r="H475" t="n">
         <v>27578018</v>
       </c>
-      <c r="I475" s="3" t="n">
+      <c r="I475" s="2" t="n">
         <v>45474</v>
       </c>
       <c r="J475" t="inlineStr">
@@ -25658,7 +25658,7 @@
       <c r="H476" t="n">
         <v>33265678</v>
       </c>
-      <c r="I476" s="3" t="n">
+      <c r="I476" s="2" t="n">
         <v>45475</v>
       </c>
       <c r="J476" t="inlineStr">
@@ -25711,7 +25711,7 @@
       <c r="H477" t="n">
         <v>28999951</v>
       </c>
-      <c r="I477" s="3" t="n">
+      <c r="I477" s="2" t="n">
         <v>45476</v>
       </c>
       <c r="J477" t="inlineStr">
@@ -25764,7 +25764,7 @@
       <c r="H478" t="n">
         <v>29417285</v>
       </c>
-      <c r="I478" s="3" t="n">
+      <c r="I478" s="2" t="n">
         <v>45477</v>
       </c>
       <c r="J478" t="inlineStr">
@@ -25817,7 +25817,7 @@
       <c r="H479" t="n">
         <v>37995621</v>
       </c>
-      <c r="I479" s="3" t="n">
+      <c r="I479" s="2" t="n">
         <v>45478</v>
       </c>
       <c r="J479" t="inlineStr">
@@ -25870,7 +25870,7 @@
       <c r="H480" t="n">
         <v>31231823</v>
       </c>
-      <c r="I480" s="3" t="n">
+      <c r="I480" s="2" t="n">
         <v>45481</v>
       </c>
       <c r="J480" t="inlineStr">
@@ -25923,7 +25923,7 @@
       <c r="H481" t="n">
         <v>24969945</v>
       </c>
-      <c r="I481" s="3" t="n">
+      <c r="I481" s="2" t="n">
         <v>45482</v>
       </c>
       <c r="J481" t="inlineStr">
@@ -25976,7 +25976,7 @@
       <c r="H482" t="n">
         <v>41435890</v>
       </c>
-      <c r="I482" s="3" t="n">
+      <c r="I482" s="2" t="n">
         <v>45483</v>
       </c>
       <c r="J482" t="inlineStr">
@@ -26029,7 +26029,7 @@
       <c r="H483" t="n">
         <v>33841030</v>
       </c>
-      <c r="I483" s="3" t="n">
+      <c r="I483" s="2" t="n">
         <v>45484</v>
       </c>
       <c r="J483" t="inlineStr">
@@ -26082,7 +26082,7 @@
       <c r="H484" t="n">
         <v>33215805</v>
       </c>
-      <c r="I484" s="3" t="n">
+      <c r="I484" s="2" t="n">
         <v>45485</v>
       </c>
       <c r="J484" t="inlineStr">
@@ -26135,7 +26135,7 @@
       <c r="H485" t="n">
         <v>32499560</v>
       </c>
-      <c r="I485" s="3" t="n">
+      <c r="I485" s="2" t="n">
         <v>45488</v>
       </c>
       <c r="J485" t="inlineStr">
@@ -26188,7 +26188,7 @@
       <c r="H486" t="n">
         <v>26414419</v>
       </c>
-      <c r="I486" s="3" t="n">
+      <c r="I486" s="2" t="n">
         <v>45489</v>
       </c>
       <c r="J486" t="inlineStr">
@@ -26241,7 +26241,7 @@
       <c r="H487" t="n">
         <v>36401001</v>
       </c>
-      <c r="I487" s="3" t="n">
+      <c r="I487" s="2" t="n">
         <v>45491</v>
       </c>
       <c r="J487" t="inlineStr">
@@ -26294,7 +26294,7 @@
       <c r="H488" t="n">
         <v>77879227</v>
       </c>
-      <c r="I488" s="3" t="n">
+      <c r="I488" s="2" t="n">
         <v>45492</v>
       </c>
       <c r="J488" t="inlineStr">
@@ -26347,7 +26347,7 @@
       <c r="H489" t="n">
         <v>39802769</v>
       </c>
-      <c r="I489" s="3" t="n">
+      <c r="I489" s="2" t="n">
         <v>45495</v>
       </c>
       <c r="J489" t="inlineStr">
@@ -26400,7 +26400,7 @@
       <c r="H490" t="n">
         <v>36900430</v>
       </c>
-      <c r="I490" s="3" t="n">
+      <c r="I490" s="2" t="n">
         <v>45496</v>
       </c>
       <c r="J490" t="inlineStr">
@@ -26453,7 +26453,7 @@
       <c r="H491" t="n">
         <v>27991549</v>
       </c>
-      <c r="I491" s="3" t="n">
+      <c r="I491" s="2" t="n">
         <v>45497</v>
       </c>
       <c r="J491" t="inlineStr">
@@ -26506,7 +26506,7 @@
       <c r="H492" t="n">
         <v>44980697</v>
       </c>
-      <c r="I492" s="3" t="n">
+      <c r="I492" s="2" t="n">
         <v>45498</v>
       </c>
       <c r="J492" t="inlineStr">
@@ -26559,7 +26559,7 @@
       <c r="H493" t="n">
         <v>45557554</v>
       </c>
-      <c r="I493" s="3" t="n">
+      <c r="I493" s="2" t="n">
         <v>45499</v>
       </c>
       <c r="J493" t="inlineStr">
@@ -26612,7 +26612,7 @@
       <c r="H494" t="n">
         <v>31412054</v>
       </c>
-      <c r="I494" s="3" t="n">
+      <c r="I494" s="2" t="n">
         <v>45502</v>
       </c>
       <c r="J494" t="inlineStr">
@@ -26665,7 +26665,7 @@
       <c r="H495" t="n">
         <v>42656947</v>
       </c>
-      <c r="I495" s="3" t="n">
+      <c r="I495" s="2" t="n">
         <v>45503</v>
       </c>
       <c r="J495" t="inlineStr">
@@ -26718,7 +26718,7 @@
       <c r="H496" t="n">
         <v>52206650</v>
       </c>
-      <c r="I496" s="3" t="n">
+      <c r="I496" s="2" t="n">
         <v>45504</v>
       </c>
       <c r="J496" t="inlineStr">
@@ -26771,7 +26771,7 @@
       <c r="H497" t="n">
         <v>117295765</v>
       </c>
-      <c r="I497" s="3" t="n">
+      <c r="I497" s="2" t="n">
         <v>45505</v>
       </c>
       <c r="J497" t="inlineStr">
@@ -26824,7 +26824,7 @@
       <c r="H498" t="n">
         <v>71936634</v>
       </c>
-      <c r="I498" s="3" t="n">
+      <c r="I498" s="2" t="n">
         <v>45506</v>
       </c>
       <c r="J498" t="inlineStr">
@@ -26877,7 +26877,7 @@
       <c r="H499" t="n">
         <v>83461809</v>
       </c>
-      <c r="I499" s="3" t="n">
+      <c r="I499" s="2" t="n">
         <v>45509</v>
       </c>
       <c r="J499" t="inlineStr">
@@ -26930,7 +26930,7 @@
       <c r="H500" t="n">
         <v>53205928</v>
       </c>
-      <c r="I500" s="3" t="n">
+      <c r="I500" s="2" t="n">
         <v>45510</v>
       </c>
       <c r="J500" t="inlineStr">
@@ -26983,7 +26983,7 @@
       <c r="H501" t="n">
         <v>31880893</v>
       </c>
-      <c r="I501" s="3" t="n">
+      <c r="I501" s="2" t="n">
         <v>45511</v>
       </c>
       <c r="J501" t="inlineStr">
@@ -27036,7 +27036,7 @@
       <c r="H502" t="n">
         <v>51491115</v>
       </c>
-      <c r="I502" s="3" t="n">
+      <c r="I502" s="2" t="n">
         <v>45512</v>
       </c>
       <c r="J502" t="inlineStr">
@@ -27089,7 +27089,7 @@
       <c r="H503" t="n">
         <v>23096622</v>
       </c>
-      <c r="I503" s="3" t="n">
+      <c r="I503" s="2" t="n">
         <v>45513</v>
       </c>
       <c r="J503" t="inlineStr">
@@ -27142,7 +27142,7 @@
       <c r="H504" t="n">
         <v>30365749</v>
       </c>
-      <c r="I504" s="3" t="n">
+      <c r="I504" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="J504" t="inlineStr">
@@ -27195,7 +27195,7 @@
       <c r="H505" t="n">
         <v>29259050</v>
       </c>
-      <c r="I505" s="3" t="n">
+      <c r="I505" s="2" t="n">
         <v>45517</v>
       </c>
       <c r="J505" t="inlineStr">
@@ -27248,7 +27248,7 @@
       <c r="H506" t="n">
         <v>97794227</v>
       </c>
-      <c r="I506" s="3" t="n">
+      <c r="I506" s="2" t="n">
         <v>45518</v>
       </c>
       <c r="J506" t="inlineStr">
@@ -27301,7 +27301,7 @@
       <c r="H507" t="n">
         <v>53854715</v>
       </c>
-      <c r="I507" s="3" t="n">
+      <c r="I507" s="2" t="n">
         <v>45520</v>
       </c>
       <c r="J507" t="inlineStr">
@@ -27354,7 +27354,7 @@
       <c r="H508" t="n">
         <v>62692004</v>
       </c>
-      <c r="I508" s="3" t="n">
+      <c r="I508" s="2" t="n">
         <v>45523</v>
       </c>
       <c r="J508" t="inlineStr">
@@ -27407,7 +27407,7 @@
       <c r="H509" t="n">
         <v>37156409</v>
       </c>
-      <c r="I509" s="3" t="n">
+      <c r="I509" s="2" t="n">
         <v>45524</v>
       </c>
       <c r="J509" t="inlineStr">
@@ -27460,7 +27460,7 @@
       <c r="H510" t="n">
         <v>49559240</v>
       </c>
-      <c r="I510" s="3" t="n">
+      <c r="I510" s="2" t="n">
         <v>45525</v>
       </c>
       <c r="J510" t="inlineStr">
@@ -27513,7 +27513,7 @@
       <c r="H511" t="n">
         <v>36594070</v>
       </c>
-      <c r="I511" s="3" t="n">
+      <c r="I511" s="2" t="n">
         <v>45526</v>
       </c>
       <c r="J511" t="inlineStr">
@@ -27566,7 +27566,7 @@
       <c r="H512" t="n">
         <v>31366023</v>
       </c>
-      <c r="I512" s="3" t="n">
+      <c r="I512" s="2" t="n">
         <v>45527</v>
       </c>
       <c r="J512" t="inlineStr">
@@ -27619,7 +27619,7 @@
       <c r="H513" t="n">
         <v>32328959</v>
       </c>
-      <c r="I513" s="3" t="n">
+      <c r="I513" s="2" t="n">
         <v>45530</v>
       </c>
       <c r="J513" t="inlineStr">
@@ -27672,7 +27672,7 @@
       <c r="H514" t="n">
         <v>24415786</v>
       </c>
-      <c r="I514" s="3" t="n">
+      <c r="I514" s="2" t="n">
         <v>45531</v>
       </c>
       <c r="J514" t="inlineStr">
@@ -27725,7 +27725,7 @@
       <c r="H515" t="n">
         <v>25083383</v>
       </c>
-      <c r="I515" s="3" t="n">
+      <c r="I515" s="2" t="n">
         <v>45532</v>
       </c>
       <c r="J515" t="inlineStr">
@@ -27778,7 +27778,7 @@
       <c r="H516" t="n">
         <v>44299770</v>
       </c>
-      <c r="I516" s="3" t="n">
+      <c r="I516" s="2" t="n">
         <v>45533</v>
       </c>
       <c r="J516" t="inlineStr">
@@ -27831,7 +27831,7 @@
       <c r="H517" t="n">
         <v>54904433</v>
       </c>
-      <c r="I517" s="3" t="n">
+      <c r="I517" s="2" t="n">
         <v>45534</v>
       </c>
       <c r="J517" t="inlineStr">
@@ -27884,7 +27884,7 @@
       <c r="H518" t="n">
         <v>18965151</v>
       </c>
-      <c r="I518" s="3" t="n">
+      <c r="I518" s="2" t="n">
         <v>45537</v>
       </c>
       <c r="J518" t="inlineStr">
@@ -27937,7 +27937,7 @@
       <c r="H519" t="n">
         <v>19667162</v>
       </c>
-      <c r="I519" s="3" t="n">
+      <c r="I519" s="2" t="n">
         <v>45538</v>
       </c>
       <c r="J519" t="inlineStr">
@@ -27990,7 +27990,7 @@
       <c r="H520" t="n">
         <v>39272396</v>
       </c>
-      <c r="I520" s="3" t="n">
+      <c r="I520" s="2" t="n">
         <v>45539</v>
       </c>
       <c r="J520" t="inlineStr">
@@ -28043,7 +28043,7 @@
       <c r="H521" t="n">
         <v>28220147</v>
       </c>
-      <c r="I521" s="3" t="n">
+      <c r="I521" s="2" t="n">
         <v>45540</v>
       </c>
       <c r="J521" t="inlineStr">
@@ -28096,7 +28096,7 @@
       <c r="H522" t="n">
         <v>30633147</v>
       </c>
-      <c r="I522" s="3" t="n">
+      <c r="I522" s="2" t="n">
         <v>45541</v>
       </c>
       <c r="J522" t="inlineStr">
@@ -28149,7 +28149,7 @@
       <c r="H523" t="n">
         <v>32527751</v>
       </c>
-      <c r="I523" s="3" t="n">
+      <c r="I523" s="2" t="n">
         <v>45544</v>
       </c>
       <c r="J523" t="inlineStr">
@@ -28202,7 +28202,7 @@
       <c r="H524" t="n">
         <v>41536476</v>
       </c>
-      <c r="I524" s="3" t="n">
+      <c r="I524" s="2" t="n">
         <v>45545</v>
       </c>
       <c r="J524" t="inlineStr">
@@ -28255,7 +28255,7 @@
       <c r="H525" t="n">
         <v>24501237</v>
       </c>
-      <c r="I525" s="3" t="n">
+      <c r="I525" s="2" t="n">
         <v>45546</v>
       </c>
       <c r="J525" t="inlineStr">
@@ -28308,7 +28308,7 @@
       <c r="H526" t="n">
         <v>72784601</v>
       </c>
-      <c r="I526" s="3" t="n">
+      <c r="I526" s="2" t="n">
         <v>45547</v>
       </c>
       <c r="J526" t="inlineStr">
@@ -28361,7 +28361,7 @@
       <c r="H527" t="n">
         <v>54694919</v>
       </c>
-      <c r="I527" s="3" t="n">
+      <c r="I527" s="2" t="n">
         <v>45548</v>
       </c>
       <c r="J527" t="inlineStr">
@@ -28414,7 +28414,7 @@
       <c r="H528" t="n">
         <v>32284688</v>
       </c>
-      <c r="I528" s="3" t="n">
+      <c r="I528" s="2" t="n">
         <v>45551</v>
       </c>
       <c r="J528" t="inlineStr">
@@ -28467,7 +28467,7 @@
       <c r="H529" t="n">
         <v>18187218</v>
       </c>
-      <c r="I529" s="3" t="n">
+      <c r="I529" s="2" t="n">
         <v>45552</v>
       </c>
       <c r="J529" t="inlineStr">
@@ -28520,7 +28520,7 @@
       <c r="H530" t="n">
         <v>24760285</v>
       </c>
-      <c r="I530" s="3" t="n">
+      <c r="I530" s="2" t="n">
         <v>45553</v>
       </c>
       <c r="J530" t="inlineStr">
@@ -28573,7 +28573,7 @@
       <c r="H531" t="n">
         <v>36800612</v>
       </c>
-      <c r="I531" s="3" t="n">
+      <c r="I531" s="2" t="n">
         <v>45554</v>
       </c>
       <c r="J531" t="inlineStr">
@@ -28626,7 +28626,7 @@
       <c r="H532" t="n">
         <v>53728292</v>
       </c>
-      <c r="I532" s="3" t="n">
+      <c r="I532" s="2" t="n">
         <v>45555</v>
       </c>
       <c r="J532" t="inlineStr">
@@ -28679,7 +28679,7 @@
       <c r="H533" t="n">
         <v>32997326</v>
       </c>
-      <c r="I533" s="3" t="n">
+      <c r="I533" s="2" t="n">
         <v>45558</v>
       </c>
       <c r="J533" t="inlineStr">
@@ -28732,7 +28732,7 @@
       <c r="H534" t="n">
         <v>137039677</v>
       </c>
-      <c r="I534" s="3" t="n">
+      <c r="I534" s="2" t="n">
         <v>45559</v>
       </c>
       <c r="J534" t="inlineStr">
@@ -28785,7 +28785,7 @@
       <c r="H535" t="n">
         <v>57763431</v>
       </c>
-      <c r="I535" s="3" t="n">
+      <c r="I535" s="2" t="n">
         <v>45560</v>
       </c>
       <c r="J535" t="inlineStr">
@@ -28838,7 +28838,7 @@
       <c r="H536" t="n">
         <v>88447810</v>
       </c>
-      <c r="I536" s="3" t="n">
+      <c r="I536" s="2" t="n">
         <v>45561</v>
       </c>
       <c r="J536" t="inlineStr">
@@ -28891,7 +28891,7 @@
       <c r="H537" t="n">
         <v>72393224</v>
       </c>
-      <c r="I537" s="3" t="n">
+      <c r="I537" s="2" t="n">
         <v>45562</v>
       </c>
       <c r="J537" t="inlineStr">
@@ -28944,7 +28944,7 @@
       <c r="H538" t="n">
         <v>91821354</v>
       </c>
-      <c r="I538" s="3" t="n">
+      <c r="I538" s="2" t="n">
         <v>45565</v>
       </c>
       <c r="J538" t="inlineStr">
@@ -28997,7 +28997,7 @@
       <c r="H539" t="n">
         <v>50447136</v>
       </c>
-      <c r="I539" s="3" t="n">
+      <c r="I539" s="2" t="n">
         <v>45566</v>
       </c>
       <c r="J539" t="inlineStr">
@@ -29050,7 +29050,7 @@
       <c r="H540" t="n">
         <v>75467644</v>
       </c>
-      <c r="I540" s="3" t="n">
+      <c r="I540" s="2" t="n">
         <v>45568</v>
       </c>
       <c r="J540" t="inlineStr">
@@ -29103,7 +29103,7 @@
       <c r="H541" t="n">
         <v>53664986</v>
       </c>
-      <c r="I541" s="3" t="n">
+      <c r="I541" s="2" t="n">
         <v>45569</v>
       </c>
       <c r="J541" t="inlineStr">
@@ -29156,7 +29156,7 @@
       <c r="H542" t="n">
         <v>48614646</v>
       </c>
-      <c r="I542" s="3" t="n">
+      <c r="I542" s="2" t="n">
         <v>45572</v>
       </c>
       <c r="J542" t="inlineStr">
@@ -29209,7 +29209,7 @@
       <c r="H543" t="n">
         <v>74758618</v>
       </c>
-      <c r="I543" s="3" t="n">
+      <c r="I543" s="2" t="n">
         <v>45573</v>
       </c>
       <c r="J543" t="inlineStr">
@@ -29262,7 +29262,7 @@
       <c r="H544" t="n">
         <v>42560398</v>
       </c>
-      <c r="I544" s="3" t="n">
+      <c r="I544" s="2" t="n">
         <v>45574</v>
       </c>
       <c r="J544" t="inlineStr">
@@ -29315,7 +29315,7 @@
       <c r="H545" t="n">
         <v>45673573</v>
       </c>
-      <c r="I545" s="3" t="n">
+      <c r="I545" s="2" t="n">
         <v>45575</v>
       </c>
       <c r="J545" t="inlineStr">
@@ -29368,7 +29368,7 @@
       <c r="H546" t="n">
         <v>53188928</v>
       </c>
-      <c r="I546" s="3" t="n">
+      <c r="I546" s="2" t="n">
         <v>45576</v>
       </c>
       <c r="J546" t="inlineStr">
@@ -29421,7 +29421,7 @@
       <c r="H547" t="n">
         <v>35089543</v>
       </c>
-      <c r="I547" s="3" t="n">
+      <c r="I547" s="2" t="n">
         <v>45579</v>
       </c>
       <c r="J547" t="inlineStr">
@@ -29474,7 +29474,7 @@
       <c r="H548" t="n">
         <v>38868256</v>
       </c>
-      <c r="I548" s="3" t="n">
+      <c r="I548" s="2" t="n">
         <v>45580</v>
       </c>
       <c r="J548" t="inlineStr">
@@ -29527,7 +29527,7 @@
       <c r="H549" t="n">
         <v>28373874</v>
       </c>
-      <c r="I549" s="3" t="n">
+      <c r="I549" s="2" t="n">
         <v>45581</v>
       </c>
       <c r="J549" t="inlineStr">
@@ -29580,7 +29580,7 @@
       <c r="H550" t="n">
         <v>28316537</v>
       </c>
-      <c r="I550" s="3" t="n">
+      <c r="I550" s="2" t="n">
         <v>45582</v>
       </c>
       <c r="J550" t="inlineStr">
@@ -29633,7 +29633,7 @@
       <c r="H551" t="n">
         <v>34668276</v>
       </c>
-      <c r="I551" s="3" t="n">
+      <c r="I551" s="2" t="n">
         <v>45583</v>
       </c>
       <c r="J551" t="inlineStr">
@@ -29686,7 +29686,7 @@
       <c r="H552" t="n">
         <v>25730365</v>
       </c>
-      <c r="I552" s="3" t="n">
+      <c r="I552" s="2" t="n">
         <v>45586</v>
       </c>
       <c r="J552" t="inlineStr">
@@ -29739,7 +29739,7 @@
       <c r="H553" t="n">
         <v>39007035</v>
       </c>
-      <c r="I553" s="3" t="n">
+      <c r="I553" s="2" t="n">
         <v>45587</v>
       </c>
       <c r="J553" t="inlineStr">
@@ -29792,7 +29792,7 @@
       <c r="H554" t="n">
         <v>42006502</v>
       </c>
-      <c r="I554" s="3" t="n">
+      <c r="I554" s="2" t="n">
         <v>45588</v>
       </c>
       <c r="J554" t="inlineStr">
@@ -29845,7 +29845,7 @@
       <c r="H555" t="n">
         <v>22027327</v>
       </c>
-      <c r="I555" s="3" t="n">
+      <c r="I555" s="2" t="n">
         <v>45589</v>
       </c>
       <c r="J555" t="inlineStr">
@@ -29898,7 +29898,7 @@
       <c r="H556" t="n">
         <v>39675753</v>
       </c>
-      <c r="I556" s="3" t="n">
+      <c r="I556" s="2" t="n">
         <v>45590</v>
       </c>
       <c r="J556" t="inlineStr">
@@ -29951,7 +29951,7 @@
       <c r="H557" t="n">
         <v>28291371</v>
       </c>
-      <c r="I557" s="3" t="n">
+      <c r="I557" s="2" t="n">
         <v>45593</v>
       </c>
       <c r="J557" t="inlineStr">
@@ -30004,7 +30004,7 @@
       <c r="H558" t="n">
         <v>32201673</v>
       </c>
-      <c r="I558" s="3" t="n">
+      <c r="I558" s="2" t="n">
         <v>45594</v>
       </c>
       <c r="J558" t="inlineStr">
@@ -30057,7 +30057,7 @@
       <c r="H559" t="n">
         <v>21059052</v>
       </c>
-      <c r="I559" s="3" t="n">
+      <c r="I559" s="2" t="n">
         <v>45595</v>
       </c>
       <c r="J559" t="inlineStr">
@@ -30110,7 +30110,7 @@
       <c r="H560" t="n">
         <v>26332688</v>
       </c>
-      <c r="I560" s="3" t="n">
+      <c r="I560" s="2" t="n">
         <v>45596</v>
       </c>
       <c r="J560" t="inlineStr">
@@ -30163,7 +30163,7 @@
       <c r="H561" t="n">
         <v>3959794</v>
       </c>
-      <c r="I561" s="3" t="n">
+      <c r="I561" s="2" t="n">
         <v>45597</v>
       </c>
       <c r="J561" t="inlineStr">
@@ -30216,7 +30216,7 @@
       <c r="H562" t="n">
         <v>25434462</v>
       </c>
-      <c r="I562" s="3" t="n">
+      <c r="I562" s="2" t="n">
         <v>45600</v>
       </c>
       <c r="J562" t="inlineStr">
@@ -30269,7 +30269,7 @@
       <c r="H563" t="n">
         <v>42713449</v>
       </c>
-      <c r="I563" s="3" t="n">
+      <c r="I563" s="2" t="n">
         <v>45601</v>
       </c>
       <c r="J563" t="inlineStr">
@@ -30322,7 +30322,7 @@
       <c r="H564" t="n">
         <v>48684698</v>
       </c>
-      <c r="I564" s="3" t="n">
+      <c r="I564" s="2" t="n">
         <v>45602</v>
       </c>
       <c r="J564" t="inlineStr">
@@ -30375,7 +30375,7 @@
       <c r="H565" t="n">
         <v>87492986</v>
       </c>
-      <c r="I565" s="3" t="n">
+      <c r="I565" s="2" t="n">
         <v>45603</v>
       </c>
       <c r="J565" t="inlineStr">
@@ -30428,7 +30428,7 @@
       <c r="H566" t="n">
         <v>61856627</v>
       </c>
-      <c r="I566" s="3" t="n">
+      <c r="I566" s="2" t="n">
         <v>45604</v>
       </c>
       <c r="J566" t="inlineStr">
@@ -30481,7 +30481,7 @@
       <c r="H567" t="n">
         <v>47309352</v>
       </c>
-      <c r="I567" s="3" t="n">
+      <c r="I567" s="2" t="n">
         <v>45607</v>
       </c>
       <c r="J567" t="inlineStr">
@@ -30534,7 +30534,7 @@
       <c r="H568" t="n">
         <v>28777753</v>
       </c>
-      <c r="I568" s="3" t="n">
+      <c r="I568" s="2" t="n">
         <v>45608</v>
       </c>
       <c r="J568" t="inlineStr">
@@ -30587,7 +30587,7 @@
       <c r="H569" t="n">
         <v>57498856</v>
       </c>
-      <c r="I569" s="3" t="n">
+      <c r="I569" s="2" t="n">
         <v>45609</v>
       </c>
       <c r="J569" t="inlineStr">
@@ -30640,7 +30640,7 @@
       <c r="H570" t="n">
         <v>36248342</v>
       </c>
-      <c r="I570" s="3" t="n">
+      <c r="I570" s="2" t="n">
         <v>45610</v>
       </c>
       <c r="J570" t="inlineStr">
@@ -30693,7 +30693,7 @@
       <c r="H571" t="n">
         <v>40052459</v>
       </c>
-      <c r="I571" s="3" t="n">
+      <c r="I571" s="2" t="n">
         <v>45614</v>
       </c>
       <c r="J571" t="inlineStr">
@@ -30746,7 +30746,7 @@
       <c r="H572" t="n">
         <v>37526838</v>
       </c>
-      <c r="I572" s="3" t="n">
+      <c r="I572" s="2" t="n">
         <v>45615</v>
       </c>
       <c r="J572" t="inlineStr">
@@ -30799,7 +30799,7 @@
       <c r="H573" t="n">
         <v>58223540</v>
       </c>
-      <c r="I573" s="3" t="n">
+      <c r="I573" s="2" t="n">
         <v>45617</v>
       </c>
       <c r="J573" t="inlineStr">
@@ -30852,7 +30852,7 @@
       <c r="H574" t="n">
         <v>43642614</v>
       </c>
-      <c r="I574" s="3" t="n">
+      <c r="I574" s="2" t="n">
         <v>45618</v>
       </c>
       <c r="J574" t="inlineStr">
@@ -30905,7 +30905,7 @@
       <c r="H575" t="n">
         <v>53757347</v>
       </c>
-      <c r="I575" s="3" t="n">
+      <c r="I575" s="2" t="n">
         <v>45621</v>
       </c>
       <c r="J575" t="inlineStr">
@@ -30958,7 +30958,7 @@
       <c r="H576" t="n">
         <v>25549603</v>
       </c>
-      <c r="I576" s="3" t="n">
+      <c r="I576" s="2" t="n">
         <v>45622</v>
       </c>
       <c r="J576" t="inlineStr">
@@ -31011,7 +31011,7 @@
       <c r="H577" t="n">
         <v>24819160</v>
       </c>
-      <c r="I577" s="3" t="n">
+      <c r="I577" s="2" t="n">
         <v>45623</v>
       </c>
       <c r="J577" t="inlineStr">
@@ -31064,7 +31064,7 @@
       <c r="H578" t="n">
         <v>30859924</v>
       </c>
-      <c r="I578" s="3" t="n">
+      <c r="I578" s="2" t="n">
         <v>45624</v>
       </c>
       <c r="J578" t="inlineStr">
@@ -31117,7 +31117,7 @@
       <c r="H579" t="n">
         <v>29662566</v>
       </c>
-      <c r="I579" s="3" t="n">
+      <c r="I579" s="2" t="n">
         <v>45625</v>
       </c>
       <c r="J579" t="inlineStr">
@@ -31170,7 +31170,7 @@
       <c r="H580" t="n">
         <v>23724992</v>
       </c>
-      <c r="I580" s="3" t="n">
+      <c r="I580" s="2" t="n">
         <v>45628</v>
       </c>
       <c r="J580" t="inlineStr">
@@ -31223,7 +31223,7 @@
       <c r="H581" t="n">
         <v>35403960</v>
       </c>
-      <c r="I581" s="3" t="n">
+      <c r="I581" s="2" t="n">
         <v>45629</v>
       </c>
       <c r="J581" t="inlineStr">
@@ -31276,7 +31276,7 @@
       <c r="H582" t="n">
         <v>38427254</v>
       </c>
-      <c r="I582" s="3" t="n">
+      <c r="I582" s="2" t="n">
         <v>45630</v>
       </c>
       <c r="J582" t="inlineStr">
@@ -31329,7 +31329,7 @@
       <c r="H583" t="n">
         <v>36229232</v>
       </c>
-      <c r="I583" s="3" t="n">
+      <c r="I583" s="2" t="n">
         <v>45631</v>
       </c>
       <c r="J583" t="inlineStr">
@@ -31382,7 +31382,7 @@
       <c r="H584" t="n">
         <v>30542331</v>
       </c>
-      <c r="I584" s="3" t="n">
+      <c r="I584" s="2" t="n">
         <v>45632</v>
       </c>
       <c r="J584" t="inlineStr">
@@ -31435,7 +31435,7 @@
       <c r="H585" t="n">
         <v>38930617</v>
       </c>
-      <c r="I585" s="3" t="n">
+      <c r="I585" s="2" t="n">
         <v>45635</v>
       </c>
       <c r="J585" t="inlineStr">
@@ -31488,7 +31488,7 @@
       <c r="H586" t="n">
         <v>36149413</v>
       </c>
-      <c r="I586" s="3" t="n">
+      <c r="I586" s="2" t="n">
         <v>45636</v>
       </c>
       <c r="J586" t="inlineStr">
@@ -31541,7 +31541,7 @@
       <c r="H587" t="n">
         <v>20386024</v>
       </c>
-      <c r="I587" s="3" t="n">
+      <c r="I587" s="2" t="n">
         <v>45637</v>
       </c>
       <c r="J587" t="inlineStr">
@@ -31594,7 +31594,7 @@
       <c r="H588" t="n">
         <v>25716400</v>
       </c>
-      <c r="I588" s="3" t="n">
+      <c r="I588" s="2" t="n">
         <v>45638</v>
       </c>
       <c r="J588" t="inlineStr">
@@ -31647,7 +31647,7 @@
       <c r="H589" t="n">
         <v>39603961</v>
       </c>
-      <c r="I589" s="3" t="n">
+      <c r="I589" s="2" t="n">
         <v>45639</v>
       </c>
       <c r="J589" t="inlineStr">
@@ -31700,7 +31700,7 @@
       <c r="H590" t="n">
         <v>22559490</v>
       </c>
-      <c r="I590" s="3" t="n">
+      <c r="I590" s="2" t="n">
         <v>45642</v>
       </c>
       <c r="J590" t="inlineStr">
@@ -31753,7 +31753,7 @@
       <c r="H591" t="n">
         <v>27048575</v>
       </c>
-      <c r="I591" s="3" t="n">
+      <c r="I591" s="2" t="n">
         <v>45643</v>
       </c>
       <c r="J591" t="inlineStr">
@@ -31806,7 +31806,7 @@
       <c r="H592" t="n">
         <v>19762348</v>
       </c>
-      <c r="I592" s="3" t="n">
+      <c r="I592" s="2" t="n">
         <v>45644</v>
       </c>
       <c r="J592" t="inlineStr">
@@ -31859,7 +31859,7 @@
       <c r="H593" t="n">
         <v>26986403</v>
       </c>
-      <c r="I593" s="3" t="n">
+      <c r="I593" s="2" t="n">
         <v>45645</v>
       </c>
       <c r="J593" t="inlineStr">
@@ -31912,7 +31912,7 @@
       <c r="H594" t="n">
         <v>46452012</v>
       </c>
-      <c r="I594" s="3" t="n">
+      <c r="I594" s="2" t="n">
         <v>45646</v>
       </c>
       <c r="J594" t="inlineStr">
@@ -31965,7 +31965,7 @@
       <c r="H595" t="n">
         <v>27369845</v>
       </c>
-      <c r="I595" s="3" t="n">
+      <c r="I595" s="2" t="n">
         <v>45649</v>
       </c>
       <c r="J595" t="inlineStr">
@@ -32018,7 +32018,7 @@
       <c r="H596" t="n">
         <v>25762907</v>
       </c>
-      <c r="I596" s="3" t="n">
+      <c r="I596" s="2" t="n">
         <v>45650</v>
       </c>
       <c r="J596" t="inlineStr">
@@ -32071,7 +32071,7 @@
       <c r="H597" t="n">
         <v>23856575</v>
       </c>
-      <c r="I597" s="3" t="n">
+      <c r="I597" s="2" t="n">
         <v>45652</v>
       </c>
       <c r="J597" t="inlineStr">
@@ -32124,7 +32124,7 @@
       <c r="H598" t="n">
         <v>19509460</v>
       </c>
-      <c r="I598" s="3" t="n">
+      <c r="I598" s="2" t="n">
         <v>45653</v>
       </c>
       <c r="J598" t="inlineStr">
@@ -32177,7 +32177,7 @@
       <c r="H599" t="n">
         <v>32464332</v>
       </c>
-      <c r="I599" s="3" t="n">
+      <c r="I599" s="2" t="n">
         <v>45656</v>
       </c>
       <c r="J599" t="inlineStr">
@@ -32230,7 +32230,7 @@
       <c r="H600" t="n">
         <v>19902245</v>
       </c>
-      <c r="I600" s="3" t="n">
+      <c r="I600" s="2" t="n">
         <v>45657</v>
       </c>
       <c r="J600" t="inlineStr">
@@ -32283,7 +32283,7 @@
       <c r="H601" t="n">
         <v>18125541</v>
       </c>
-      <c r="I601" s="3" t="n">
+      <c r="I601" s="2" t="n">
         <v>45658</v>
       </c>
       <c r="J601" t="inlineStr">
@@ -32336,7 +32336,7 @@
       <c r="H602" t="n">
         <v>23322903</v>
       </c>
-      <c r="I602" s="3" t="n">
+      <c r="I602" s="2" t="n">
         <v>45659</v>
       </c>
       <c r="J602" t="inlineStr">
@@ -32389,7 +32389,7 @@
       <c r="H603" t="n">
         <v>23292028</v>
       </c>
-      <c r="I603" s="3" t="n">
+      <c r="I603" s="2" t="n">
         <v>45660</v>
       </c>
       <c r="J603" t="inlineStr">
@@ -32442,7 +32442,7 @@
       <c r="H604" t="n">
         <v>44504571</v>
       </c>
-      <c r="I604" s="3" t="n">
+      <c r="I604" s="2" t="n">
         <v>45663</v>
       </c>
       <c r="J604" t="inlineStr">
@@ -32495,7 +32495,7 @@
       <c r="H605" t="n">
         <v>24140633</v>
       </c>
-      <c r="I605" s="3" t="n">
+      <c r="I605" s="2" t="n">
         <v>45664</v>
       </c>
       <c r="J605" t="inlineStr">
@@ -32548,7 +32548,7 @@
       <c r="H606" t="n">
         <v>31475260</v>
       </c>
-      <c r="I606" s="3" t="n">
+      <c r="I606" s="2" t="n">
         <v>45665</v>
       </c>
       <c r="J606" t="inlineStr">
@@ -32601,7 +32601,7 @@
       <c r="H607" t="n">
         <v>31710737</v>
       </c>
-      <c r="I607" s="3" t="n">
+      <c r="I607" s="2" t="n">
         <v>45666</v>
       </c>
       <c r="J607" t="inlineStr">
@@ -32654,7 +32654,7 @@
       <c r="H608" t="n">
         <v>34769488</v>
       </c>
-      <c r="I608" s="3" t="n">
+      <c r="I608" s="2" t="n">
         <v>45667</v>
       </c>
       <c r="J608" t="inlineStr">
@@ -32707,7 +32707,7 @@
       <c r="H609" t="n">
         <v>38764068</v>
       </c>
-      <c r="I609" s="3" t="n">
+      <c r="I609" s="2" t="n">
         <v>45670</v>
       </c>
       <c r="J609" t="inlineStr">
@@ -32760,7 +32760,7 @@
       <c r="H610" t="n">
         <v>36729333</v>
       </c>
-      <c r="I610" s="3" t="n">
+      <c r="I610" s="2" t="n">
         <v>45671</v>
       </c>
       <c r="J610" t="inlineStr">
@@ -32813,7 +32813,7 @@
       <c r="H611" t="n">
         <v>18644551</v>
       </c>
-      <c r="I611" s="3" t="n">
+      <c r="I611" s="2" t="n">
         <v>45672</v>
       </c>
       <c r="J611" t="inlineStr">
@@ -32866,7 +32866,7 @@
       <c r="H612" t="n">
         <v>22073316</v>
       </c>
-      <c r="I612" s="3" t="n">
+      <c r="I612" s="2" t="n">
         <v>45673</v>
       </c>
       <c r="J612" t="inlineStr">
@@ -32919,7 +32919,7 @@
       <c r="H613" t="n">
         <v>27364235</v>
       </c>
-      <c r="I613" s="3" t="n">
+      <c r="I613" s="2" t="n">
         <v>45674</v>
       </c>
       <c r="J613" t="inlineStr">
@@ -32972,7 +32972,7 @@
       <c r="H614" t="n">
         <v>20493434</v>
       </c>
-      <c r="I614" s="3" t="n">
+      <c r="I614" s="2" t="n">
         <v>45677</v>
       </c>
       <c r="J614" t="inlineStr">
@@ -33025,7 +33025,7 @@
       <c r="H615" t="n">
         <v>32169354</v>
       </c>
-      <c r="I615" s="3" t="n">
+      <c r="I615" s="2" t="n">
         <v>45678</v>
       </c>
       <c r="J615" t="inlineStr">
@@ -33078,7 +33078,7 @@
       <c r="H616" t="n">
         <v>27449453</v>
       </c>
-      <c r="I616" s="3" t="n">
+      <c r="I616" s="2" t="n">
         <v>45679</v>
       </c>
       <c r="J616" t="inlineStr">
@@ -33131,7 +33131,7 @@
       <c r="H617" t="n">
         <v>20642434</v>
       </c>
-      <c r="I617" s="3" t="n">
+      <c r="I617" s="2" t="n">
         <v>45680</v>
       </c>
       <c r="J617" t="inlineStr">
@@ -33184,7 +33184,7 @@
       <c r="H618" t="n">
         <v>37021753</v>
       </c>
-      <c r="I618" s="3" t="n">
+      <c r="I618" s="2" t="n">
         <v>45681</v>
       </c>
       <c r="J618" t="inlineStr">
@@ -33237,7 +33237,7 @@
       <c r="H619" t="n">
         <v>24545394</v>
       </c>
-      <c r="I619" s="3" t="n">
+      <c r="I619" s="2" t="n">
         <v>45684</v>
       </c>
       <c r="J619" t="inlineStr">
@@ -33290,7 +33290,7 @@
       <c r="H620" t="n">
         <v>40154325</v>
       </c>
-      <c r="I620" s="3" t="n">
+      <c r="I620" s="2" t="n">
         <v>45685</v>
       </c>
       <c r="J620" t="inlineStr">
@@ -33343,7 +33343,7 @@
       <c r="H621" t="n">
         <v>16612037</v>
       </c>
-      <c r="I621" s="3" t="n">
+      <c r="I621" s="2" t="n">
         <v>45686</v>
       </c>
       <c r="J621" t="inlineStr">
@@ -33396,7 +33396,7 @@
       <c r="H622" t="n">
         <v>25196066</v>
       </c>
-      <c r="I622" s="3" t="n">
+      <c r="I622" s="2" t="n">
         <v>45687</v>
       </c>
       <c r="J622" t="inlineStr">
@@ -33449,7 +33449,7 @@
       <c r="H623" t="n">
         <v>26640603</v>
       </c>
-      <c r="I623" s="3" t="n">
+      <c r="I623" s="2" t="n">
         <v>45688</v>
       </c>
       <c r="J623" t="inlineStr">
@@ -33502,7 +33502,7 @@
       <c r="H624" t="n">
         <v>21108504</v>
       </c>
-      <c r="I624" s="3" t="n">
+      <c r="I624" s="2" t="n">
         <v>45689</v>
       </c>
       <c r="J624" t="inlineStr">
@@ -33555,7 +33555,7 @@
       <c r="H625" t="n">
         <v>27637805</v>
       </c>
-      <c r="I625" s="3" t="n">
+      <c r="I625" s="2" t="n">
         <v>45691</v>
       </c>
       <c r="J625" t="inlineStr">
@@ -33608,7 +33608,7 @@
       <c r="H626" t="n">
         <v>24930114</v>
       </c>
-      <c r="I626" s="3" t="n">
+      <c r="I626" s="2" t="n">
         <v>45692</v>
       </c>
       <c r="J626" t="inlineStr">
@@ -33661,7 +33661,7 @@
       <c r="H627" t="n">
         <v>16921090</v>
       </c>
-      <c r="I627" s="3" t="n">
+      <c r="I627" s="2" t="n">
         <v>45693</v>
       </c>
       <c r="J627" t="inlineStr">
@@ -33714,7 +33714,7 @@
       <c r="H628" t="n">
         <v>22337409</v>
       </c>
-      <c r="I628" s="3" t="n">
+      <c r="I628" s="2" t="n">
         <v>45694</v>
       </c>
       <c r="J628" t="inlineStr">
@@ -33767,7 +33767,7 @@
       <c r="H629" t="n">
         <v>52908901</v>
       </c>
-      <c r="I629" s="3" t="n">
+      <c r="I629" s="2" t="n">
         <v>45695</v>
       </c>
       <c r="J629" t="inlineStr">
@@ -33820,7 +33820,7 @@
       <c r="H630" t="n">
         <v>25887133</v>
       </c>
-      <c r="I630" s="3" t="n">
+      <c r="I630" s="2" t="n">
         <v>45698</v>
       </c>
       <c r="J630" t="inlineStr">
@@ -33873,7 +33873,7 @@
       <c r="H631" t="n">
         <v>23509603</v>
       </c>
-      <c r="I631" s="3" t="n">
+      <c r="I631" s="2" t="n">
         <v>45699</v>
       </c>
       <c r="J631" t="inlineStr">
@@ -33926,7 +33926,7 @@
       <c r="H632" t="n">
         <v>37827156</v>
       </c>
-      <c r="I632" s="3" t="n">
+      <c r="I632" s="2" t="n">
         <v>45700</v>
       </c>
       <c r="J632" t="inlineStr">
@@ -33979,7 +33979,7 @@
       <c r="H633" t="n">
         <v>51957927</v>
       </c>
-      <c r="I633" s="3" t="n">
+      <c r="I633" s="2" t="n">
         <v>45701</v>
       </c>
       <c r="J633" t="inlineStr">
@@ -34032,7 +34032,7 @@
       <c r="H634" t="n">
         <v>41347112</v>
       </c>
-      <c r="I634" s="3" t="n">
+      <c r="I634" s="2" t="n">
         <v>45702</v>
       </c>
       <c r="J634" t="inlineStr">
@@ -34085,7 +34085,7 @@
       <c r="H635" t="n">
         <v>21095725</v>
       </c>
-      <c r="I635" s="3" t="n">
+      <c r="I635" s="2" t="n">
         <v>45705</v>
       </c>
       <c r="J635" t="inlineStr">
@@ -34138,7 +34138,7 @@
       <c r="H636" t="n">
         <v>23899305</v>
       </c>
-      <c r="I636" s="3" t="n">
+      <c r="I636" s="2" t="n">
         <v>45706</v>
       </c>
       <c r="J636" t="inlineStr">
@@ -34191,7 +34191,7 @@
       <c r="H637" t="n">
         <v>18444090</v>
       </c>
-      <c r="I637" s="3" t="n">
+      <c r="I637" s="2" t="n">
         <v>45707</v>
       </c>
       <c r="J637" t="inlineStr">
@@ -34244,7 +34244,7 @@
       <c r="H638" t="n">
         <v>24085282</v>
       </c>
-      <c r="I638" s="3" t="n">
+      <c r="I638" s="2" t="n">
         <v>45708</v>
       </c>
       <c r="J638" t="inlineStr">
@@ -34297,7 +34297,7 @@
       <c r="H639" t="n">
         <v>41922079</v>
       </c>
-      <c r="I639" s="3" t="n">
+      <c r="I639" s="2" t="n">
         <v>45709</v>
       </c>
       <c r="J639" t="inlineStr">
@@ -34350,7 +34350,7 @@
       <c r="H640" t="n">
         <v>25082335</v>
       </c>
-      <c r="I640" s="3" t="n">
+      <c r="I640" s="2" t="n">
         <v>45712</v>
       </c>
       <c r="J640" t="inlineStr">
@@ -34403,7 +34403,7 @@
       <c r="H641" t="n">
         <v>23503609</v>
       </c>
-      <c r="I641" s="3" t="n">
+      <c r="I641" s="2" t="n">
         <v>45713</v>
       </c>
       <c r="J641" t="inlineStr">
@@ -34456,7 +34456,7 @@
       <c r="H642" t="n">
         <v>30653807</v>
       </c>
-      <c r="I642" s="3" t="n">
+      <c r="I642" s="2" t="n">
         <v>45715</v>
       </c>
       <c r="J642" t="inlineStr">
@@ -34509,7 +34509,7 @@
       <c r="H643" t="n">
         <v>45460858</v>
       </c>
-      <c r="I643" s="3" t="n">
+      <c r="I643" s="2" t="n">
         <v>45716</v>
       </c>
       <c r="J643" t="inlineStr">
@@ -34562,7 +34562,7 @@
       <c r="H644" t="n">
         <v>31050923</v>
       </c>
-      <c r="I644" s="3" t="n">
+      <c r="I644" s="2" t="n">
         <v>45719</v>
       </c>
       <c r="J644" t="inlineStr">
@@ -34615,7 +34615,7 @@
       <c r="H645" t="n">
         <v>28501499</v>
       </c>
-      <c r="I645" s="3" t="n">
+      <c r="I645" s="2" t="n">
         <v>45720</v>
       </c>
       <c r="J645" t="inlineStr">
@@ -34668,7 +34668,7 @@
       <c r="H646" t="n">
         <v>62055402</v>
       </c>
-      <c r="I646" s="3" t="n">
+      <c r="I646" s="2" t="n">
         <v>45721</v>
       </c>
       <c r="J646" t="inlineStr">
@@ -34721,7 +34721,7 @@
       <c r="H647" t="n">
         <v>78946500</v>
       </c>
-      <c r="I647" s="3" t="n">
+      <c r="I647" s="2" t="n">
         <v>45722</v>
       </c>
       <c r="J647" t="inlineStr">
@@ -34774,7 +34774,7 @@
       <c r="H648" t="n">
         <v>81712404</v>
       </c>
-      <c r="I648" s="3" t="n">
+      <c r="I648" s="2" t="n">
         <v>45723</v>
       </c>
       <c r="J648" t="inlineStr">
@@ -34827,7 +34827,7 @@
       <c r="H649" t="n">
         <v>54358266</v>
       </c>
-      <c r="I649" s="3" t="n">
+      <c r="I649" s="2" t="n">
         <v>45726</v>
       </c>
       <c r="J649" t="inlineStr">
@@ -34880,7 +34880,7 @@
       <c r="H650" t="n">
         <v>35721857</v>
       </c>
-      <c r="I650" s="3" t="n">
+      <c r="I650" s="2" t="n">
         <v>45727</v>
       </c>
       <c r="J650" t="inlineStr">
@@ -34933,7 +34933,7 @@
       <c r="H651" t="n">
         <v>26318361</v>
       </c>
-      <c r="I651" s="3" t="n">
+      <c r="I651" s="2" t="n">
         <v>45728</v>
       </c>
       <c r="J651" t="inlineStr">
@@ -34986,7 +34986,7 @@
       <c r="H652" t="n">
         <v>48132699</v>
       </c>
-      <c r="I652" s="3" t="n">
+      <c r="I652" s="2" t="n">
         <v>45729</v>
       </c>
       <c r="J652" t="inlineStr">
@@ -35039,7 +35039,7 @@
       <c r="H653" t="n">
         <v>35738097</v>
       </c>
-      <c r="I653" s="3" t="n">
+      <c r="I653" s="2" t="n">
         <v>45733</v>
       </c>
       <c r="J653" t="inlineStr">
@@ -35092,7 +35092,7 @@
       <c r="H654" t="n">
         <v>37971936</v>
       </c>
-      <c r="I654" s="3" t="n">
+      <c r="I654" s="2" t="n">
         <v>45734</v>
       </c>
       <c r="J654" t="inlineStr">
@@ -35145,7 +35145,7 @@
       <c r="H655" t="n">
         <v>65287289</v>
       </c>
-      <c r="I655" s="3" t="n">
+      <c r="I655" s="2" t="n">
         <v>45735</v>
       </c>
       <c r="J655" t="inlineStr">
@@ -35198,7 +35198,7 @@
       <c r="H656" t="n">
         <v>39656022</v>
       </c>
-      <c r="I656" s="3" t="n">
+      <c r="I656" s="2" t="n">
         <v>45736</v>
       </c>
       <c r="J656" t="inlineStr">
@@ -35251,7 +35251,7 @@
       <c r="H657" t="n">
         <v>49084591</v>
       </c>
-      <c r="I657" s="3" t="n">
+      <c r="I657" s="2" t="n">
         <v>45737</v>
       </c>
       <c r="J657" t="inlineStr">
@@ -35304,7 +35304,7 @@
       <c r="H658" t="n">
         <v>30788061</v>
       </c>
-      <c r="I658" s="3" t="n">
+      <c r="I658" s="2" t="n">
         <v>45740</v>
       </c>
       <c r="J658" t="inlineStr">
@@ -35357,7 +35357,7 @@
       <c r="H659" t="n">
         <v>28351482</v>
       </c>
-      <c r="I659" s="3" t="n">
+      <c r="I659" s="2" t="n">
         <v>45741</v>
       </c>
       <c r="J659" t="inlineStr">
@@ -35410,7 +35410,7 @@
       <c r="H660" t="n">
         <v>23105703</v>
       </c>
-      <c r="I660" s="3" t="n">
+      <c r="I660" s="2" t="n">
         <v>45742</v>
       </c>
       <c r="J660" t="inlineStr">
@@ -35463,7 +35463,7 @@
       <c r="H661" t="n">
         <v>25835383</v>
       </c>
-      <c r="I661" s="3" t="n">
+      <c r="I661" s="2" t="n">
         <v>45743</v>
       </c>
       <c r="J661" t="inlineStr">
@@ -35516,7 +35516,7 @@
       <c r="H662" t="n">
         <v>24530993</v>
       </c>
-      <c r="I662" s="3" t="n">
+      <c r="I662" s="2" t="n">
         <v>45744</v>
       </c>
       <c r="J662" t="inlineStr">
@@ -35569,7 +35569,7 @@
       <c r="H663" t="n">
         <v>28854486</v>
       </c>
-      <c r="I663" s="3" t="n">
+      <c r="I663" s="2" t="n">
         <v>45748</v>
       </c>
       <c r="J663" t="inlineStr">
@@ -35622,7 +35622,7 @@
       <c r="H664" t="n">
         <v>24827752</v>
       </c>
-      <c r="I664" s="3" t="n">
+      <c r="I664" s="2" t="n">
         <v>45749</v>
       </c>
       <c r="J664" t="inlineStr">
@@ -35675,7 +35675,7 @@
       <c r="H665" t="n">
         <v>15005551</v>
       </c>
-      <c r="I665" s="3" t="n">
+      <c r="I665" s="2" t="n">
         <v>45750</v>
       </c>
       <c r="J665" t="inlineStr">
@@ -35728,7 +35728,7 @@
       <c r="H666" t="n">
         <v>80722912</v>
       </c>
-      <c r="I666" s="3" t="n">
+      <c r="I666" s="2" t="n">
         <v>45751</v>
       </c>
       <c r="J666" t="inlineStr">
@@ -35781,7 +35781,7 @@
       <c r="H667" t="n">
         <v>121362371</v>
       </c>
-      <c r="I667" s="3" t="n">
+      <c r="I667" s="2" t="n">
         <v>45754</v>
       </c>
       <c r="J667" t="inlineStr">
@@ -35834,7 +35834,7 @@
       <c r="H668" t="n">
         <v>68612271</v>
       </c>
-      <c r="I668" s="3" t="n">
+      <c r="I668" s="2" t="n">
         <v>45755</v>
       </c>
       <c r="J668" t="inlineStr">
@@ -35887,7 +35887,7 @@
       <c r="H669" t="n">
         <v>73126268</v>
       </c>
-      <c r="I669" s="3" t="n">
+      <c r="I669" s="2" t="n">
         <v>45756</v>
       </c>
       <c r="J669" t="inlineStr">
@@ -35940,7 +35940,7 @@
       <c r="H670" t="n">
         <v>73029573</v>
       </c>
-      <c r="I670" s="3" t="n">
+      <c r="I670" s="2" t="n">
         <v>45758</v>
       </c>
       <c r="J670" t="inlineStr">
@@ -35993,7 +35993,7 @@
       <c r="H671" t="n">
         <v>38691585</v>
       </c>
-      <c r="I671" s="3" t="n">
+      <c r="I671" s="2" t="n">
         <v>45762</v>
       </c>
       <c r="J671" t="inlineStr">
@@ -36046,7 +36046,7 @@
       <c r="H672" t="n">
         <v>42551851</v>
       </c>
-      <c r="I672" s="3" t="n">
+      <c r="I672" s="2" t="n">
         <v>45763</v>
       </c>
       <c r="J672" t="inlineStr">
@@ -36099,7 +36099,7 @@
       <c r="H673" t="n">
         <v>61871342</v>
       </c>
-      <c r="I673" s="3" t="n">
+      <c r="I673" s="2" t="n">
         <v>45764</v>
       </c>
       <c r="J673" t="inlineStr">
@@ -36152,7 +36152,7 @@
       <c r="H674" t="n">
         <v>26350189</v>
       </c>
-      <c r="I674" s="3" t="n">
+      <c r="I674" s="2" t="n">
         <v>45768</v>
       </c>
       <c r="J674" t="inlineStr">
@@ -36205,7 +36205,7 @@
       <c r="H675" t="n">
         <v>58060488</v>
       </c>
-      <c r="I675" s="3" t="n">
+      <c r="I675" s="2" t="n">
         <v>45769</v>
       </c>
       <c r="J675" t="inlineStr">
@@ -36258,7 +36258,7 @@
       <c r="H676" t="n">
         <v>37736613</v>
       </c>
-      <c r="I676" s="3" t="n">
+      <c r="I676" s="2" t="n">
         <v>45770</v>
       </c>
       <c r="J676" t="inlineStr">
@@ -36311,7 +36311,7 @@
       <c r="H677" t="n">
         <v>22922158</v>
       </c>
-      <c r="I677" s="3" t="n">
+      <c r="I677" s="2" t="n">
         <v>45771</v>
       </c>
       <c r="J677" t="inlineStr">
@@ -36364,7 +36364,7 @@
       <c r="H678" t="n">
         <v>37654560</v>
       </c>
-      <c r="I678" s="3" t="n">
+      <c r="I678" s="2" t="n">
         <v>45772</v>
       </c>
       <c r="J678" t="inlineStr">
@@ -36417,7 +36417,7 @@
       <c r="H679" t="n">
         <v>26874508</v>
       </c>
-      <c r="I679" s="3" t="n">
+      <c r="I679" s="2" t="n">
         <v>45775</v>
       </c>
       <c r="J679" t="inlineStr">
@@ -36470,7 +36470,7 @@
       <c r="H680" t="n">
         <v>25709214</v>
       </c>
-      <c r="I680" s="3" t="n">
+      <c r="I680" s="2" t="n">
         <v>45776</v>
       </c>
       <c r="J680" t="inlineStr">
@@ -36523,7 +36523,7 @@
       <c r="H681" t="n">
         <v>29142566</v>
       </c>
-      <c r="I681" s="3" t="n">
+      <c r="I681" s="2" t="n">
         <v>45777</v>
       </c>
       <c r="J681" t="inlineStr">
@@ -36576,7 +36576,7 @@
       <c r="H682" t="n">
         <v>34766935</v>
       </c>
-      <c r="I682" s="3" t="n">
+      <c r="I682" s="2" t="n">
         <v>45779</v>
       </c>
       <c r="J682" t="inlineStr">
@@ -36629,7 +36629,7 @@
       <c r="H683" t="n">
         <v>17127324</v>
       </c>
-      <c r="I683" s="3" t="n">
+      <c r="I683" s="2" t="n">
         <v>45782</v>
       </c>
       <c r="J683" t="inlineStr">
@@ -36682,7 +36682,7 @@
       <c r="H684" t="n">
         <v>42606278</v>
       </c>
-      <c r="I684" s="3" t="n">
+      <c r="I684" s="2" t="n">
         <v>45783</v>
       </c>
       <c r="J684" t="inlineStr">
@@ -36735,7 +36735,7 @@
       <c r="H685" t="n">
         <v>34518313</v>
       </c>
-      <c r="I685" s="3" t="n">
+      <c r="I685" s="2" t="n">
         <v>45784</v>
       </c>
       <c r="J685" t="inlineStr">
@@ -36788,7 +36788,7 @@
       <c r="H686" t="n">
         <v>29548053</v>
       </c>
-      <c r="I686" s="3" t="n">
+      <c r="I686" s="2" t="n">
         <v>45785</v>
       </c>
       <c r="J686" t="inlineStr">
@@ -36841,7 +36841,7 @@
       <c r="H687" t="n">
         <v>21645188</v>
       </c>
-      <c r="I687" s="3" t="n">
+      <c r="I687" s="2" t="n">
         <v>45786</v>
       </c>
       <c r="J687" t="inlineStr">
@@ -36894,7 +36894,7 @@
       <c r="H688" t="n">
         <v>46910723</v>
       </c>
-      <c r="I688" s="3" t="n">
+      <c r="I688" s="2" t="n">
         <v>45789</v>
       </c>
       <c r="J688" t="inlineStr">
@@ -36947,7 +36947,7 @@
       <c r="H689" t="n">
         <v>54011331</v>
       </c>
-      <c r="I689" s="3" t="n">
+      <c r="I689" s="2" t="n">
         <v>45790</v>
       </c>
       <c r="J689" t="inlineStr">
@@ -37000,7 +37000,7 @@
       <c r="H690" t="n">
         <v>59862978</v>
       </c>
-      <c r="I690" s="3" t="n">
+      <c r="I690" s="2" t="n">
         <v>45791</v>
       </c>
       <c r="J690" t="inlineStr">
@@ -37053,7 +37053,7 @@
       <c r="H691" t="n">
         <v>56905522</v>
       </c>
-      <c r="I691" s="3" t="n">
+      <c r="I691" s="2" t="n">
         <v>45792</v>
       </c>
       <c r="J691" t="inlineStr">
@@ -37106,7 +37106,7 @@
       <c r="H692" t="n">
         <v>22772099</v>
       </c>
-      <c r="I692" s="3" t="n">
+      <c r="I692" s="2" t="n">
         <v>45793</v>
       </c>
       <c r="J692" t="inlineStr">
@@ -37159,7 +37159,7 @@
       <c r="H693" t="n">
         <v>21718878</v>
       </c>
-      <c r="I693" s="3" t="n">
+      <c r="I693" s="2" t="n">
         <v>45796</v>
       </c>
       <c r="J693" t="inlineStr">
@@ -37212,7 +37212,7 @@
       <c r="H694" t="n">
         <v>57938014</v>
       </c>
-      <c r="I694" s="3" t="n">
+      <c r="I694" s="2" t="n">
         <v>45797</v>
       </c>
       <c r="J694" t="inlineStr">
@@ -37265,7 +37265,7 @@
       <c r="H695" t="n">
         <v>36041683</v>
       </c>
-      <c r="I695" s="3" t="n">
+      <c r="I695" s="2" t="n">
         <v>45798</v>
       </c>
       <c r="J695" t="inlineStr">
@@ -37318,7 +37318,7 @@
       <c r="H696" t="n">
         <v>60601294</v>
       </c>
-      <c r="I696" s="3" t="n">
+      <c r="I696" s="2" t="n">
         <v>45799</v>
       </c>
       <c r="J696" t="inlineStr">
@@ -37371,7 +37371,7 @@
       <c r="H697" t="n">
         <v>29404223</v>
       </c>
-      <c r="I697" s="3" t="n">
+      <c r="I697" s="2" t="n">
         <v>45800</v>
       </c>
       <c r="J697" t="inlineStr">
@@ -37424,7 +37424,7 @@
       <c r="H698" t="n">
         <v>25495129</v>
       </c>
-      <c r="I698" s="3" t="n">
+      <c r="I698" s="2" t="n">
         <v>45803</v>
       </c>
       <c r="J698" t="inlineStr">
@@ -37477,7 +37477,7 @@
       <c r="H699" t="n">
         <v>23208800</v>
       </c>
-      <c r="I699" s="3" t="n">
+      <c r="I699" s="2" t="n">
         <v>45804</v>
       </c>
       <c r="J699" t="inlineStr">
@@ -37530,7 +37530,7 @@
       <c r="H700" t="n">
         <v>12978216</v>
       </c>
-      <c r="I700" s="3" t="n">
+      <c r="I700" s="2" t="n">
         <v>45805</v>
       </c>
       <c r="J700" t="inlineStr">
@@ -37583,7 +37583,7 @@
       <c r="H701" t="n">
         <v>26365327</v>
       </c>
-      <c r="I701" s="3" t="n">
+      <c r="I701" s="2" t="n">
         <v>45806</v>
       </c>
       <c r="J701" t="inlineStr">
@@ -37636,7 +37636,7 @@
       <c r="H702" t="n">
         <v>32660940</v>
       </c>
-      <c r="I702" s="3" t="n">
+      <c r="I702" s="2" t="n">
         <v>45807</v>
       </c>
       <c r="J702" t="inlineStr">
@@ -37689,7 +37689,7 @@
       <c r="H703" t="n">
         <v>31113680</v>
       </c>
-      <c r="I703" s="3" t="n">
+      <c r="I703" s="2" t="n">
         <v>45810</v>
       </c>
       <c r="J703" t="inlineStr">
@@ -37742,7 +37742,7 @@
       <c r="H704" t="n">
         <v>28211591</v>
       </c>
-      <c r="I704" s="3" t="n">
+      <c r="I704" s="2" t="n">
         <v>45811</v>
       </c>
       <c r="J704" t="inlineStr">
@@ -37795,7 +37795,7 @@
       <c r="H705" t="n">
         <v>16531745</v>
       </c>
-      <c r="I705" s="3" t="n">
+      <c r="I705" s="2" t="n">
         <v>45812</v>
       </c>
       <c r="J705" t="inlineStr">
@@ -37848,7 +37848,7 @@
       <c r="H706" t="n">
         <v>23613953</v>
       </c>
-      <c r="I706" s="3" t="n">
+      <c r="I706" s="2" t="n">
         <v>45813</v>
       </c>
       <c r="J706" t="inlineStr">
@@ -37901,7 +37901,7 @@
       <c r="H707" t="n">
         <v>25648580</v>
       </c>
-      <c r="I707" s="3" t="n">
+      <c r="I707" s="2" t="n">
         <v>45814</v>
       </c>
       <c r="J707" t="inlineStr">
@@ -37954,7 +37954,7 @@
       <c r="H708" t="n">
         <v>15226357</v>
       </c>
-      <c r="I708" s="3" t="n">
+      <c r="I708" s="2" t="n">
         <v>45817</v>
       </c>
       <c r="J708" t="inlineStr">
@@ -38007,7 +38007,7 @@
       <c r="H709" t="n">
         <v>22704695</v>
       </c>
-      <c r="I709" s="3" t="n">
+      <c r="I709" s="2" t="n">
         <v>45818</v>
       </c>
       <c r="J709" t="inlineStr">
@@ -38060,7 +38060,7 @@
       <c r="H710" t="n">
         <v>17454919</v>
       </c>
-      <c r="I710" s="3" t="n">
+      <c r="I710" s="2" t="n">
         <v>45819</v>
       </c>
       <c r="J710" t="inlineStr">
@@ -38113,7 +38113,7 @@
       <c r="H711" t="n">
         <v>27797777</v>
       </c>
-      <c r="I711" s="3" t="n">
+      <c r="I711" s="2" t="n">
         <v>45820</v>
       </c>
       <c r="J711" t="inlineStr">
@@ -38166,7 +38166,7 @@
       <c r="H712" t="n">
         <v>24150685</v>
       </c>
-      <c r="I712" s="3" t="n">
+      <c r="I712" s="2" t="n">
         <v>45821</v>
       </c>
       <c r="J712" t="inlineStr">
@@ -38219,7 +38219,7 @@
       <c r="H713" t="n">
         <v>16124802</v>
       </c>
-      <c r="I713" s="3" t="n">
+      <c r="I713" s="2" t="n">
         <v>45824</v>
       </c>
       <c r="J713" t="inlineStr">
@@ -38272,7 +38272,7 @@
       <c r="H714" t="n">
         <v>16696072</v>
       </c>
-      <c r="I714" s="3" t="n">
+      <c r="I714" s="2" t="n">
         <v>45825</v>
       </c>
       <c r="J714" t="inlineStr">
@@ -38325,7 +38325,7 @@
       <c r="H715" t="n">
         <v>14833800</v>
       </c>
-      <c r="I715" s="3" t="n">
+      <c r="I715" s="2" t="n">
         <v>45826</v>
       </c>
       <c r="J715" t="inlineStr">
@@ -38378,7 +38378,7 @@
       <c r="H716" t="n">
         <v>20112801</v>
       </c>
-      <c r="I716" s="3" t="n">
+      <c r="I716" s="2" t="n">
         <v>45827</v>
       </c>
       <c r="J716" t="inlineStr">
@@ -38431,7 +38431,7 @@
       <c r="H717" t="n">
         <v>29916346</v>
       </c>
-      <c r="I717" s="3" t="n">
+      <c r="I717" s="2" t="n">
         <v>45828</v>
       </c>
       <c r="J717" t="inlineStr">
@@ -38484,7 +38484,7 @@
       <c r="H718" t="n">
         <v>17028241</v>
       </c>
-      <c r="I718" s="3" t="n">
+      <c r="I718" s="2" t="n">
         <v>45831</v>
       </c>
       <c r="J718" t="inlineStr">
@@ -38537,7 +38537,7 @@
       <c r="H719" t="n">
         <v>25335420</v>
       </c>
-      <c r="I719" s="3" t="n">
+      <c r="I719" s="2" t="n">
         <v>45832</v>
       </c>
       <c r="J719" t="inlineStr">
@@ -38590,7 +38590,7 @@
       <c r="H720" t="n">
         <v>18193920</v>
       </c>
-      <c r="I720" s="3" t="n">
+      <c r="I720" s="2" t="n">
         <v>45833</v>
       </c>
       <c r="J720" t="inlineStr">
@@ -38643,7 +38643,7 @@
       <c r="H721" t="n">
         <v>40527953</v>
       </c>
-      <c r="I721" s="3" t="n">
+      <c r="I721" s="2" t="n">
         <v>45834</v>
       </c>
       <c r="J721" t="inlineStr">
@@ -38696,7 +38696,7 @@
       <c r="H722" t="n">
         <v>31893562</v>
       </c>
-      <c r="I722" s="3" t="n">
+      <c r="I722" s="2" t="n">
         <v>45835</v>
       </c>
       <c r="J722" t="inlineStr">
@@ -38749,7 +38749,7 @@
       <c r="H723" t="n">
         <v>15736492</v>
       </c>
-      <c r="I723" s="3" t="n">
+      <c r="I723" s="2" t="n">
         <v>45838</v>
       </c>
       <c r="J723" t="inlineStr">
@@ -38802,7 +38802,7 @@
       <c r="H724" t="n">
         <v>17760719</v>
       </c>
-      <c r="I724" s="3" t="n">
+      <c r="I724" s="2" t="n">
         <v>45839</v>
       </c>
       <c r="J724" t="inlineStr">
@@ -38855,7 +38855,7 @@
       <c r="H725" t="n">
         <v>63234196</v>
       </c>
-      <c r="I725" s="3" t="n">
+      <c r="I725" s="2" t="n">
         <v>45840</v>
       </c>
       <c r="J725" t="inlineStr">
@@ -38908,7 +38908,7 @@
       <c r="H726" t="n">
         <v>60299556</v>
       </c>
-      <c r="I726" s="3" t="n">
+      <c r="I726" s="2" t="n">
         <v>45841</v>
       </c>
       <c r="J726" t="inlineStr">
@@ -38961,7 +38961,7 @@
       <c r="H727" t="n">
         <v>22881726</v>
       </c>
-      <c r="I727" s="3" t="n">
+      <c r="I727" s="2" t="n">
         <v>45842</v>
       </c>
       <c r="J727" t="inlineStr">
@@ -39014,7 +39014,7 @@
       <c r="H728" t="n">
         <v>17296833</v>
       </c>
-      <c r="I728" s="3" t="n">
+      <c r="I728" s="2" t="n">
         <v>45845</v>
       </c>
       <c r="J728" t="inlineStr">
@@ -39067,7 +39067,7 @@
       <c r="H729" t="n">
         <v>11330138</v>
       </c>
-      <c r="I729" s="3" t="n">
+      <c r="I729" s="2" t="n">
         <v>45846</v>
       </c>
       <c r="J729" t="inlineStr">
@@ -39120,7 +39120,7 @@
       <c r="H730" t="n">
         <v>29770744</v>
       </c>
-      <c r="I730" s="3" t="n">
+      <c r="I730" s="2" t="n">
         <v>45847</v>
       </c>
       <c r="J730" t="inlineStr">
@@ -39173,7 +39173,7 @@
       <c r="H731" t="n">
         <v>17493420</v>
       </c>
-      <c r="I731" s="3" t="n">
+      <c r="I731" s="2" t="n">
         <v>45848</v>
       </c>
       <c r="J731" t="inlineStr">
@@ -39226,7 +39226,7 @@
       <c r="H732" t="n">
         <v>20627209</v>
       </c>
-      <c r="I732" s="3" t="n">
+      <c r="I732" s="2" t="n">
         <v>45849</v>
       </c>
       <c r="J732" t="inlineStr">
@@ -39279,7 +39279,7 @@
       <c r="H733" t="n">
         <v>14739996</v>
       </c>
-      <c r="I733" s="3" t="n">
+      <c r="I733" s="2" t="n">
         <v>45852</v>
       </c>
       <c r="J733" t="inlineStr">
@@ -39332,7 +39332,7 @@
       <c r="H734" t="n">
         <v>17939833</v>
       </c>
-      <c r="I734" s="3" t="n">
+      <c r="I734" s="2" t="n">
         <v>45853</v>
       </c>
       <c r="J734" t="inlineStr">
@@ -39385,7 +39385,7 @@
       <c r="H735" t="n">
         <v>14522963</v>
       </c>
-      <c r="I735" s="3" t="n">
+      <c r="I735" s="2" t="n">
         <v>45854</v>
       </c>
       <c r="J735" t="inlineStr">
@@ -39438,7 +39438,7 @@
       <c r="H736" t="n">
         <v>21689108</v>
       </c>
-      <c r="I736" s="3" t="n">
+      <c r="I736" s="2" t="n">
         <v>45855</v>
       </c>
       <c r="J736" t="inlineStr">
@@ -39491,7 +39491,7 @@
       <c r="H737" t="n">
         <v>30661159</v>
       </c>
-      <c r="I737" s="3" t="n">
+      <c r="I737" s="2" t="n">
         <v>45856</v>
       </c>
       <c r="J737" t="inlineStr">
@@ -39544,7 +39544,7 @@
       <c r="H738" t="n">
         <v>29724976</v>
       </c>
-      <c r="I738" s="3" t="n">
+      <c r="I738" s="2" t="n">
         <v>45859</v>
       </c>
       <c r="J738" t="inlineStr">
@@ -39597,7 +39597,7 @@
       <c r="H739" t="n">
         <v>13552333</v>
       </c>
-      <c r="I739" s="3" t="n">
+      <c r="I739" s="2" t="n">
         <v>45860</v>
       </c>
       <c r="J739" t="inlineStr">
@@ -39650,7 +39650,7 @@
       <c r="H740" t="n">
         <v>14220058</v>
       </c>
-      <c r="I740" s="3" t="n">
+      <c r="I740" s="2" t="n">
         <v>45861</v>
       </c>
       <c r="J740" t="inlineStr">
@@ -39703,7 +39703,7 @@
       <c r="H741" t="n">
         <v>14333007</v>
       </c>
-      <c r="I741" s="3" t="n">
+      <c r="I741" s="2" t="n">
         <v>45862</v>
       </c>
       <c r="J741" t="inlineStr">
@@ -39756,7 +39756,7 @@
       <c r="H742" t="n">
         <v>12376318</v>
       </c>
-      <c r="I742" s="3" t="n">
+      <c r="I742" s="2" t="n">
         <v>45863</v>
       </c>
       <c r="J742" t="inlineStr">
@@ -39809,7 +39809,7 @@
       <c r="H743" t="n">
         <v>19242997</v>
       </c>
-      <c r="I743" s="3" t="n">
+      <c r="I743" s="2" t="n">
         <v>45866</v>
       </c>
       <c r="J743" t="inlineStr">
@@ -39862,7 +39862,7 @@
       <c r="H744" t="n">
         <v>15200678</v>
       </c>
-      <c r="I744" s="3" t="n">
+      <c r="I744" s="2" t="n">
         <v>45867</v>
       </c>
       <c r="J744" t="inlineStr">
@@ -39915,7 +39915,7 @@
       <c r="H745" t="n">
         <v>16018587</v>
       </c>
-      <c r="I745" s="3" t="n">
+      <c r="I745" s="2" t="n">
         <v>45868</v>
       </c>
       <c r="J745" t="inlineStr">
@@ -39968,7 +39968,7 @@
       <c r="H746" t="n">
         <v>25885328</v>
       </c>
-      <c r="I746" s="3" t="n">
+      <c r="I746" s="2" t="n">
         <v>45869</v>
       </c>
       <c r="J746" t="inlineStr">
@@ -40021,7 +40021,7 @@
       <c r="H747" t="n">
         <v>23824187</v>
       </c>
-      <c r="I747" s="3" t="n">
+      <c r="I747" s="2" t="n">
         <v>45870</v>
       </c>
       <c r="J747" t="inlineStr">
@@ -40074,7 +40074,7 @@
       <c r="H748" t="n">
         <v>29976120</v>
       </c>
-      <c r="I748" s="3" t="n">
+      <c r="I748" s="2" t="n">
         <v>45873</v>
       </c>
       <c r="J748" t="inlineStr">
@@ -40127,7 +40127,7 @@
       <c r="H749" t="n">
         <v>14352735</v>
       </c>
-      <c r="I749" s="3" t="n">
+      <c r="I749" s="2" t="n">
         <v>45874</v>
       </c>
       <c r="J749" t="inlineStr">
@@ -40180,7 +40180,7 @@
       <c r="H750" t="n">
         <v>13399495</v>
       </c>
-      <c r="I750" s="3" t="n">
+      <c r="I750" s="2" t="n">
         <v>45875</v>
       </c>
       <c r="J750" t="inlineStr">
@@ -40233,7 +40233,7 @@
       <c r="H751" t="n">
         <v>23081172</v>
       </c>
-      <c r="I751" s="3" t="n">
+      <c r="I751" s="2" t="n">
         <v>45876</v>
       </c>
       <c r="J751" t="inlineStr">
@@ -40286,7 +40286,7 @@
       <c r="H752" t="n">
         <v>11905107</v>
       </c>
-      <c r="I752" s="3" t="n">
+      <c r="I752" s="2" t="n">
         <v>45877</v>
       </c>
       <c r="J752" t="inlineStr">
@@ -40339,7 +40339,7 @@
       <c r="H753" t="n">
         <v>14283027</v>
       </c>
-      <c r="I753" s="3" t="n">
+      <c r="I753" s="2" t="n">
         <v>45880</v>
       </c>
       <c r="J753" t="inlineStr">
@@ -40392,7 +40392,7 @@
       <c r="H754" t="n">
         <v>20019047</v>
       </c>
-      <c r="I754" s="3" t="n">
+      <c r="I754" s="2" t="n">
         <v>45881</v>
       </c>
       <c r="J754" t="inlineStr">
@@ -40445,7 +40445,7 @@
       <c r="H755" t="n">
         <v>18040762</v>
       </c>
-      <c r="I755" s="3" t="n">
+      <c r="I755" s="2" t="n">
         <v>45882</v>
       </c>
       <c r="J755" t="inlineStr">
@@ -40498,7 +40498,7 @@
       <c r="H756" t="n">
         <v>47191627</v>
       </c>
-      <c r="I756" s="3" t="n">
+      <c r="I756" s="2" t="n">
         <v>45883</v>
       </c>
       <c r="J756" t="inlineStr">
@@ -40551,7 +40551,7 @@
       <c r="H757" t="n">
         <v>60841113</v>
       </c>
-      <c r="I757" s="3" t="n">
+      <c r="I757" s="2" t="n">
         <v>45887</v>
       </c>
       <c r="J757" t="inlineStr">
@@ -40604,7 +40604,7 @@
       <c r="H758" t="n">
         <v>21160442</v>
       </c>
-      <c r="I758" s="3" t="n">
+      <c r="I758" s="2" t="n">
         <v>45888</v>
       </c>
       <c r="J758" t="inlineStr">
@@ -40657,7 +40657,7 @@
       <c r="H759" t="n">
         <v>28447395</v>
       </c>
-      <c r="I759" s="3" t="n">
+      <c r="I759" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="J759" t="inlineStr">
@@ -40710,7 +40710,7 @@
       <c r="H760" t="n">
         <v>17224838</v>
       </c>
-      <c r="I760" s="3" t="n">
+      <c r="I760" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="J760" t="inlineStr">
@@ -40763,7 +40763,7 @@
       <c r="H761" t="n">
         <v>16022867</v>
       </c>
-      <c r="I761" s="3" t="n">
+      <c r="I761" s="2" t="n">
         <v>45891</v>
       </c>
       <c r="J761" t="inlineStr">
@@ -40816,7 +40816,7 @@
       <c r="H762" t="n">
         <v>16312818</v>
       </c>
-      <c r="I762" s="3" t="n">
+      <c r="I762" s="2" t="n">
         <v>45894</v>
       </c>
       <c r="J762" t="inlineStr">
@@ -40869,7 +40869,7 @@
       <c r="H763" t="n">
         <v>19586655</v>
       </c>
-      <c r="I763" s="3" t="n">
+      <c r="I763" s="2" t="n">
         <v>45895</v>
       </c>
       <c r="J763" t="inlineStr">
@@ -40922,7 +40922,7 @@
       <c r="H764" t="n">
         <v>22110506</v>
       </c>
-      <c r="I764" s="3" t="n">
+      <c r="I764" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="J764" t="inlineStr">
@@ -40975,7 +40975,7 @@
       <c r="H765" t="n">
         <v>16918266</v>
       </c>
-      <c r="I765" s="3" t="n">
+      <c r="I765" s="2" t="n">
         <v>45898</v>
       </c>
       <c r="J765" t="inlineStr">
@@ -41028,7 +41028,7 @@
       <c r="H766" t="n">
         <v>10728722</v>
       </c>
-      <c r="I766" s="3" t="n">
+      <c r="I766" s="2" t="n">
         <v>45901</v>
       </c>
       <c r="J766" t="inlineStr">
@@ -41081,7 +41081,7 @@
       <c r="H767" t="n">
         <v>21156554</v>
       </c>
-      <c r="I767" s="3" t="n">
+      <c r="I767" s="2" t="n">
         <v>45902</v>
       </c>
       <c r="J767" t="inlineStr">
@@ -41134,7 +41134,7 @@
       <c r="H768" t="n">
         <v>82297511</v>
       </c>
-      <c r="I768" s="3" t="n">
+      <c r="I768" s="2" t="n">
         <v>45903</v>
       </c>
       <c r="J768" t="inlineStr">
@@ -41187,7 +41187,7 @@
       <c r="H769" t="n">
         <v>26074487</v>
       </c>
-      <c r="I769" s="3" t="n">
+      <c r="I769" s="2" t="n">
         <v>45904</v>
       </c>
       <c r="J769" t="inlineStr">
@@ -41240,7 +41240,7 @@
       <c r="H770" t="n">
         <v>16732378</v>
       </c>
-      <c r="I770" s="3" t="n">
+      <c r="I770" s="2" t="n">
         <v>45905</v>
       </c>
       <c r="J770" t="inlineStr">
@@ -41293,7 +41293,7 @@
       <c r="H771" t="n">
         <v>36001920</v>
       </c>
-      <c r="I771" s="3" t="n">
+      <c r="I771" s="2" t="n">
         <v>45908</v>
       </c>
       <c r="J771" t="inlineStr">
@@ -41346,7 +41346,7 @@
       <c r="H772" t="n">
         <v>13972582</v>
       </c>
-      <c r="I772" s="3" t="n">
+      <c r="I772" s="2" t="n">
         <v>45909</v>
       </c>
       <c r="J772" t="inlineStr">
@@ -41399,7 +41399,7 @@
       <c r="H773" t="n">
         <v>13048883</v>
       </c>
-      <c r="I773" s="3" t="n">
+      <c r="I773" s="2" t="n">
         <v>45910</v>
       </c>
       <c r="J773" t="inlineStr">
@@ -41452,7 +41452,7 @@
       <c r="H774" t="n">
         <v>13793680</v>
       </c>
-      <c r="I774" s="3" t="n">
+      <c r="I774" s="2" t="n">
         <v>45911</v>
       </c>
       <c r="J774" t="inlineStr">
@@ -41505,7 +41505,7 @@
       <c r="H775" t="n">
         <v>12074745</v>
       </c>
-      <c r="I775" s="3" t="n">
+      <c r="I775" s="2" t="n">
         <v>45912</v>
       </c>
       <c r="J775" t="inlineStr">
@@ -41558,7 +41558,7 @@
       <c r="H776" t="n">
         <v>10562109</v>
       </c>
-      <c r="I776" s="3" t="n">
+      <c r="I776" s="2" t="n">
         <v>45915</v>
       </c>
       <c r="J776" t="inlineStr">
@@ -41611,7 +41611,7 @@
       <c r="H777" t="n">
         <v>26592995</v>
       </c>
-      <c r="I777" s="3" t="n">
+      <c r="I777" s="2" t="n">
         <v>45916</v>
       </c>
       <c r="J777" t="inlineStr">
@@ -41664,7 +41664,7 @@
       <c r="H778" t="n">
         <v>21296913</v>
       </c>
-      <c r="I778" s="3" t="n">
+      <c r="I778" s="2" t="n">
         <v>45917</v>
       </c>
       <c r="J778" t="inlineStr">
@@ -41717,7 +41717,7 @@
       <c r="H779" t="n">
         <v>16367495</v>
       </c>
-      <c r="I779" s="3" t="n">
+      <c r="I779" s="2" t="n">
         <v>45918</v>
       </c>
       <c r="J779" t="inlineStr">
@@ -41770,7 +41770,7 @@
       <c r="H780" t="n">
         <v>25343193</v>
       </c>
-      <c r="I780" s="3" t="n">
+      <c r="I780" s="2" t="n">
         <v>45919</v>
       </c>
       <c r="J780" t="inlineStr">
@@ -41823,7 +41823,7 @@
       <c r="H781" t="n">
         <v>20921524</v>
       </c>
-      <c r="I781" s="3" t="n">
+      <c r="I781" s="2" t="n">
         <v>45922</v>
       </c>
       <c r="J781" t="inlineStr">
@@ -41876,7 +41876,7 @@
       <c r="H782" t="n">
         <v>24503110</v>
       </c>
-      <c r="I782" s="3" t="n">
+      <c r="I782" s="2" t="n">
         <v>45923</v>
       </c>
       <c r="J782" t="inlineStr">
@@ -41929,7 +41929,7 @@
       <c r="H783" t="n">
         <v>20122994</v>
       </c>
-      <c r="I783" s="3" t="n">
+      <c r="I783" s="2" t="n">
         <v>45924</v>
       </c>
       <c r="J783" t="inlineStr">
@@ -41982,7 +41982,7 @@
       <c r="H784" t="n">
         <v>16965305</v>
       </c>
-      <c r="I784" s="3" t="n">
+      <c r="I784" s="2" t="n">
         <v>45925</v>
       </c>
       <c r="J784" t="inlineStr">
@@ -42035,7 +42035,7 @@
       <c r="H785" t="n">
         <v>20114858</v>
       </c>
-      <c r="I785" s="3" t="n">
+      <c r="I785" s="2" t="n">
         <v>45926</v>
       </c>
       <c r="J785" t="inlineStr">
@@ -42088,7 +42088,7 @@
       <c r="H786" t="n">
         <v>16779293</v>
       </c>
-      <c r="I786" s="3" t="n">
+      <c r="I786" s="2" t="n">
         <v>45929</v>
       </c>
       <c r="J786" t="inlineStr">
@@ -42141,7 +42141,7 @@
       <c r="H787" t="n">
         <v>24493759</v>
       </c>
-      <c r="I787" s="3" t="n">
+      <c r="I787" s="2" t="n">
         <v>45930</v>
       </c>
       <c r="J787" t="inlineStr">
@@ -42194,7 +42194,7 @@
       <c r="H788" t="n">
         <v>17489069</v>
       </c>
-      <c r="I788" s="3" t="n">
+      <c r="I788" s="2" t="n">
         <v>45931</v>
       </c>
       <c r="J788" t="inlineStr">
@@ -42247,7 +42247,7 @@
       <c r="H789" t="n">
         <v>55078214</v>
       </c>
-      <c r="I789" s="3" t="n">
+      <c r="I789" s="2" t="n">
         <v>45933</v>
       </c>
       <c r="J789" t="inlineStr">
@@ -42300,7 +42300,7 @@
       <c r="H790" t="n">
         <v>21328278</v>
       </c>
-      <c r="I790" s="3" t="n">
+      <c r="I790" s="2" t="n">
         <v>45936</v>
       </c>
       <c r="J790" t="inlineStr">
@@ -42353,7 +42353,7 @@
       <c r="H791" t="n">
         <v>19113305</v>
       </c>
-      <c r="I791" s="3" t="n">
+      <c r="I791" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="J791" t="inlineStr">
@@ -42406,7 +42406,7 @@
       <c r="H792" t="n">
         <v>22589555</v>
       </c>
-      <c r="I792" s="3" t="n">
+      <c r="I792" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="J792" t="inlineStr">
@@ -42459,7 +42459,7 @@
       <c r="H793" t="n">
         <v>68403278</v>
       </c>
-      <c r="I793" s="3" t="n">
+      <c r="I793" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="J793" t="inlineStr">
@@ -42512,7 +42512,7 @@
       <c r="H794" t="n">
         <v>17965175</v>
       </c>
-      <c r="I794" s="3" t="n">
+      <c r="I794" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="J794" t="inlineStr">
@@ -42565,7 +42565,7 @@
       <c r="H795" t="n">
         <v>19310583</v>
       </c>
-      <c r="I795" s="3" t="n">
+      <c r="I795" s="2" t="n">
         <v>45943</v>
       </c>
       <c r="J795" t="inlineStr">
@@ -42618,7 +42618,7 @@
       <c r="H796" t="n">
         <v>22082970</v>
       </c>
-      <c r="I796" s="3" t="n">
+      <c r="I796" s="2" t="n">
         <v>45944</v>
       </c>
       <c r="J796" t="inlineStr">
@@ -42671,7 +42671,7 @@
       <c r="H797" t="n">
         <v>14948874</v>
       </c>
-      <c r="I797" s="3" t="n">
+      <c r="I797" s="2" t="n">
         <v>45945</v>
       </c>
       <c r="J797" t="inlineStr">
@@ -42724,7 +42724,7 @@
       <c r="H798" t="n">
         <v>12159125</v>
       </c>
-      <c r="I798" s="3" t="n">
+      <c r="I798" s="2" t="n">
         <v>45946</v>
       </c>
       <c r="J798" t="inlineStr">
@@ -42777,7 +42777,7 @@
       <c r="H799" t="n">
         <v>21599534</v>
       </c>
-      <c r="I799" s="3" t="n">
+      <c r="I799" s="2" t="n">
         <v>45947</v>
       </c>
       <c r="J799" t="inlineStr">
@@ -42830,7 +42830,7 @@
       <c r="H800" t="n">
         <v>17984449</v>
       </c>
-      <c r="I800" s="3" t="n">
+      <c r="I800" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="J800" t="inlineStr">
@@ -42883,7 +42883,7 @@
       <c r="H801" t="n">
         <v>2387242</v>
       </c>
-      <c r="I801" s="3" t="n">
+      <c r="I801" s="2" t="n">
         <v>45951</v>
       </c>
       <c r="J801" t="inlineStr">
@@ -42936,7 +42936,7 @@
       <c r="H802" t="n">
         <v>31270454</v>
       </c>
-      <c r="I802" s="3" t="n">
+      <c r="I802" s="2" t="n">
         <v>45953</v>
       </c>
       <c r="J802" t="inlineStr">
@@ -42989,7 +42989,7 @@
       <c r="H803" t="n">
         <v>25163424</v>
       </c>
-      <c r="I803" s="3" t="n">
+      <c r="I803" s="2" t="n">
         <v>45954</v>
       </c>
       <c r="J803" t="inlineStr">
@@ -43042,7 +43042,7 @@
       <c r="H804" t="n">
         <v>23643497</v>
       </c>
-      <c r="I804" s="3" t="n">
+      <c r="I804" s="2" t="n">
         <v>45957</v>
       </c>
       <c r="J804" t="inlineStr">
@@ -43095,7 +43095,7 @@
       <c r="H805" t="n">
         <v>59436755</v>
       </c>
-      <c r="I805" s="3" t="n">
+      <c r="I805" s="2" t="n">
         <v>45958</v>
       </c>
       <c r="J805" t="inlineStr">
@@ -43148,7 +43148,7 @@
       <c r="H806" t="n">
         <v>51234914</v>
       </c>
-      <c r="I806" s="3" t="n">
+      <c r="I806" s="2" t="n">
         <v>45959</v>
       </c>
       <c r="J806" t="inlineStr">
@@ -43201,7 +43201,7 @@
       <c r="H807" t="n">
         <v>24122482</v>
       </c>
-      <c r="I807" s="3" t="n">
+      <c r="I807" s="2" t="n">
         <v>45960</v>
       </c>
       <c r="J807" t="inlineStr">
@@ -43254,7 +43254,7 @@
       <c r="H808" t="n">
         <v>15965210</v>
       </c>
-      <c r="I808" s="3" t="n">
+      <c r="I808" s="2" t="n">
         <v>45961</v>
       </c>
       <c r="J808" t="inlineStr">
@@ -43307,7 +43307,7 @@
       <c r="H809" t="n">
         <v>16534087</v>
       </c>
-      <c r="I809" s="3" t="n">
+      <c r="I809" s="2" t="n">
         <v>45964</v>
       </c>
       <c r="J809" t="inlineStr">
@@ -43360,7 +43360,7 @@
       <c r="H810" t="n">
         <v>18659536</v>
       </c>
-      <c r="I810" s="3" t="n">
+      <c r="I810" s="2" t="n">
         <v>45965</v>
       </c>
       <c r="J810" t="inlineStr">
@@ -43413,7 +43413,7 @@
       <c r="H811" t="n">
         <v>23455762</v>
       </c>
-      <c r="I811" s="3" t="n">
+      <c r="I811" s="2" t="n">
         <v>45967</v>
       </c>
       <c r="J811" t="inlineStr">
@@ -43466,7 +43466,7 @@
       <c r="H812" t="n">
         <v>19112850</v>
       </c>
-      <c r="I812" s="3" t="n">
+      <c r="I812" s="2" t="n">
         <v>45968</v>
       </c>
       <c r="J812" t="inlineStr">
@@ -43519,7 +43519,7 @@
       <c r="H813" t="n">
         <v>18288189</v>
       </c>
-      <c r="I813" s="3" t="n">
+      <c r="I813" s="2" t="n">
         <v>45971</v>
       </c>
       <c r="J813" t="inlineStr">
@@ -43572,7 +43572,7 @@
       <c r="H814" t="n">
         <v>13996692</v>
       </c>
-      <c r="I814" s="3" t="n">
+      <c r="I814" s="2" t="n">
         <v>45972</v>
       </c>
       <c r="J814" t="inlineStr">
@@ -43625,7 +43625,7 @@
       <c r="H815" t="n">
         <v>18991880</v>
       </c>
-      <c r="I815" s="3" t="n">
+      <c r="I815" s="2" t="n">
         <v>45973</v>
       </c>
       <c r="J815" t="inlineStr">
@@ -43678,7 +43678,7 @@
       <c r="H816" t="n">
         <v>81293209</v>
       </c>
-      <c r="I816" s="3" t="n">
+      <c r="I816" s="2" t="n">
         <v>45974</v>
       </c>
       <c r="J816" t="inlineStr">
@@ -43731,7 +43731,7 @@
       <c r="H817" t="n">
         <v>38207081</v>
       </c>
-      <c r="I817" s="3" t="n">
+      <c r="I817" s="2" t="n">
         <v>45975</v>
       </c>
       <c r="J817" t="inlineStr">
@@ -43784,7 +43784,7 @@
       <c r="H818" t="n">
         <v>28103253</v>
       </c>
-      <c r="I818" s="3" t="n">
+      <c r="I818" s="2" t="n">
         <v>45978</v>
       </c>
       <c r="J818" t="inlineStr">
@@ -43837,7 +43837,7 @@
       <c r="H819" t="n">
         <v>34080391</v>
       </c>
-      <c r="I819" s="3" t="n">
+      <c r="I819" s="2" t="n">
         <v>45979</v>
       </c>
       <c r="J819" t="inlineStr">
@@ -43890,7 +43890,7 @@
       <c r="H820" t="n">
         <v>19554559</v>
       </c>
-      <c r="I820" s="3" t="n">
+      <c r="I820" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J820" t="inlineStr">
@@ -43943,7 +43943,7 @@
       <c r="H821" t="n">
         <v>15879798</v>
       </c>
-      <c r="I821" s="3" t="n">
+      <c r="I821" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J821" t="inlineStr">
@@ -43996,7 +43996,7 @@
       <c r="H822" t="n">
         <v>28352272</v>
       </c>
-      <c r="I822" s="3" t="n">
+      <c r="I822" s="2" t="n">
         <v>45982</v>
       </c>
       <c r="J822" t="inlineStr">
@@ -44049,7 +44049,7 @@
       <c r="H823" t="n">
         <v>31014019</v>
       </c>
-      <c r="I823" s="3" t="n">
+      <c r="I823" s="2" t="n">
         <v>45985</v>
       </c>
       <c r="J823" t="inlineStr">
@@ -44102,7 +44102,7 @@
       <c r="H824" t="n">
         <v>19890875</v>
       </c>
-      <c r="I824" s="3" t="n">
+      <c r="I824" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J824" t="inlineStr">
@@ -44155,7 +44155,7 @@
       <c r="H825" t="n">
         <v>14993077</v>
       </c>
-      <c r="I825" s="3" t="n">
+      <c r="I825" s="2" t="n">
         <v>45987</v>
       </c>
       <c r="J825" t="inlineStr">
@@ -44208,7 +44208,7 @@
       <c r="H826" t="n">
         <v>17461605</v>
       </c>
-      <c r="I826" s="3" t="n">
+      <c r="I826" s="2" t="n">
         <v>45988</v>
       </c>
       <c r="J826" t="inlineStr">
@@ -44261,7 +44261,7 @@
       <c r="H827" t="n">
         <v>11928029</v>
       </c>
-      <c r="I827" s="3" t="n">
+      <c r="I827" s="2" t="n">
         <v>45989</v>
       </c>
       <c r="J827" t="inlineStr">
@@ -44314,7 +44314,7 @@
       <c r="H828" t="n">
         <v>11671421</v>
       </c>
-      <c r="I828" s="3" t="n">
+      <c r="I828" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J828" t="inlineStr">
@@ -44367,7 +44367,7 @@
       <c r="H829" t="n">
         <v>15298977</v>
       </c>
-      <c r="I829" s="3" t="n">
+      <c r="I829" s="2" t="n">
         <v>45993</v>
       </c>
       <c r="J829" t="inlineStr">
@@ -44420,7 +44420,7 @@
       <c r="H830" t="n">
         <v>18834140</v>
       </c>
-      <c r="I830" s="3" t="n">
+      <c r="I830" s="2" t="n">
         <v>45994</v>
       </c>
       <c r="J830" t="inlineStr">
@@ -44473,7 +44473,7 @@
       <c r="H831" t="n">
         <v>11351828</v>
       </c>
-      <c r="I831" s="3" t="n">
+      <c r="I831" s="2" t="n">
         <v>45995</v>
       </c>
       <c r="J831" t="inlineStr">
@@ -44526,7 +44526,7 @@
       <c r="H832" t="n">
         <v>33467682</v>
       </c>
-      <c r="I832" s="3" t="n">
+      <c r="I832" s="2" t="n">
         <v>45996</v>
       </c>
       <c r="J832" t="inlineStr">
@@ -44579,7 +44579,7 @@
       <c r="H833" t="n">
         <v>15715804</v>
       </c>
-      <c r="I833" s="3" t="n">
+      <c r="I833" s="2" t="n">
         <v>45999</v>
       </c>
       <c r="J833" t="inlineStr">
@@ -44632,7 +44632,7 @@
       <c r="H834" t="n">
         <v>25715102</v>
       </c>
-      <c r="I834" s="3" t="n">
+      <c r="I834" s="2" t="n">
         <v>46000</v>
       </c>
       <c r="J834" t="inlineStr">
@@ -44685,7 +44685,7 @@
       <c r="H835" t="n">
         <v>22439701</v>
       </c>
-      <c r="I835" s="3" t="n">
+      <c r="I835" s="2" t="n">
         <v>46001</v>
       </c>
       <c r="J835" t="inlineStr">
@@ -44738,7 +44738,7 @@
       <c r="H836" t="n">
         <v>32418689</v>
       </c>
-      <c r="I836" s="3" t="n">
+      <c r="I836" s="2" t="n">
         <v>46002</v>
       </c>
       <c r="J836" t="inlineStr">
@@ -44791,7 +44791,7 @@
       <c r="H837" t="n">
         <v>40983807</v>
       </c>
-      <c r="I837" s="3" t="n">
+      <c r="I837" s="2" t="n">
         <v>46003</v>
       </c>
       <c r="J837" t="inlineStr">
@@ -44844,7 +44844,7 @@
       <c r="H838" t="n">
         <v>23089070</v>
       </c>
-      <c r="I838" s="3" t="n">
+      <c r="I838" s="2" t="n">
         <v>46006</v>
       </c>
       <c r="J838" t="inlineStr">
@@ -44897,7 +44897,7 @@
       <c r="H839" t="n">
         <v>22909119</v>
       </c>
-      <c r="I839" s="3" t="n">
+      <c r="I839" s="2" t="n">
         <v>46007</v>
       </c>
       <c r="J839" t="inlineStr">
@@ -44950,7 +44950,7 @@
       <c r="H840" t="n">
         <v>11589118</v>
       </c>
-      <c r="I840" s="3" t="n">
+      <c r="I840" s="2" t="n">
         <v>46008</v>
       </c>
       <c r="J840" t="inlineStr">
@@ -45003,7 +45003,7 @@
       <c r="H841" t="n">
         <v>13104635</v>
       </c>
-      <c r="I841" s="3" t="n">
+      <c r="I841" s="2" t="n">
         <v>46009</v>
       </c>
       <c r="J841" t="inlineStr">
@@ -45056,7 +45056,7 @@
       <c r="H842" t="n">
         <v>28372247</v>
       </c>
-      <c r="I842" s="3" t="n">
+      <c r="I842" s="2" t="n">
         <v>46010</v>
       </c>
       <c r="J842" t="inlineStr">
@@ -45109,7 +45109,7 @@
       <c r="H843" t="n">
         <v>23650476</v>
       </c>
-      <c r="I843" s="3" t="n">
+      <c r="I843" s="2" t="n">
         <v>46013</v>
       </c>
       <c r="J843" t="inlineStr">
@@ -45162,7 +45162,7 @@
       <c r="H844" t="n">
         <v>17297387</v>
       </c>
-      <c r="I844" s="3" t="n">
+      <c r="I844" s="2" t="n">
         <v>46014</v>
       </c>
       <c r="J844" t="inlineStr">
@@ -45215,7 +45215,7 @@
       <c r="H845" t="n">
         <v>17370471</v>
       </c>
-      <c r="I845" s="3" t="n">
+      <c r="I845" s="2" t="n">
         <v>46015</v>
       </c>
       <c r="J845" t="inlineStr">
@@ -45268,7 +45268,7 @@
       <c r="H846" t="n">
         <v>16847273</v>
       </c>
-      <c r="I846" s="3" t="n">
+      <c r="I846" s="2" t="n">
         <v>46017</v>
       </c>
       <c r="J846" t="inlineStr">
@@ -45321,7 +45321,7 @@
       <c r="H847" t="n">
         <v>47895988</v>
       </c>
-      <c r="I847" s="3" t="n">
+      <c r="I847" s="2" t="n">
         <v>46020</v>
       </c>
       <c r="J847" t="inlineStr">
@@ -45374,7 +45374,7 @@
       <c r="H848" t="n">
         <v>33664103</v>
       </c>
-      <c r="I848" s="3" t="n">
+      <c r="I848" s="2" t="n">
         <v>46021</v>
       </c>
       <c r="J848" t="inlineStr">
@@ -45427,7 +45427,7 @@
       <c r="H849" t="n">
         <v>49915742</v>
       </c>
-      <c r="I849" s="3" t="n">
+      <c r="I849" s="2" t="n">
         <v>46022</v>
       </c>
       <c r="J849" t="inlineStr">
@@ -45480,7 +45480,7 @@
       <c r="H850" t="n">
         <v>21426824</v>
       </c>
-      <c r="I850" s="3" t="n">
+      <c r="I850" s="2" t="n">
         <v>46023</v>
       </c>
       <c r="J850" t="inlineStr">
@@ -45533,7 +45533,7 @@
       <c r="H851" t="n">
         <v>22926832</v>
       </c>
-      <c r="I851" s="3" t="n">
+      <c r="I851" s="2" t="n">
         <v>46024</v>
       </c>
       <c r="J851" t="inlineStr">
@@ -45586,7 +45586,7 @@
       <c r="H852" t="n">
         <v>30471338</v>
       </c>
-      <c r="I852" s="3" t="n">
+      <c r="I852" s="2" t="n">
         <v>46027</v>
       </c>
       <c r="J852" t="inlineStr">
@@ -45639,7 +45639,7 @@
       <c r="H853" t="n">
         <v>28406448</v>
       </c>
-      <c r="I853" s="3" t="n">
+      <c r="I853" s="2" t="n">
         <v>46028</v>
       </c>
       <c r="J853" t="inlineStr">
@@ -45692,7 +45692,7 @@
       <c r="H854" t="n">
         <v>18096529</v>
       </c>
-      <c r="I854" s="3" t="n">
+      <c r="I854" s="2" t="n">
         <v>46029</v>
       </c>
       <c r="J854" t="inlineStr">
@@ -45745,7 +45745,7 @@
       <c r="H855" t="n">
         <v>38232043</v>
       </c>
-      <c r="I855" s="3" t="n">
+      <c r="I855" s="2" t="n">
         <v>46030</v>
       </c>
       <c r="J855" t="inlineStr">
@@ -45798,7 +45798,7 @@
       <c r="H856" t="n">
         <v>25249462</v>
       </c>
-      <c r="I856" s="3" t="n">
+      <c r="I856" s="2" t="n">
         <v>46031</v>
       </c>
       <c r="J856" t="inlineStr">
@@ -45851,7 +45851,7 @@
       <c r="H857" t="n">
         <v>25705047</v>
       </c>
-      <c r="I857" s="3" t="n">
+      <c r="I857" s="2" t="n">
         <v>46034</v>
       </c>
       <c r="J857" t="inlineStr">
@@ -45904,7 +45904,7 @@
       <c r="H858" t="n">
         <v>19070037</v>
       </c>
-      <c r="I858" s="3" t="n">
+      <c r="I858" s="2" t="n">
         <v>46035</v>
       </c>
       <c r="J858" t="inlineStr">
@@ -45957,7 +45957,7 @@
       <c r="H859" t="n">
         <v>55876416</v>
       </c>
-      <c r="I859" s="3" t="n">
+      <c r="I859" s="2" t="n">
         <v>46036</v>
       </c>
       <c r="J859" t="inlineStr">
@@ -46010,7 +46010,7 @@
       <c r="H860" t="n">
         <v>25667096</v>
       </c>
-      <c r="I860" s="3" t="n">
+      <c r="I860" s="2" t="n">
         <v>46038</v>
       </c>
       <c r="J860" t="inlineStr">
@@ -46063,7 +46063,7 @@
       <c r="H861" t="n">
         <v>19608888</v>
       </c>
-      <c r="I861" s="3" t="n">
+      <c r="I861" s="2" t="n">
         <v>46041</v>
       </c>
       <c r="J861" t="inlineStr">
@@ -46116,7 +46116,7 @@
       <c r="H862" t="n">
         <v>20047829</v>
       </c>
-      <c r="I862" s="3" t="n">
+      <c r="I862" s="2" t="n">
         <v>46042</v>
       </c>
       <c r="J862" t="inlineStr">
@@ -46169,7 +46169,7 @@
       <c r="H863" t="n">
         <v>34967844</v>
       </c>
-      <c r="I863" s="3" t="n">
+      <c r="I863" s="2" t="n">
         <v>46043</v>
       </c>
       <c r="J863" t="inlineStr">
@@ -46222,7 +46222,7 @@
       <c r="H864" t="n">
         <v>35628533</v>
       </c>
-      <c r="I864" s="3" t="n">
+      <c r="I864" s="2" t="n">
         <v>46044</v>
       </c>
       <c r="J864" t="inlineStr">
@@ -46275,7 +46275,7 @@
       <c r="H865" t="n">
         <v>28380379</v>
       </c>
-      <c r="I865" s="3" t="n">
+      <c r="I865" s="2" t="n">
         <v>46045</v>
       </c>
       <c r="J865" t="inlineStr">
@@ -46294,6 +46294,218 @@
         </is>
       </c>
       <c r="M865" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866" t="n">
+        <v>192.28</v>
+      </c>
+      <c r="B866" s="2" t="n">
+        <v>46049</v>
+      </c>
+      <c r="C866" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D866" t="n">
+        <v>193.14</v>
+      </c>
+      <c r="E866" t="n">
+        <v>187.74</v>
+      </c>
+      <c r="F866" t="n">
+        <v>189.25</v>
+      </c>
+      <c r="G866" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="H866" t="n">
+        <v>42199229</v>
+      </c>
+      <c r="I866" s="3" t="n">
+        <v>46049</v>
+      </c>
+      <c r="J866" t="inlineStr">
+        <is>
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="K866" t="inlineStr">
+        <is>
+          <t>Tata Steel Ltd</t>
+        </is>
+      </c>
+      <c r="L866" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="M866" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867" t="n">
+        <v>193.85</v>
+      </c>
+      <c r="B867" s="2" t="n">
+        <v>46050</v>
+      </c>
+      <c r="C867" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D867" t="n">
+        <v>195.2</v>
+      </c>
+      <c r="E867" t="n">
+        <v>192.28</v>
+      </c>
+      <c r="F867" t="n">
+        <v>193.4</v>
+      </c>
+      <c r="G867" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="H867" t="n">
+        <v>32980243</v>
+      </c>
+      <c r="I867" s="3" t="n">
+        <v>46050</v>
+      </c>
+      <c r="J867" t="inlineStr">
+        <is>
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="K867" t="inlineStr">
+        <is>
+          <t>Tata Steel Ltd</t>
+        </is>
+      </c>
+      <c r="L867" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="M867" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868" t="n">
+        <v>202.32</v>
+      </c>
+      <c r="B868" s="2" t="n">
+        <v>46051</v>
+      </c>
+      <c r="C868" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D868" t="n">
+        <v>202.95</v>
+      </c>
+      <c r="E868" t="n">
+        <v>194.11</v>
+      </c>
+      <c r="F868" t="n">
+        <v>194.11</v>
+      </c>
+      <c r="G868" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="H868" t="n">
+        <v>60491699</v>
+      </c>
+      <c r="I868" s="3" t="n">
+        <v>46051</v>
+      </c>
+      <c r="J868" t="inlineStr">
+        <is>
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="K868" t="inlineStr">
+        <is>
+          <t>Tata Steel Ltd</t>
+        </is>
+      </c>
+      <c r="L868" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="M868" t="inlineStr">
+        <is>
+          <t>BREEZE</t>
+        </is>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869" t="n">
+        <v>193.13</v>
+      </c>
+      <c r="B869" s="2" t="n">
+        <v>46052</v>
+      </c>
+      <c r="C869" t="inlineStr">
+        <is>
+          <t>NSE</t>
+        </is>
+      </c>
+      <c r="D869" t="n">
+        <v>198.55</v>
+      </c>
+      <c r="E869" t="n">
+        <v>190.67</v>
+      </c>
+      <c r="F869" t="n">
+        <v>198.51</v>
+      </c>
+      <c r="G869" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="H869" t="n">
+        <v>51847884</v>
+      </c>
+      <c r="I869" s="3" t="n">
+        <v>46052</v>
+      </c>
+      <c r="J869" t="inlineStr">
+        <is>
+          <t>INE081A01020</t>
+        </is>
+      </c>
+      <c r="K869" t="inlineStr">
+        <is>
+          <t>Tata Steel Ltd</t>
+        </is>
+      </c>
+      <c r="L869" t="inlineStr">
+        <is>
+          <t>TATSTE</t>
+        </is>
+      </c>
+      <c r="M869" t="inlineStr">
         <is>
           <t>BREEZE</t>
         </is>
